--- a/Ransomware profile/Example/WannaCry_Profile.xlsx
+++ b/Ransomware profile/Example/WannaCry_Profile.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507UAR\Desktop\Y4FinalReport\Ransomware profile\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A234124-9F20-481B-85D3-3F22FAF79564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE86DD4C-5ABC-43C9-96FF-39BDD6E3AE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28185" yWindow="5955" windowWidth="15375" windowHeight="7995" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enterprise ATT&amp;CK (v11)" sheetId="1" r:id="rId1"/>
     <sheet name="Mitigation &amp; Detection Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Defensive Profile" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="266">
   <si>
     <t>Reconnaissance</t>
   </si>
@@ -779,13 +780,388 @@
   </si>
   <si>
     <t>The infrastructure for management data and operations that enables local and remote management of Windows personal computers and servers[1][2]</t>
+  </si>
+  <si>
+    <t>Mitigation &amp; Detection Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster </t>
+  </si>
+  <si>
+    <t>NIST Cybersecurity Framework</t>
+  </si>
+  <si>
+    <t>DE.AE-3: Event data are collected and correlated from multiple sources and sensors</t>
+  </si>
+  <si>
+    <t>PR.DS-6: Integrity checking mechanisms are used to verify software, firmware, and information integrity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR.IP-4: Backups of information are conducted, maintained, and tested </t>
+  </si>
+  <si>
+    <t>PR.PT-3: The principle of least functionality is incorporated by configuring systems to provide only essential capabilities</t>
+  </si>
+  <si>
+    <t>PR.MA-1: Maintenance and repair of organizational assets are performed and logged, with approved and controlled tools</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PR.AC-1: Identities and credentials are issued, managed, verified, revoked, and audited for authorized devices, users and processes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+PR.AC-4: Access permissions and authorizations are managed, incorporating the principles of least privilege and separation of duties</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PR.DS-5: Protections against data leaks are implemented
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(DE.CM-6: External service provider activity is monitored to detect potential cybersecurity events
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+DE.CM-7: Monitoring for unauthorized personnel, connections, devices, and software is performed)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID.SC-2: Suppliers and third party partners of information systems, components, and services are identified, prioritized, and assessed using a cyber supply chain risk assessment process 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(DE.CM-4: Malicious code is detected
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+DE.CM-5: Unauthorized mobile code is detected)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+DE.CM-7: Monitoring for unauthorized personnel, connections, devices, and software is performed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(PR.DS-6: Integrity checking mechanisms are used to verify software, firmware, and information integrity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+PR.DS-8: Integrity checking mechanisms are used to verify hardware integrity)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(PR.IP-3: Configuration change control processes are in place
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+PR.PT-3: The principle of least functionality is incorporated by configuring systems to provide only essential capabilities)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PR.PT-4: Communications and control networks are protected
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+DE.CM-1: The network is monitored to detect potential cybersecurity events
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+DE.AE-1: A baseline of network operations and expected data flows for users and systems is established and managed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID.RA-2: Cyber threat intelligence is received from information sharing forums and sources
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ID.RA-3: Threats, both internal and external, are identified and documented</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(PR.IP-12: A vulnerability management plan is developed and implemented
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ID.RA-1: Asset vulnerabilities are identified and documented)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(DE.CM-8: Vulnerability scans are performed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+RS.MI-3: Newly identified vulnerabilities are mitigated or documented as accepted risks)
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -806,16 +1182,48 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -841,11 +1249,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,33 +1416,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -917,12 +1568,15 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C75" totalsRowShown="0">
   <autoFilter ref="A1:C75" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
+    <filterColumn colId="0">
+      <colorFilter dxfId="2"/>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
+    <sortCondition sortBy="cellColor" ref="A1:A75" dxfId="3"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mitigation &amp; Detection Techniques"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mitigation &amp; Detection Techniques" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Detail"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Clustering"/>
   </tableColumns>
@@ -1229,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,64 +1936,64 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="12" t="s">
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="13" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="12" t="s">
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
       <c r="AG1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1348,61 +2002,61 @@
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T2" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="13" t="s">
         <v>134</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -1420,19 +2074,19 @@
       <c r="Z2" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AC2" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AD2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AF2" t="s">
@@ -1447,10 +2101,10 @@
       <c r="AI2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AK2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AL2" t="s">
@@ -1464,38 +2118,38 @@
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
       <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
       <c r="T3" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14" t="s">
+      <c r="U3" s="13"/>
+      <c r="V3" s="13" t="s">
         <v>36</v>
       </c>
       <c r="W3" t="s">
@@ -1506,25 +2160,25 @@
       <c r="Z3" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
       <c r="AC3" t="s">
         <v>35</v>
       </c>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
       <c r="AF3" t="s">
         <v>94</v>
       </c>
       <c r="AG3" s="15"/>
-      <c r="AH3" s="14" t="s">
+      <c r="AH3" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AI3" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
       <c r="AL3" t="s">
         <v>53</v>
       </c>
@@ -1536,40 +2190,40 @@
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14" t="s">
+      <c r="O4" s="13"/>
+      <c r="P4" s="13" t="s">
         <v>36</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
       <c r="T4" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
       <c r="W4" t="s">
         <v>52</v>
       </c>
@@ -1578,12 +2232,12 @@
       <c r="Z4" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
       <c r="AC4" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="14"/>
+      <c r="AD4" s="13"/>
       <c r="AE4" s="3" t="s">
         <v>36</v>
       </c>
@@ -1595,8 +2249,8 @@
       <c r="AI4" t="s">
         <v>45</v>
       </c>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14" t="s">
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AL4" t="s">
@@ -1610,37 +2264,37 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" t="s">
         <v>128</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
       <c r="Q5" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
       <c r="T5" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="13" t="s">
         <v>159</v>
       </c>
       <c r="V5" s="4" t="s">
@@ -1654,15 +2308,15 @@
       <c r="Z5" t="s">
         <v>33</v>
       </c>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
       <c r="AC5" t="s">
         <v>51</v>
       </c>
-      <c r="AD5" s="14" t="s">
+      <c r="AD5" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AE5" s="14" t="s">
+      <c r="AE5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AF5" t="s">
@@ -1673,8 +2327,8 @@
       <c r="AI5" t="s">
         <v>37</v>
       </c>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
       <c r="AL5" t="s">
         <v>38</v>
       </c>
@@ -1686,42 +2340,42 @@
       <c r="B6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
       <c r="Q6" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
       <c r="T6" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14" t="s">
+      <c r="U6" s="13"/>
+      <c r="V6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="W6" t="s">
@@ -1732,13 +2386,13 @@
       <c r="Z6" t="s">
         <v>50</v>
       </c>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
       <c r="AC6" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
       <c r="AF6" t="s">
         <v>26</v>
       </c>
@@ -1747,8 +2401,8 @@
       <c r="AI6" t="s">
         <v>59</v>
       </c>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
@@ -1760,38 +2414,38 @@
       <c r="B7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
       <c r="K7" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
       <c r="Q7" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
       <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
       <c r="W7" t="s">
         <v>52</v>
       </c>
@@ -1800,17 +2454,17 @@
       <c r="Z7" t="s">
         <v>64</v>
       </c>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
       <c r="AC7" t="s">
         <v>33</v>
       </c>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
       <c r="AF7" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="14" t="s">
+      <c r="AG7" s="13" t="s">
         <v>65</v>
       </c>
       <c r="AH7" s="5" t="s">
@@ -1819,8 +2473,8 @@
       <c r="AI7" t="s">
         <v>26</v>
       </c>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
       <c r="AL7" t="s">
         <v>52</v>
       </c>
@@ -1832,27 +2486,27 @@
       <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="13" t="s">
         <v>161</v>
       </c>
       <c r="P8" s="5" t="s">
@@ -1861,12 +2515,12 @@
       <c r="Q8" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
       <c r="T8" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="U8" s="13" t="s">
         <v>165</v>
       </c>
       <c r="V8" s="4" t="s">
@@ -1880,29 +2534,29 @@
       <c r="Z8" t="s">
         <v>49</v>
       </c>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
       <c r="AC8" t="s">
         <v>69</v>
       </c>
-      <c r="AD8" s="14"/>
+      <c r="AD8" s="13"/>
       <c r="AE8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AF8" t="s">
         <v>37</v>
       </c>
-      <c r="AG8" s="14"/>
+      <c r="AG8" s="13"/>
       <c r="AH8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AI8" t="s">
         <v>37</v>
       </c>
-      <c r="AJ8" s="14" t="s">
+      <c r="AJ8" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AK8" s="14" t="s">
+      <c r="AK8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AL8" t="s">
@@ -1914,44 +2568,44 @@
         <v>70</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14" t="s">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="N9" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14" t="s">
+      <c r="O9" s="13"/>
+      <c r="P9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="Q9" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14" t="s">
+      <c r="R9" s="13"/>
+      <c r="S9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T9" t="s">
         <v>56</v>
       </c>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14" t="s">
+      <c r="U9" s="13"/>
+      <c r="V9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="W9" t="s">
@@ -1962,26 +2616,26 @@
       <c r="Z9" t="s">
         <v>72</v>
       </c>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14" t="s">
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC9" t="s">
         <v>56</v>
       </c>
-      <c r="AD9" s="17"/>
+      <c r="AD9" s="11"/>
       <c r="AE9" s="5"/>
-      <c r="AG9" s="14" t="s">
+      <c r="AG9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AH9" s="14" t="s">
+      <c r="AH9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AI9" t="s">
         <v>74</v>
       </c>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
       <c r="AL9" t="s">
         <v>24</v>
       </c>
@@ -1990,10 +2644,10 @@
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2002,52 +2656,52 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
       <c r="N10" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
       <c r="Q10" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
       <c r="T10" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
       <c r="W10" t="s">
         <v>45</v>
       </c>
       <c r="X10" s="15"/>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="13" t="s">
         <v>36</v>
       </c>
       <c r="Z10" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
       <c r="AC10" t="s">
         <v>37</v>
       </c>
-      <c r="AD10" s="17"/>
+      <c r="AD10" s="11"/>
       <c r="AE10" s="5"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
       <c r="AI10" t="s">
         <v>44</v>
       </c>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14" t="s">
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AL10" t="s">
@@ -2059,36 +2713,36 @@
         <v>80</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
       <c r="K11" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
       <c r="N11" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
       <c r="Q11" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
       <c r="T11" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
       <c r="W11" t="s">
         <v>37</v>
       </c>
@@ -2097,20 +2751,20 @@
       <c r="Z11" t="s">
         <v>37</v>
       </c>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
       <c r="AC11" t="s">
         <v>82</v>
       </c>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
       <c r="AI11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
       <c r="AL11" t="s">
         <v>45</v>
       </c>
@@ -2118,64 +2772,64 @@
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
       <c r="N12" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
       <c r="Q12" t="s">
         <v>138</v>
       </c>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
       <c r="T12" t="s">
         <v>81</v>
       </c>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
       <c r="W12" t="s">
         <v>52</v>
       </c>
-      <c r="X12" s="14" t="s">
+      <c r="X12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="Y12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="Z12" t="s">
         <v>44</v>
       </c>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
       <c r="AC12" t="s">
         <v>81</v>
       </c>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14" t="s">
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AI12" t="s">
         <v>38</v>
       </c>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
       <c r="AL12" t="s">
         <v>52</v>
       </c>
@@ -2183,39 +2837,39 @@
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
       <c r="N13" t="s">
         <v>82</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
       <c r="Q13" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T13" t="s">
         <v>86</v>
       </c>
-      <c r="U13" s="14" t="s">
+      <c r="U13" s="13" t="s">
         <v>172</v>
       </c>
       <c r="V13" s="4" t="s">
@@ -2224,12 +2878,12 @@
       <c r="W13" t="s">
         <v>28</v>
       </c>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
       <c r="Z13" t="s">
         <v>26</v>
       </c>
-      <c r="AA13" s="14" t="s">
+      <c r="AA13" s="13" t="s">
         <v>87</v>
       </c>
       <c r="AB13" s="6" t="s">
@@ -2238,15 +2892,15 @@
       <c r="AC13" t="s">
         <v>21</v>
       </c>
-      <c r="AD13" s="17"/>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="10"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
       <c r="AI13" t="s">
         <v>45</v>
       </c>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
       <c r="AL13" t="s">
         <v>82</v>
       </c>
@@ -2254,62 +2908,62 @@
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="14"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
       <c r="N14" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
       <c r="Q14" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
       <c r="T14" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14" t="s">
+      <c r="U14" s="13"/>
+      <c r="V14" s="13" t="s">
         <v>36</v>
       </c>
       <c r="W14" t="s">
         <v>38</v>
       </c>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14" t="s">
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13" t="s">
         <v>36</v>
       </c>
       <c r="Z14" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14" t="s">
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC14" t="s">
         <v>38</v>
       </c>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
       <c r="AI14" t="s">
         <v>37</v>
       </c>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
       <c r="AL14" t="s">
         <v>81</v>
       </c>
@@ -2317,58 +2971,58 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="2"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="17"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="2"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
       <c r="Q15" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
       <c r="T15" t="s">
         <v>92</v>
       </c>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
       <c r="W15" t="s">
         <v>52</v>
       </c>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
       <c r="Z15" t="s">
         <v>45</v>
       </c>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
       <c r="AC15" t="s">
         <v>45</v>
       </c>
-      <c r="AG15" s="14" t="s">
+      <c r="AG15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AH15" s="14" t="s">
+      <c r="AH15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AI15" t="s">
         <v>74</v>
       </c>
-      <c r="AJ15" s="14" t="s">
+      <c r="AJ15" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="AK15" s="14" t="s">
+      <c r="AK15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AL15" t="s">
@@ -2378,54 +3032,54 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="2"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="17"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="2"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
       <c r="Q16" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
       <c r="T16" t="s">
         <v>84</v>
       </c>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
       <c r="W16" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
       <c r="Z16" t="s">
         <v>100</v>
       </c>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
       <c r="AC16" t="s">
         <v>52</v>
       </c>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
       <c r="AI16" t="s">
         <v>26</v>
       </c>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
       <c r="AL16" t="s">
         <v>57</v>
       </c>
@@ -2433,27 +3087,27 @@
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="2"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="2"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
       <c r="Q17" t="s">
         <v>81</v>
       </c>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14" t="s">
+      <c r="R17" s="13"/>
+      <c r="S17" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T17" t="s">
@@ -2461,65 +3115,65 @@
       </c>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
       <c r="Z17" t="s">
         <v>103</v>
       </c>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
       <c r="AC17" t="s">
         <v>59</v>
       </c>
-      <c r="AD17" s="17"/>
+      <c r="AD17" s="11"/>
       <c r="AE17" s="10"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14" t="s">
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AI17" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
       <c r="AL17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="2"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="17"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="17"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="5"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
       <c r="T18" t="s">
         <v>38</v>
       </c>
-      <c r="U18" s="17"/>
+      <c r="U18" s="11"/>
       <c r="V18" s="4"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
       <c r="Z18" t="s">
         <v>37</v>
       </c>
-      <c r="AA18" s="14" t="s">
+      <c r="AA18" s="13" t="s">
         <v>97</v>
       </c>
       <c r="AB18" t="s">
@@ -2528,63 +3182,63 @@
       <c r="AC18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="17"/>
+      <c r="AD18" s="11"/>
       <c r="AE18" s="10"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
       <c r="AI18" t="s">
         <v>98</v>
       </c>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
       <c r="AL18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="14"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="4"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
       <c r="T19" t="s">
         <v>46</v>
       </c>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
       <c r="Z19" t="s">
         <v>52</v>
       </c>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14" t="s">
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC19" t="s">
         <v>38</v>
       </c>
-      <c r="AD19" s="17"/>
+      <c r="AD19" s="11"/>
       <c r="AE19" s="10"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
       <c r="AI19" t="s">
         <v>37</v>
       </c>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14" t="s">
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AL19" t="s">
@@ -2592,23 +3246,23 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="14"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="14" t="s">
+      <c r="R20" s="13" t="s">
         <v>102</v>
       </c>
       <c r="S20" s="4" t="s">
@@ -2617,16 +3271,16 @@
       <c r="T20" t="s">
         <v>92</v>
       </c>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
       <c r="AC20" t="s">
         <v>52</v>
       </c>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AG20" s="14" t="s">
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AG20" s="13" t="s">
         <v>104</v>
       </c>
       <c r="AH20" t="s">
@@ -2635,441 +3289,441 @@
       <c r="AI20" t="s">
         <v>24</v>
       </c>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
       <c r="AL20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="14"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14" t="s">
+      <c r="R21" s="13"/>
+      <c r="S21" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T21" t="s">
         <v>38</v>
       </c>
-      <c r="U21" s="17"/>
+      <c r="U21" s="11"/>
       <c r="V21" s="4"/>
-      <c r="AA21" s="14" t="s">
+      <c r="AA21" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="14" t="s">
+      <c r="AB21" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AC21" t="s">
         <v>35</v>
       </c>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14" t="s">
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AI21" t="s">
         <v>38</v>
       </c>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
       <c r="AL21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="14"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
       <c r="T22" t="s">
         <v>45</v>
       </c>
-      <c r="U22" s="17"/>
+      <c r="U22" s="11"/>
       <c r="V22" s="4"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
       <c r="AC22" t="s">
         <v>108</v>
       </c>
-      <c r="AD22" s="17"/>
+      <c r="AD22" s="11"/>
       <c r="AE22" s="10"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
       <c r="AI22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="14"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
       <c r="AL22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
       <c r="T23" t="s">
         <v>52</v>
       </c>
-      <c r="U23" s="17"/>
+      <c r="U23" s="11"/>
       <c r="V23" s="4"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14" t="s">
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC23" t="s">
         <v>38</v>
       </c>
-      <c r="AD23" s="17"/>
+      <c r="AD23" s="11"/>
       <c r="AE23" s="10"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
       <c r="AI23" t="s">
         <v>37</v>
       </c>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
       <c r="AL23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="14"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="14" t="s">
+      <c r="R24" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="S24" s="14" t="s">
+      <c r="S24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T24" t="s">
         <v>18</v>
       </c>
-      <c r="U24" s="17"/>
+      <c r="U24" s="11"/>
       <c r="V24" s="4"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
       <c r="AC24" t="s">
         <v>45</v>
       </c>
-      <c r="AD24" s="17"/>
+      <c r="AD24" s="11"/>
       <c r="AE24" s="10"/>
-      <c r="AG24" s="14" t="s">
+      <c r="AG24" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AH24" s="14" t="s">
+      <c r="AH24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AI24" t="s">
         <v>74</v>
       </c>
       <c r="AJ24" s="10"/>
-      <c r="AK24" s="17"/>
+      <c r="AK24" s="11"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="14"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
       <c r="T25" t="s">
         <v>31</v>
       </c>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
       <c r="AC25" t="s">
         <v>59</v>
       </c>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
       <c r="AI25" t="s">
         <v>23</v>
       </c>
       <c r="AJ25" s="10"/>
-      <c r="AK25" s="17"/>
+      <c r="AK25" s="11"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="14"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
       <c r="T26" t="s">
         <v>64</v>
       </c>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="AA26" s="14" t="s">
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="AA26" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="AB26" s="14" t="s">
+      <c r="AB26" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AC26" t="s">
         <v>84</v>
       </c>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
       <c r="AI26" t="s">
         <v>114</v>
       </c>
       <c r="AJ26" s="10"/>
-      <c r="AK26" s="17"/>
+      <c r="AK26" s="11"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="14"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
       <c r="T27" t="s">
         <v>49</v>
       </c>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
       <c r="AC27" t="s">
         <v>69</v>
       </c>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14" t="s">
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AI27" t="s">
         <v>38</v>
       </c>
-      <c r="AJ27" s="17"/>
+      <c r="AJ27" s="11"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="14"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="R28" s="14"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="R28" s="13"/>
       <c r="S28" s="4" t="s">
         <v>36</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14" t="s">
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC28" t="s">
         <v>99</v>
       </c>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
       <c r="AI28" t="s">
         <v>58</v>
       </c>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="14"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="R29" s="14" t="s">
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="R29" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="S29" s="14" t="s">
+      <c r="S29" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T29" t="s">
         <v>118</v>
       </c>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
       <c r="AC29" t="s">
         <v>52</v>
       </c>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
       <c r="AI29" t="s">
         <v>98</v>
       </c>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
       <c r="T30" t="s">
         <v>92</v>
       </c>
-      <c r="U30" s="17"/>
+      <c r="U30" s="11"/>
       <c r="V30" s="5"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="AA30" s="14" t="s">
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="AA30" s="13" t="s">
         <v>121</v>
       </c>
       <c r="AB30" t="s">
@@ -3078,248 +3732,248 @@
       <c r="AC30" t="s">
         <v>28</v>
       </c>
-      <c r="AD30" s="17"/>
+      <c r="AD30" s="11"/>
       <c r="AE30" s="10"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
       <c r="AI30" t="s">
         <v>52</v>
       </c>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
       <c r="E31" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="14"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="O31" s="17"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="O31" s="11"/>
       <c r="P31" s="5"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14" t="s">
+      <c r="R31" s="13"/>
+      <c r="S31" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T31" t="s">
         <v>45</v>
       </c>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14" t="s">
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC31" t="s">
         <v>38</v>
       </c>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AG31" s="14" t="s">
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AG31" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="AH31" s="14" t="s">
+      <c r="AH31" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AI31" t="s">
         <v>74</v>
       </c>
-      <c r="AJ31" s="17"/>
+      <c r="AJ31" s="11"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
       <c r="E32" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="14"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
       <c r="T32" t="s">
         <v>37</v>
       </c>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
       <c r="AC32" t="s">
         <v>52</v>
       </c>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
       <c r="AI32" t="s">
         <v>68</v>
       </c>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
     </row>
     <row r="33" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
       <c r="E33" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="14"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="R33" s="14" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="R33" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="S33" s="14" t="s">
+      <c r="S33" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T33" t="s">
         <v>21</v>
       </c>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="AA33" s="14" t="s">
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="AA33" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="AB33" s="14" t="s">
+      <c r="AB33" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AC33" t="s">
         <v>21</v>
       </c>
-      <c r="AD33" s="17"/>
+      <c r="AD33" s="11"/>
       <c r="AE33" s="4"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14" t="s">
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AI33" t="s">
         <v>38</v>
       </c>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
     </row>
     <row r="34" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
       <c r="E34" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="14"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
       <c r="T34" t="s">
         <v>50</v>
       </c>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
       <c r="AC34" t="s">
         <v>35</v>
       </c>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
       <c r="AI34" t="s">
         <v>98</v>
       </c>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
     </row>
     <row r="35" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C35" s="14"/>
-      <c r="D35" s="14" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="14"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="O35" s="17"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="O35" s="11"/>
       <c r="P35" s="5"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
       <c r="T35" t="s">
         <v>123</v>
       </c>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
       <c r="AC35" t="s">
         <v>44</v>
       </c>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
       <c r="AI35" t="s">
         <v>37</v>
       </c>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
     </row>
     <row r="36" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
       <c r="E36" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="14"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
       <c r="T36" t="s">
         <v>84</v>
       </c>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
       <c r="AC36" t="s">
         <v>20</v>
       </c>
-      <c r="AG36" s="14" t="s">
+      <c r="AG36" s="13" t="s">
         <v>129</v>
       </c>
       <c r="AH36" s="5" t="s">
@@ -3328,105 +3982,105 @@
       <c r="AI36" t="s">
         <v>26</v>
       </c>
-      <c r="AJ36" s="17"/>
+      <c r="AJ36" s="11"/>
     </row>
     <row r="37" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
       <c r="E37" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="14"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14" t="s">
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T37" t="s">
         <v>99</v>
       </c>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
       <c r="AC37" t="s">
         <v>57</v>
       </c>
-      <c r="AG37" s="14"/>
+      <c r="AG37" s="13"/>
       <c r="AH37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AI37" t="s">
         <v>37</v>
       </c>
-      <c r="AJ37" s="17"/>
-      <c r="AK37" s="17"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
     </row>
     <row r="38" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E38" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="14"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="13"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
       <c r="T38" t="s">
         <v>131</v>
       </c>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
       <c r="AC38" t="s">
         <v>84</v>
       </c>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AG38" s="14" t="s">
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AG38" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="AH38" s="14" t="s">
+      <c r="AH38" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AI38" t="s">
         <v>44</v>
       </c>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
     </row>
     <row r="39" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
       <c r="E39" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="14"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="13"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="14" t="s">
+      <c r="R39" s="13" t="s">
         <v>133</v>
       </c>
       <c r="S39" s="4" t="s">
@@ -3435,404 +4089,404 @@
       <c r="T39" t="s">
         <v>28</v>
       </c>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="AA39" s="14"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="AA39" s="13"/>
       <c r="AB39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AC39" t="s">
         <v>60</v>
       </c>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
       <c r="AI39" t="s">
         <v>92</v>
       </c>
-      <c r="AJ39" s="17"/>
-      <c r="AK39" s="17"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
     </row>
     <row r="40" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
       <c r="E40" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="14"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="13"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14" t="s">
+      <c r="R40" s="13"/>
+      <c r="S40" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T40" t="s">
         <v>101</v>
       </c>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="AA40" s="14" t="s">
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="AA40" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="AB40" s="14" t="s">
+      <c r="AB40" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AC40" t="s">
         <v>35</v>
       </c>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
       <c r="AI40" t="s">
         <v>84</v>
       </c>
-      <c r="AJ40" s="17"/>
-      <c r="AK40" s="17"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
     </row>
     <row r="41" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C41" s="14"/>
-      <c r="D41" s="14" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E41" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="14"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="13"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
       <c r="T41" t="s">
         <v>45</v>
       </c>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
       <c r="AC41" t="s">
         <v>44</v>
       </c>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14" t="s">
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AI41" t="s">
         <v>60</v>
       </c>
-      <c r="AJ41" s="17"/>
-      <c r="AK41" s="17"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
     </row>
     <row r="42" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
       <c r="E42" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="14"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="13"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
       <c r="T42" t="s">
         <v>52</v>
       </c>
-      <c r="U42" s="17"/>
+      <c r="U42" s="11"/>
       <c r="V42" s="4"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
       <c r="AC42" t="s">
         <v>26</v>
       </c>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="14"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
       <c r="AI42" t="s">
         <v>83</v>
       </c>
-      <c r="AJ42" s="17"/>
-      <c r="AK42" s="17"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
     </row>
     <row r="43" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
       <c r="E43" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="14"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="13"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
       <c r="T43" t="s">
         <v>81</v>
       </c>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
       <c r="AC43" t="s">
         <v>33</v>
       </c>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
-      <c r="AJ43" s="17"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AJ43" s="11"/>
     </row>
     <row r="44" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="14"/>
-      <c r="I44" s="17"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="13"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="4"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="14" t="s">
+      <c r="R44" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S44" s="14" t="s">
+      <c r="S44" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T44" t="s">
         <v>20</v>
       </c>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
       <c r="AC44" t="s">
         <v>123</v>
       </c>
-      <c r="AD44" s="17"/>
-      <c r="AE44" s="17"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
     </row>
     <row r="45" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
       <c r="E45" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="14"/>
-      <c r="I45" s="17"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="13"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="4"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
       <c r="T45" t="s">
         <v>24</v>
       </c>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="14"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
       <c r="AC45" t="s">
         <v>49</v>
       </c>
-      <c r="AD45" s="17"/>
+      <c r="AD45" s="11"/>
       <c r="AE45" s="5"/>
     </row>
     <row r="46" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C46" s="14"/>
-      <c r="D46" s="14" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="14"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="O46" s="17"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="13"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="O46" s="11"/>
       <c r="P46" s="5"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
       <c r="T46" t="s">
         <v>92</v>
       </c>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="AA46" s="14"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="AA46" s="13"/>
       <c r="AB46" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AC46" t="s">
         <v>37</v>
       </c>
-      <c r="AD46" s="17"/>
-      <c r="AE46" s="17"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
     </row>
     <row r="47" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
       <c r="E47" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="14"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="13"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
       <c r="T47" t="s">
         <v>50</v>
       </c>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="AA47" s="14" t="s">
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="AA47" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AB47" s="14" t="s">
+      <c r="AB47" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AC47" t="s">
         <v>21</v>
       </c>
-      <c r="AD47" s="17"/>
-      <c r="AE47" s="17"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
     </row>
     <row r="48" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="14"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="13"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
       <c r="T48" t="s">
         <v>145</v>
       </c>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="14"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
       <c r="AC48" t="s">
         <v>84</v>
       </c>
-      <c r="AD48" s="17"/>
+      <c r="AD48" s="11"/>
       <c r="AE48" s="4"/>
     </row>
     <row r="49" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
       <c r="E49" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="14"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="13"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
       <c r="T49" t="s">
         <v>57</v>
       </c>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
       <c r="AC49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C50" s="14"/>
-      <c r="D50" s="14" t="s">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E50" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="14"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14" t="s">
+      <c r="F50" s="11"/>
+      <c r="G50" s="13"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T50" t="s">
         <v>45</v>
       </c>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="AA50" s="14"/>
-      <c r="AB50" s="16" t="s">
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="14" t="s">
         <v>36</v>
       </c>
       <c r="AC50" t="s">
@@ -3840,63 +4494,63 @@
       </c>
     </row>
     <row r="51" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
       <c r="E51" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="14"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="13"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
       <c r="T51" t="s">
         <v>99</v>
       </c>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="16"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="14"/>
       <c r="AC51" t="s">
         <v>99</v>
       </c>
-      <c r="AJ51" s="17"/>
+      <c r="AJ51" s="11"/>
     </row>
     <row r="52" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E52" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="17"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="4"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
       <c r="T52" t="s">
         <v>78</v>
       </c>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="AA52" s="14" t="s">
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="AA52" s="13" t="s">
         <v>148</v>
       </c>
       <c r="AB52" s="5" t="s">
@@ -3905,81 +4559,81 @@
       <c r="AC52" t="s">
         <v>74</v>
       </c>
-      <c r="AJ52" s="17"/>
-      <c r="AK52" s="17"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
     </row>
     <row r="53" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
       <c r="E53" t="s">
         <v>92</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="14"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="13"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
       <c r="T53" t="s">
         <v>52</v>
       </c>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="AA53" s="14"/>
-      <c r="AB53" s="14" t="s">
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ53" s="17"/>
-      <c r="AK53" s="17"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
     </row>
     <row r="54" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
       <c r="E54" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="14"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="O54" s="17"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="13"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="O54" s="11"/>
       <c r="P54" s="5"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
       <c r="T54" t="s">
         <v>81</v>
       </c>
-      <c r="U54" s="17"/>
+      <c r="U54" s="11"/>
       <c r="V54" s="4"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="14"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
       <c r="AC54" t="s">
         <v>45</v>
       </c>
-      <c r="AJ54" s="17"/>
+      <c r="AJ54" s="11"/>
     </row>
     <row r="55" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
       <c r="E55" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="14"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="R55" s="14" t="s">
+      <c r="F55" s="11"/>
+      <c r="G55" s="13"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="R55" s="13" t="s">
         <v>150</v>
       </c>
       <c r="S55" s="4" t="s">
@@ -3988,73 +4642,73 @@
       <c r="T55" t="s">
         <v>69</v>
       </c>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="AA55" s="14"/>
-      <c r="AB55" s="14"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="13"/>
       <c r="AC55" t="s">
         <v>52</v>
       </c>
-      <c r="AJ55" s="17"/>
-      <c r="AK55" s="17"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
     </row>
     <row r="56" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
       <c r="E56" t="s">
         <v>69</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="14"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14" t="s">
+      <c r="F56" s="11"/>
+      <c r="G56" s="13"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T56" t="s">
         <v>101</v>
       </c>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
-      <c r="AA56" s="14"/>
-      <c r="AB56" s="14"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="13"/>
       <c r="AC56" t="s">
         <v>59</v>
       </c>
-      <c r="AJ56" s="17"/>
-      <c r="AK56" s="17"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
     </row>
     <row r="57" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C57" s="14"/>
-      <c r="D57" s="14" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E57" t="s">
         <v>99</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="14"/>
-      <c r="L57" s="17"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="13"/>
+      <c r="L57" s="11"/>
       <c r="M57" s="4"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
       <c r="T57" t="s">
         <v>52</v>
       </c>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
-      <c r="AA57" s="14" t="s">
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="AA57" s="13" t="s">
         <v>152</v>
       </c>
       <c r="AB57" s="5" t="s">
@@ -4063,107 +4717,107 @@
       <c r="AC57" t="s">
         <v>28</v>
       </c>
-      <c r="AJ57" s="17"/>
-      <c r="AK57" s="17"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
     </row>
     <row r="58" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
       <c r="E58" t="s">
         <v>46</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="14"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="13"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
       <c r="T58" t="s">
         <v>81</v>
       </c>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
-      <c r="AA58" s="14"/>
-      <c r="AB58" s="14" t="s">
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="AA58" s="13"/>
+      <c r="AB58" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC58" t="s">
         <v>38</v>
       </c>
-      <c r="AJ58" s="17"/>
-      <c r="AK58" s="17"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
     </row>
     <row r="59" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="F59" s="17"/>
-      <c r="G59" s="14"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="R59" s="14" t="s">
+      <c r="F59" s="11"/>
+      <c r="G59" s="13"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="R59" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="S59" s="14" t="s">
+      <c r="S59" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T59" t="s">
         <v>86</v>
       </c>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-      <c r="AA59" s="14"/>
-      <c r="AB59" s="14"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="13"/>
       <c r="AC59" t="s">
         <v>45</v>
       </c>
-      <c r="AJ59" s="17"/>
-      <c r="AK59" s="17"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="11"/>
     </row>
     <row r="60" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="F60" s="17"/>
-      <c r="G60" s="14"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="13"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
       <c r="T60" t="s">
         <v>20</v>
       </c>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="X60" s="17"/>
-      <c r="Y60" s="17"/>
-      <c r="AA60" s="14"/>
-      <c r="AB60" s="14"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="13"/>
       <c r="AC60" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="61" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="F61" s="17"/>
-      <c r="G61" s="14"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="13"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
       <c r="T61" t="s">
         <v>69</v>
       </c>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="17"/>
-      <c r="AA61" s="14" t="s">
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="AA61" s="13" t="s">
         <v>155</v>
       </c>
       <c r="AB61" s="5" t="s">
@@ -4174,25 +4828,25 @@
       </c>
     </row>
     <row r="62" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="F62" s="17"/>
-      <c r="G62" s="14"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14" t="s">
+      <c r="F62" s="11"/>
+      <c r="G62" s="13"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T62" t="s">
         <v>56</v>
       </c>
-      <c r="U62" s="17"/>
+      <c r="U62" s="11"/>
       <c r="V62" s="4"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="17"/>
-      <c r="AA62" s="14"/>
-      <c r="AB62" s="14" t="s">
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC62" t="s">
@@ -4200,40 +4854,40 @@
       </c>
     </row>
     <row r="63" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="F63" s="17"/>
-      <c r="G63" s="14"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="13"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
       <c r="T63" t="s">
         <v>99</v>
       </c>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
-      <c r="AA63" s="14"/>
-      <c r="AB63" s="14"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="AA63" s="13"/>
+      <c r="AB63" s="13"/>
       <c r="AC63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="64" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="F64" s="17"/>
-      <c r="G64" s="14"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="13"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
       <c r="T64" t="s">
         <v>46</v>
       </c>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="AA64" s="14" t="s">
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="AA64" s="13" t="s">
         <v>158</v>
       </c>
       <c r="AB64" t="s">
@@ -4244,25 +4898,25 @@
       </c>
     </row>
     <row r="65" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F65" s="17"/>
-      <c r="G65" s="14"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="R65" s="14" t="s">
+      <c r="F65" s="11"/>
+      <c r="G65" s="13"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="R65" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S65" s="14" t="s">
+      <c r="S65" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T65" t="s">
         <v>35</v>
       </c>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="17"/>
-      <c r="AA65" s="14"/>
-      <c r="AB65" s="14" t="s">
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="AA65" s="13"/>
+      <c r="AB65" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC65" t="s">
@@ -4270,65 +4924,65 @@
       </c>
     </row>
     <row r="66" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F66" s="17"/>
-      <c r="G66" s="14"/>
-      <c r="I66" s="17"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="13"/>
+      <c r="I66" s="11"/>
       <c r="J66" s="4"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="14"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
       <c r="T66" t="s">
         <v>20</v>
       </c>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
-      <c r="AA66" s="14"/>
-      <c r="AB66" s="14"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="AA66" s="13"/>
+      <c r="AB66" s="13"/>
       <c r="AC66" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F67" s="17"/>
-      <c r="G67" s="14"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="13"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
       <c r="T67" t="s">
         <v>84</v>
       </c>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
-      <c r="AA67" s="14"/>
-      <c r="AB67" s="14"/>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+      <c r="AA67" s="13"/>
+      <c r="AB67" s="13"/>
       <c r="AC67" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="68" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F68" s="17"/>
-      <c r="G68" s="14"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14" t="s">
+      <c r="F68" s="11"/>
+      <c r="G68" s="13"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T68" t="s">
         <v>38</v>
       </c>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="17"/>
-      <c r="AA68" s="14" t="s">
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="AA68" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="AB68" s="14" t="s">
+      <c r="AB68" s="13" t="s">
         <v>17</v>
       </c>
       <c r="AC68" t="s">
@@ -4336,180 +4990,180 @@
       </c>
     </row>
     <row r="69" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F69" s="17"/>
-      <c r="G69" s="14"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="L69" s="17"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="13"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="L69" s="11"/>
       <c r="M69" s="5"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
       <c r="T69" t="s">
         <v>52</v>
       </c>
-      <c r="U69" s="17"/>
+      <c r="U69" s="11"/>
       <c r="V69" s="4"/>
-      <c r="X69" s="17"/>
+      <c r="X69" s="11"/>
       <c r="Y69" s="5"/>
-      <c r="AA69" s="14"/>
-      <c r="AB69" s="14"/>
+      <c r="AA69" s="13"/>
+      <c r="AB69" s="13"/>
       <c r="AC69" t="s">
         <v>35</v>
       </c>
-      <c r="AJ69" s="17"/>
+      <c r="AJ69" s="11"/>
     </row>
     <row r="70" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F70" s="17"/>
-      <c r="G70" s="14"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="R70" s="14" t="s">
+      <c r="F70" s="11"/>
+      <c r="G70" s="13"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="R70" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="S70" s="14" t="s">
+      <c r="S70" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T70" t="s">
         <v>142</v>
       </c>
-      <c r="U70" s="17"/>
-      <c r="V70" s="17"/>
-      <c r="X70" s="17"/>
-      <c r="Y70" s="17"/>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="14"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
+      <c r="AA70" s="13"/>
+      <c r="AB70" s="13"/>
       <c r="AC70" t="s">
         <v>20</v>
       </c>
-      <c r="AJ70" s="17"/>
-      <c r="AK70" s="17"/>
+      <c r="AJ70" s="11"/>
+      <c r="AK70" s="11"/>
     </row>
     <row r="71" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F71" s="17"/>
-      <c r="G71" s="14"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="13"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
       <c r="T71" t="s">
         <v>32</v>
       </c>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="17"/>
-      <c r="AA71" s="14"/>
-      <c r="AB71" s="14" t="s">
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="AA71" s="13"/>
+      <c r="AB71" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC71" t="s">
         <v>56</v>
       </c>
-      <c r="AJ71" s="17"/>
-      <c r="AK71" s="17"/>
+      <c r="AJ71" s="11"/>
+      <c r="AK71" s="11"/>
     </row>
     <row r="72" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F72" s="17"/>
-      <c r="G72" s="14"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="13"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
       <c r="T72" t="s">
         <v>163</v>
       </c>
-      <c r="U72" s="17"/>
-      <c r="V72" s="17"/>
-      <c r="AA72" s="14"/>
-      <c r="AB72" s="14"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="AA72" s="13"/>
+      <c r="AB72" s="13"/>
       <c r="AC72" t="s">
         <v>38</v>
       </c>
-      <c r="AJ72" s="17"/>
-      <c r="AK72" s="17"/>
+      <c r="AJ72" s="11"/>
+      <c r="AK72" s="11"/>
     </row>
     <row r="73" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F73" s="17"/>
-      <c r="G73" s="14"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="13"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
       <c r="T73" t="s">
         <v>35</v>
       </c>
-      <c r="U73" s="17"/>
-      <c r="V73" s="17"/>
-      <c r="AA73" s="14"/>
-      <c r="AB73" s="14"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="AA73" s="13"/>
+      <c r="AB73" s="13"/>
       <c r="AC73" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="74" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F74" s="17"/>
-      <c r="G74" s="14"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="13"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
       <c r="T74" t="s">
         <v>24</v>
       </c>
-      <c r="U74" s="17"/>
+      <c r="U74" s="11"/>
       <c r="V74" s="4"/>
-      <c r="AA74" s="14"/>
-      <c r="AB74" s="14"/>
+      <c r="AA74" s="13"/>
+      <c r="AB74" s="13"/>
       <c r="AC74" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="75" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F75" s="17"/>
-      <c r="G75" s="14"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="13"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
       <c r="T75" t="s">
         <v>92</v>
       </c>
-      <c r="U75" s="17"/>
-      <c r="V75" s="17"/>
-      <c r="AA75" s="14"/>
-      <c r="AB75" s="14"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="13"/>
       <c r="AC75" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="76" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F76" s="17"/>
-      <c r="G76" s="14"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="13"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
       <c r="T76" t="s">
         <v>50</v>
       </c>
-      <c r="U76" s="17"/>
-      <c r="V76" s="17"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
       <c r="X76" s="8"/>
-      <c r="AA76" s="14" t="s">
+      <c r="AA76" s="13" t="s">
         <v>133</v>
       </c>
       <c r="AB76" t="s">
@@ -4520,21 +5174,21 @@
       </c>
     </row>
     <row r="77" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F77" s="17"/>
-      <c r="G77" s="14"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="13"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
       <c r="T77" t="s">
         <v>145</v>
       </c>
-      <c r="U77" s="17"/>
+      <c r="U77" s="11"/>
       <c r="V77" s="4"/>
-      <c r="AA77" s="14"/>
-      <c r="AB77" s="14" t="s">
+      <c r="AA77" s="13"/>
+      <c r="AB77" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC77" t="s">
@@ -4542,86 +5196,86 @@
       </c>
     </row>
     <row r="78" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F78" s="17"/>
-      <c r="G78" s="14"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="14"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="13"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
       <c r="T78" t="s">
         <v>69</v>
       </c>
-      <c r="U78" s="17"/>
-      <c r="V78" s="17"/>
-      <c r="AA78" s="14"/>
-      <c r="AB78" s="14"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="AA78" s="13"/>
+      <c r="AB78" s="13"/>
       <c r="AC78" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="79" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F79" s="17"/>
-      <c r="G79" s="14"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14" t="s">
+      <c r="F79" s="11"/>
+      <c r="G79" s="13"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T79" t="s">
         <v>39</v>
       </c>
-      <c r="U79" s="17"/>
-      <c r="V79" s="17"/>
-      <c r="AA79" s="14"/>
-      <c r="AB79" s="14"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="AA79" s="13"/>
+      <c r="AB79" s="13"/>
       <c r="AC79" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="80" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F80" s="17"/>
-      <c r="G80" s="14"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="R80" s="14"/>
-      <c r="S80" s="14"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="13"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
       <c r="T80" t="s">
         <v>38</v>
       </c>
-      <c r="U80" s="17"/>
-      <c r="V80" s="17"/>
-      <c r="AA80" s="14"/>
-      <c r="AB80" s="14"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="AA80" s="13"/>
+      <c r="AB80" s="13"/>
       <c r="AC80" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="81" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F81" s="17"/>
-      <c r="G81" s="14"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="13"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
       <c r="T81" t="s">
         <v>45</v>
       </c>
-      <c r="AA81" s="14" t="s">
+      <c r="AA81" s="13" t="s">
         <v>166</v>
       </c>
       <c r="AB81" t="s">
@@ -4632,21 +5286,21 @@
       </c>
     </row>
     <row r="82" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F82" s="17"/>
-      <c r="G82" s="14"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="R82" s="14"/>
-      <c r="S82" s="14"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="13"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
       <c r="T82" t="s">
         <v>37</v>
       </c>
-      <c r="AA82" s="14"/>
-      <c r="AB82" s="14" t="s">
+      <c r="AA82" s="13"/>
+      <c r="AB82" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC82" t="s">
@@ -4654,40 +5308,40 @@
       </c>
     </row>
     <row r="83" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F83" s="17"/>
-      <c r="G83" s="14"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="R83" s="14"/>
-      <c r="S83" s="14"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="13"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
       <c r="T83" t="s">
         <v>52</v>
       </c>
-      <c r="AA83" s="14"/>
-      <c r="AB83" s="14"/>
+      <c r="AA83" s="13"/>
+      <c r="AB83" s="13"/>
       <c r="AC83" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="84" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F84" s="17"/>
-      <c r="G84" s="14"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="13"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
       <c r="T84" t="s">
         <v>81</v>
       </c>
-      <c r="AA84" s="14" t="s">
+      <c r="AA84" s="13" t="s">
         <v>167</v>
       </c>
       <c r="AB84" t="s">
@@ -4698,25 +5352,25 @@
       </c>
     </row>
     <row r="85" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F85" s="17"/>
-      <c r="G85" s="14"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="R85" s="14" t="s">
+      <c r="F85" s="11"/>
+      <c r="G85" s="13"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="R85" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="S85" s="14" t="s">
+      <c r="S85" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T85" t="s">
         <v>21</v>
       </c>
-      <c r="AA85" s="14"/>
-      <c r="AB85" s="14" t="s">
+      <c r="AA85" s="13"/>
+      <c r="AB85" s="13" t="s">
         <v>36</v>
       </c>
       <c r="AC85" t="s">
@@ -4724,207 +5378,207 @@
       </c>
     </row>
     <row r="86" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F86" s="17"/>
-      <c r="G86" s="14"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="R86" s="14"/>
-      <c r="S86" s="14"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="13"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
       <c r="T86" t="s">
         <v>68</v>
       </c>
-      <c r="U86" s="17"/>
+      <c r="U86" s="11"/>
       <c r="V86" s="4"/>
-      <c r="AA86" s="14"/>
-      <c r="AB86" s="14"/>
+      <c r="AA86" s="13"/>
+      <c r="AB86" s="13"/>
       <c r="AC86" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="87" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="14"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
       <c r="T87" t="s">
         <v>84</v>
       </c>
-      <c r="U87" s="17"/>
-      <c r="V87" s="17"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
     </row>
     <row r="88" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="R88" s="14"/>
-      <c r="S88" s="14"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
       <c r="T88" t="s">
         <v>69</v>
       </c>
-      <c r="U88" s="17"/>
-      <c r="V88" s="17"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
     </row>
     <row r="89" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="R89" s="14"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="R89" s="13"/>
       <c r="S89" s="4" t="s">
         <v>36</v>
       </c>
       <c r="T89" t="s">
         <v>46</v>
       </c>
-      <c r="U89" s="17"/>
-      <c r="V89" s="17"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
     </row>
     <row r="90" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="R90" s="14" t="s">
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="R90" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="S90" s="14" t="s">
+      <c r="S90" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T90" t="s">
         <v>142</v>
       </c>
-      <c r="U90" s="17"/>
+      <c r="U90" s="11"/>
       <c r="V90" s="4"/>
     </row>
     <row r="91" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
       <c r="T91" t="s">
         <v>35</v>
       </c>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
     </row>
     <row r="92" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="R92" s="14"/>
-      <c r="S92" s="14"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
       <c r="T92" t="s">
         <v>92</v>
       </c>
-      <c r="U92" s="17"/>
-      <c r="V92" s="17"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
     </row>
     <row r="93" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="14"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
       <c r="T93" t="s">
         <v>50</v>
       </c>
-      <c r="U93" s="17"/>
+      <c r="U93" s="11"/>
       <c r="V93" s="4"/>
     </row>
     <row r="94" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14" t="s">
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T94" t="s">
         <v>39</v>
       </c>
-      <c r="U94" s="17"/>
-      <c r="V94" s="17"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
     </row>
     <row r="95" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="R95" s="14"/>
-      <c r="S95" s="14"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
       <c r="T95" t="s">
         <v>38</v>
       </c>
-      <c r="U95" s="17"/>
-      <c r="V95" s="17"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
     </row>
     <row r="96" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="R96" s="14"/>
-      <c r="S96" s="14"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
       <c r="T96" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="97" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="R97" s="14"/>
-      <c r="S97" s="14"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
       <c r="T97" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="98" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="R98" s="14" t="s">
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="R98" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="S98" s="14" t="s">
+      <c r="S98" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T98" t="s">
@@ -4932,1028 +5586,958 @@
       </c>
     </row>
     <row r="99" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I99" s="17"/>
+      <c r="I99" s="11"/>
       <c r="J99" s="4"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="R99" s="14"/>
-      <c r="S99" s="14"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
       <c r="T99" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="100" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="R100" s="14"/>
-      <c r="S100" s="14"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
       <c r="T100" t="s">
         <v>69</v>
       </c>
-      <c r="U100" s="17"/>
+      <c r="U100" s="11"/>
       <c r="V100" s="4"/>
     </row>
     <row r="101" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="R101" s="14"/>
-      <c r="S101" s="14" t="s">
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T101" t="s">
         <v>45</v>
       </c>
-      <c r="U101" s="17"/>
-      <c r="V101" s="17"/>
+      <c r="U101" s="11"/>
+      <c r="V101" s="11"/>
     </row>
     <row r="102" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="R102" s="14"/>
-      <c r="S102" s="14"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
       <c r="T102" t="s">
         <v>52</v>
       </c>
-      <c r="U102" s="17"/>
-      <c r="V102" s="17"/>
+      <c r="U102" s="11"/>
+      <c r="V102" s="11"/>
     </row>
     <row r="103" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="R103" s="14" t="s">
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="R103" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="S103" s="14" t="s">
+      <c r="S103" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T103" t="s">
         <v>142</v>
       </c>
-      <c r="U103" s="17"/>
+      <c r="U103" s="11"/>
       <c r="V103" s="4"/>
     </row>
     <row r="104" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="R104" s="14"/>
-      <c r="S104" s="14"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
       <c r="T104" t="s">
         <v>21</v>
       </c>
-      <c r="U104" s="17"/>
-      <c r="V104" s="17"/>
+      <c r="U104" s="11"/>
+      <c r="V104" s="11"/>
     </row>
     <row r="105" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="18"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="R105" s="14"/>
-      <c r="S105" s="14"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="12"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
       <c r="T105" t="s">
         <v>35</v>
       </c>
-      <c r="U105" s="17"/>
-      <c r="V105" s="17"/>
+      <c r="U105" s="11"/>
+      <c r="V105" s="11"/>
     </row>
     <row r="106" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="18"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="R106" s="14"/>
-      <c r="S106" s="14"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="12"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
       <c r="T106" t="s">
         <v>44</v>
       </c>
-      <c r="U106" s="17"/>
-      <c r="V106" s="17"/>
+      <c r="U106" s="11"/>
+      <c r="V106" s="11"/>
     </row>
     <row r="107" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="R107" s="14"/>
-      <c r="S107" s="14"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
       <c r="T107" t="s">
         <v>24</v>
       </c>
-      <c r="U107" s="17"/>
-      <c r="V107" s="17"/>
+      <c r="U107" s="11"/>
+      <c r="V107" s="11"/>
     </row>
     <row r="108" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="R108" s="14"/>
-      <c r="S108" s="14"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
       <c r="T108" t="s">
         <v>92</v>
       </c>
-      <c r="U108" s="17"/>
-      <c r="V108" s="17"/>
+      <c r="U108" s="11"/>
+      <c r="V108" s="11"/>
     </row>
     <row r="109" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="14"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
       <c r="T109" t="s">
         <v>50</v>
       </c>
-      <c r="U109" s="17"/>
-      <c r="V109" s="17"/>
+      <c r="U109" s="11"/>
+      <c r="V109" s="11"/>
     </row>
     <row r="110" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="R110" s="14"/>
-      <c r="S110" s="14"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="R110" s="13"/>
+      <c r="S110" s="13"/>
       <c r="T110" t="s">
         <v>57</v>
       </c>
-      <c r="U110" s="17"/>
+      <c r="U110" s="11"/>
       <c r="V110" s="4"/>
     </row>
     <row r="111" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="R111" s="14"/>
-      <c r="S111" s="14"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
       <c r="T111" t="s">
         <v>49</v>
       </c>
-      <c r="U111" s="17"/>
-      <c r="V111" s="17"/>
+      <c r="U111" s="11"/>
+      <c r="V111" s="11"/>
     </row>
     <row r="112" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="R112" s="14"/>
-      <c r="S112" s="14"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
       <c r="T112" t="s">
         <v>69</v>
       </c>
-      <c r="U112" s="17"/>
-      <c r="V112" s="17"/>
+      <c r="U112" s="11"/>
+      <c r="V112" s="11"/>
     </row>
     <row r="113" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="R113" s="14"/>
-      <c r="S113" s="14" t="s">
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="R113" s="13"/>
+      <c r="S113" s="13" t="s">
         <v>36</v>
       </c>
       <c r="T113" t="s">
         <v>38</v>
       </c>
-      <c r="U113" s="17"/>
+      <c r="U113" s="11"/>
       <c r="V113" s="4"/>
     </row>
     <row r="114" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="R114" s="14"/>
-      <c r="S114" s="14"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
       <c r="T114" t="s">
         <v>45</v>
       </c>
-      <c r="U114" s="17"/>
-      <c r="V114" s="17"/>
+      <c r="U114" s="11"/>
+      <c r="V114" s="11"/>
     </row>
     <row r="115" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="O115" s="17"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="O115" s="11"/>
       <c r="P115" s="5"/>
-      <c r="R115" s="14"/>
-      <c r="S115" s="14"/>
+      <c r="R115" s="13"/>
+      <c r="S115" s="13"/>
       <c r="T115" t="s">
         <v>52</v>
       </c>
-      <c r="U115" s="17"/>
-      <c r="V115" s="17"/>
+      <c r="U115" s="11"/>
+      <c r="V115" s="11"/>
     </row>
     <row r="116" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="R116" s="14"/>
-      <c r="S116" s="14"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
       <c r="T116" t="s">
         <v>46</v>
       </c>
-      <c r="U116" s="17"/>
+      <c r="U116" s="11"/>
       <c r="V116" s="5"/>
     </row>
     <row r="117" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="R117" s="14"/>
-      <c r="S117" s="14"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="R117" s="13"/>
+      <c r="S117" s="13"/>
       <c r="T117" t="s">
         <v>81</v>
       </c>
-      <c r="U117" s="17"/>
-      <c r="V117" s="17"/>
+      <c r="U117" s="11"/>
+      <c r="V117" s="11"/>
     </row>
     <row r="118" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="U118" s="17"/>
-      <c r="V118" s="17"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="U118" s="11"/>
+      <c r="V118" s="11"/>
     </row>
     <row r="119" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
     </row>
     <row r="120" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
     </row>
     <row r="121" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
     </row>
     <row r="122" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
     </row>
     <row r="123" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
     </row>
     <row r="124" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I124" s="17"/>
-      <c r="J124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
     </row>
     <row r="125" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I125" s="17"/>
-      <c r="J125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
     </row>
     <row r="126" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I126" s="17"/>
-      <c r="J126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
     </row>
     <row r="127" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I127" s="17"/>
-      <c r="J127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
     </row>
     <row r="128" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I128" s="17"/>
-      <c r="J128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
     </row>
     <row r="129" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I129" s="17"/>
-      <c r="J129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
     </row>
     <row r="130" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I130" s="17"/>
-      <c r="J130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
     </row>
     <row r="131" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
     </row>
     <row r="132" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I132" s="17"/>
-      <c r="J132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
     </row>
     <row r="133" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I133" s="17"/>
-      <c r="J133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
     </row>
     <row r="134" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I134" s="17"/>
-      <c r="J134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
     </row>
     <row r="135" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I135" s="17"/>
-      <c r="J135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
     </row>
     <row r="136" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
     </row>
     <row r="137" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
     </row>
     <row r="138" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
     </row>
     <row r="139" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I139" s="17"/>
-      <c r="J139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
     </row>
     <row r="140" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I140" s="17"/>
-      <c r="J140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
     </row>
     <row r="141" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I141" s="17"/>
-      <c r="J141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
     </row>
     <row r="142" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I142" s="17"/>
-      <c r="J142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
     </row>
     <row r="143" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I143" s="17"/>
-      <c r="J143" s="17"/>
-      <c r="O143" s="17"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="O143" s="11"/>
       <c r="P143" s="5"/>
     </row>
     <row r="144" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I144" s="17"/>
-      <c r="J144" s="17"/>
-      <c r="O144" s="17"/>
-      <c r="P144" s="17"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11"/>
     </row>
     <row r="145" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I145" s="17"/>
-      <c r="J145" s="17"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="17"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
     </row>
     <row r="146" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I146" s="17"/>
-      <c r="J146" s="17"/>
-      <c r="O146" s="17"/>
-      <c r="P146" s="17"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
     </row>
     <row r="147" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I147" s="17"/>
-      <c r="J147" s="17"/>
-      <c r="O147" s="17"/>
-      <c r="P147" s="17"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
     </row>
     <row r="148" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I148" s="17"/>
-      <c r="J148" s="17"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="17"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
     </row>
     <row r="149" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I149" s="17"/>
-      <c r="J149" s="17"/>
-      <c r="O149" s="17"/>
-      <c r="P149" s="17"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
     </row>
     <row r="150" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I150" s="17"/>
-      <c r="J150" s="17"/>
-      <c r="O150" s="17"/>
-      <c r="P150" s="17"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
     </row>
     <row r="151" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I151" s="17"/>
+      <c r="I151" s="11"/>
       <c r="J151" s="4"/>
-      <c r="O151" s="17"/>
-      <c r="P151" s="17"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11"/>
     </row>
     <row r="152" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I152" s="17"/>
-      <c r="J152" s="17"/>
-      <c r="O152" s="17"/>
-      <c r="P152" s="17"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
     </row>
     <row r="153" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I153" s="17"/>
-      <c r="J153" s="17"/>
-      <c r="O153" s="17"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="O153" s="11"/>
       <c r="P153" s="5"/>
     </row>
     <row r="154" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I154" s="17"/>
-      <c r="J154" s="17"/>
-      <c r="O154" s="17"/>
-      <c r="P154" s="17"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
     </row>
     <row r="155" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I155" s="17"/>
-      <c r="J155" s="17"/>
-      <c r="O155" s="17"/>
-      <c r="P155" s="17"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
     </row>
     <row r="156" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I156" s="17"/>
-      <c r="J156" s="17"/>
-      <c r="O156" s="17"/>
-      <c r="P156" s="17"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
     </row>
     <row r="157" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I157" s="17"/>
-      <c r="J157" s="18"/>
-      <c r="O157" s="17"/>
-      <c r="P157" s="17"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="12"/>
+      <c r="O157" s="11"/>
+      <c r="P157" s="11"/>
     </row>
     <row r="158" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I158" s="17"/>
-      <c r="J158" s="18"/>
-      <c r="O158" s="17"/>
-      <c r="P158" s="17"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="12"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
     </row>
     <row r="159" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="O159" s="17"/>
+      <c r="O159" s="11"/>
       <c r="P159" s="4"/>
     </row>
     <row r="160" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="O160" s="17"/>
-      <c r="P160" s="17"/>
+      <c r="O160" s="11"/>
+      <c r="P160" s="11"/>
     </row>
     <row r="161" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O161" s="17"/>
-      <c r="P161" s="17"/>
+      <c r="O161" s="11"/>
+      <c r="P161" s="11"/>
     </row>
     <row r="162" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O162" s="17"/>
-      <c r="P162" s="17"/>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11"/>
     </row>
     <row r="163" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O163" s="17"/>
-      <c r="P163" s="17"/>
+      <c r="O163" s="11"/>
+      <c r="P163" s="11"/>
     </row>
     <row r="164" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O164" s="17"/>
-      <c r="P164" s="17"/>
+      <c r="O164" s="11"/>
+      <c r="P164" s="11"/>
     </row>
     <row r="165" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O165" s="17"/>
+      <c r="O165" s="11"/>
       <c r="P165" s="5"/>
     </row>
     <row r="166" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O166" s="17"/>
-      <c r="P166" s="17"/>
+      <c r="O166" s="11"/>
+      <c r="P166" s="11"/>
     </row>
     <row r="167" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O167" s="17"/>
-      <c r="P167" s="17"/>
+      <c r="O167" s="11"/>
+      <c r="P167" s="11"/>
     </row>
     <row r="168" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O168" s="17"/>
-      <c r="P168" s="17"/>
+      <c r="O168" s="11"/>
+      <c r="P168" s="11"/>
     </row>
     <row r="169" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O169" s="17"/>
-      <c r="P169" s="17"/>
+      <c r="O169" s="11"/>
+      <c r="P169" s="11"/>
     </row>
     <row r="170" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O170" s="17"/>
-      <c r="P170" s="17"/>
+      <c r="O170" s="11"/>
+      <c r="P170" s="11"/>
     </row>
     <row r="171" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O171" s="17"/>
-      <c r="P171" s="17"/>
+      <c r="O171" s="11"/>
+      <c r="P171" s="11"/>
     </row>
     <row r="172" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O172" s="17"/>
-      <c r="P172" s="17"/>
+      <c r="O172" s="11"/>
+      <c r="P172" s="11"/>
     </row>
     <row r="173" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O173" s="17"/>
-      <c r="P173" s="17"/>
+      <c r="O173" s="11"/>
+      <c r="P173" s="11"/>
     </row>
     <row r="174" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O174" s="17"/>
-      <c r="P174" s="17"/>
+      <c r="O174" s="11"/>
+      <c r="P174" s="11"/>
     </row>
     <row r="175" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O175" s="17"/>
-      <c r="P175" s="17"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11"/>
     </row>
     <row r="176" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O176" s="17"/>
-      <c r="P176" s="17"/>
+      <c r="O176" s="11"/>
+      <c r="P176" s="11"/>
     </row>
     <row r="177" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O177" s="17"/>
-      <c r="P177" s="17"/>
+      <c r="O177" s="11"/>
+      <c r="P177" s="11"/>
     </row>
     <row r="178" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O178" s="17"/>
-      <c r="P178" s="17"/>
+      <c r="O178" s="11"/>
+      <c r="P178" s="11"/>
     </row>
     <row r="179" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O179" s="17"/>
-      <c r="P179" s="17"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11"/>
     </row>
     <row r="180" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O180" s="17"/>
-      <c r="P180" s="17"/>
+      <c r="O180" s="11"/>
+      <c r="P180" s="11"/>
     </row>
     <row r="181" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O181" s="17"/>
-      <c r="P181" s="17"/>
+      <c r="O181" s="11"/>
+      <c r="P181" s="11"/>
     </row>
     <row r="182" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O182" s="17"/>
-      <c r="P182" s="17"/>
+      <c r="O182" s="11"/>
+      <c r="P182" s="11"/>
     </row>
     <row r="183" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O183" s="17"/>
+      <c r="O183" s="11"/>
       <c r="P183" s="5"/>
     </row>
     <row r="184" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O184" s="17"/>
-      <c r="P184" s="17"/>
+      <c r="O184" s="11"/>
+      <c r="P184" s="11"/>
     </row>
     <row r="185" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O185" s="17"/>
-      <c r="P185" s="17"/>
+      <c r="O185" s="11"/>
+      <c r="P185" s="11"/>
     </row>
     <row r="186" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O186" s="17"/>
-      <c r="P186" s="17"/>
+      <c r="O186" s="11"/>
+      <c r="P186" s="11"/>
     </row>
     <row r="187" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O187" s="17"/>
+      <c r="O187" s="11"/>
       <c r="P187" s="5"/>
     </row>
     <row r="188" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O188" s="17"/>
-      <c r="P188" s="17"/>
+      <c r="O188" s="11"/>
+      <c r="P188" s="11"/>
     </row>
     <row r="189" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O189" s="17"/>
-      <c r="P189" s="17"/>
+      <c r="O189" s="11"/>
+      <c r="P189" s="11"/>
     </row>
     <row r="190" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O190" s="17"/>
-      <c r="P190" s="17"/>
+      <c r="O190" s="11"/>
+      <c r="P190" s="11"/>
     </row>
     <row r="191" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O191" s="17"/>
+      <c r="O191" s="11"/>
       <c r="P191" s="5"/>
     </row>
     <row r="192" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O192" s="17"/>
-      <c r="P192" s="17"/>
+      <c r="O192" s="11"/>
+      <c r="P192" s="11"/>
     </row>
     <row r="193" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O193" s="17"/>
-      <c r="P193" s="17"/>
+      <c r="O193" s="11"/>
+      <c r="P193" s="11"/>
     </row>
     <row r="194" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O194" s="17"/>
-      <c r="P194" s="17"/>
+      <c r="O194" s="11"/>
+      <c r="P194" s="11"/>
     </row>
     <row r="195" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O195" s="17"/>
-      <c r="P195" s="17"/>
+      <c r="O195" s="11"/>
+      <c r="P195" s="11"/>
     </row>
     <row r="196" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O196" s="17"/>
-      <c r="P196" s="17"/>
+      <c r="O196" s="11"/>
+      <c r="P196" s="11"/>
     </row>
     <row r="197" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O197" s="17"/>
-      <c r="P197" s="17"/>
+      <c r="O197" s="11"/>
+      <c r="P197" s="11"/>
     </row>
     <row r="198" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O198" s="17"/>
-      <c r="P198" s="17"/>
+      <c r="O198" s="11"/>
+      <c r="P198" s="11"/>
     </row>
     <row r="199" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O199" s="17"/>
-      <c r="P199" s="17"/>
+      <c r="O199" s="11"/>
+      <c r="P199" s="11"/>
     </row>
     <row r="200" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O200" s="17"/>
-      <c r="P200" s="17"/>
+      <c r="O200" s="11"/>
+      <c r="P200" s="11"/>
     </row>
     <row r="201" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O201" s="17"/>
-      <c r="P201" s="17"/>
+      <c r="O201" s="11"/>
+      <c r="P201" s="11"/>
     </row>
     <row r="202" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O202" s="17"/>
-      <c r="P202" s="17"/>
+      <c r="O202" s="11"/>
+      <c r="P202" s="11"/>
     </row>
     <row r="203" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O203" s="17"/>
-      <c r="P203" s="17"/>
+      <c r="O203" s="11"/>
+      <c r="P203" s="11"/>
     </row>
     <row r="204" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O204" s="17"/>
-      <c r="P204" s="17"/>
+      <c r="O204" s="11"/>
+      <c r="P204" s="11"/>
     </row>
     <row r="205" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O205" s="17"/>
-      <c r="P205" s="17"/>
+      <c r="O205" s="11"/>
+      <c r="P205" s="11"/>
     </row>
     <row r="206" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O206" s="17"/>
-      <c r="P206" s="17"/>
+      <c r="O206" s="11"/>
+      <c r="P206" s="11"/>
     </row>
     <row r="207" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O207" s="17"/>
-      <c r="P207" s="17"/>
+      <c r="O207" s="11"/>
+      <c r="P207" s="11"/>
     </row>
     <row r="208" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O208" s="17"/>
-      <c r="P208" s="17"/>
+      <c r="O208" s="11"/>
+      <c r="P208" s="11"/>
     </row>
     <row r="209" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O209" s="17"/>
-      <c r="P209" s="17"/>
+      <c r="O209" s="11"/>
+      <c r="P209" s="11"/>
     </row>
     <row r="210" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O210" s="17"/>
-      <c r="P210" s="17"/>
+      <c r="O210" s="11"/>
+      <c r="P210" s="11"/>
     </row>
     <row r="211" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O211" s="17"/>
-      <c r="P211" s="17"/>
+      <c r="O211" s="11"/>
+      <c r="P211" s="11"/>
     </row>
     <row r="212" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O212" s="17"/>
-      <c r="P212" s="17"/>
+      <c r="O212" s="11"/>
+      <c r="P212" s="11"/>
     </row>
     <row r="213" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O213" s="17"/>
-      <c r="P213" s="17"/>
+      <c r="O213" s="11"/>
+      <c r="P213" s="11"/>
     </row>
     <row r="214" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O214" s="17"/>
+      <c r="O214" s="11"/>
       <c r="P214" s="5"/>
     </row>
     <row r="215" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O215" s="17"/>
-      <c r="P215" s="17"/>
+      <c r="O215" s="11"/>
+      <c r="P215" s="11"/>
     </row>
     <row r="216" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O216" s="17"/>
-      <c r="P216" s="17"/>
+      <c r="O216" s="11"/>
+      <c r="P216" s="11"/>
     </row>
     <row r="217" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O217" s="17"/>
-      <c r="P217" s="17"/>
+      <c r="O217" s="11"/>
+      <c r="P217" s="11"/>
     </row>
     <row r="218" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O218" s="17"/>
-      <c r="P218" s="17"/>
+      <c r="O218" s="11"/>
+      <c r="P218" s="11"/>
     </row>
     <row r="219" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O219" s="17"/>
-      <c r="P219" s="17"/>
+      <c r="O219" s="11"/>
+      <c r="P219" s="11"/>
     </row>
     <row r="220" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O220" s="17"/>
-      <c r="P220" s="17"/>
+      <c r="O220" s="11"/>
+      <c r="P220" s="11"/>
     </row>
     <row r="221" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O221" s="17"/>
-      <c r="P221" s="17"/>
+      <c r="O221" s="11"/>
+      <c r="P221" s="11"/>
     </row>
     <row r="222" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O222" s="17"/>
-      <c r="P222" s="17"/>
+      <c r="O222" s="11"/>
+      <c r="P222" s="11"/>
     </row>
     <row r="223" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O223" s="17"/>
-      <c r="P223" s="17"/>
+      <c r="O223" s="11"/>
+      <c r="P223" s="11"/>
     </row>
     <row r="224" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O224" s="17"/>
-      <c r="P224" s="17"/>
+      <c r="O224" s="11"/>
+      <c r="P224" s="11"/>
     </row>
     <row r="225" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O225" s="17"/>
-      <c r="P225" s="17"/>
+      <c r="O225" s="11"/>
+      <c r="P225" s="11"/>
     </row>
     <row r="226" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O226" s="17"/>
+      <c r="O226" s="11"/>
       <c r="P226" s="4"/>
     </row>
     <row r="227" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O227" s="17"/>
-      <c r="P227" s="17"/>
+      <c r="O227" s="11"/>
+      <c r="P227" s="11"/>
     </row>
     <row r="228" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O228" s="17"/>
-      <c r="P228" s="17"/>
+      <c r="O228" s="11"/>
+      <c r="P228" s="11"/>
     </row>
     <row r="229" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O229" s="17"/>
-      <c r="P229" s="17"/>
+      <c r="O229" s="11"/>
+      <c r="P229" s="11"/>
     </row>
     <row r="230" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O230" s="17"/>
-      <c r="P230" s="17"/>
+      <c r="O230" s="11"/>
+      <c r="P230" s="11"/>
     </row>
     <row r="231" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O231" s="17"/>
+      <c r="O231" s="11"/>
       <c r="P231" s="5"/>
     </row>
     <row r="232" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O232" s="17"/>
+      <c r="O232" s="11"/>
       <c r="P232" s="5"/>
     </row>
     <row r="233" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O233" s="17"/>
-      <c r="P233" s="17"/>
+      <c r="O233" s="11"/>
+      <c r="P233" s="11"/>
     </row>
     <row r="234" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O234" s="17"/>
-      <c r="P234" s="17"/>
+      <c r="O234" s="11"/>
+      <c r="P234" s="11"/>
     </row>
     <row r="235" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O235" s="17"/>
-      <c r="P235" s="17"/>
+      <c r="O235" s="11"/>
+      <c r="P235" s="11"/>
     </row>
     <row r="236" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O236" s="17"/>
-      <c r="P236" s="17"/>
+      <c r="O236" s="11"/>
+      <c r="P236" s="11"/>
     </row>
     <row r="237" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O237" s="17"/>
-      <c r="P237" s="17"/>
+      <c r="O237" s="11"/>
+      <c r="P237" s="11"/>
     </row>
     <row r="238" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O238" s="17"/>
-      <c r="P238" s="17"/>
+      <c r="O238" s="11"/>
+      <c r="P238" s="11"/>
     </row>
     <row r="239" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O239" s="17"/>
-      <c r="P239" s="17"/>
+      <c r="O239" s="11"/>
+      <c r="P239" s="11"/>
     </row>
     <row r="240" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O240" s="17"/>
-      <c r="P240" s="17"/>
+      <c r="O240" s="11"/>
+      <c r="P240" s="11"/>
     </row>
     <row r="241" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O241" s="17"/>
-      <c r="P241" s="17"/>
+      <c r="O241" s="11"/>
+      <c r="P241" s="11"/>
     </row>
     <row r="242" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O242" s="17"/>
-      <c r="P242" s="17"/>
+      <c r="O242" s="11"/>
+      <c r="P242" s="11"/>
     </row>
     <row r="243" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O243" s="17"/>
-      <c r="P243" s="17"/>
+      <c r="O243" s="11"/>
+      <c r="P243" s="11"/>
     </row>
     <row r="244" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O244" s="17"/>
-      <c r="P244" s="17"/>
+      <c r="O244" s="11"/>
+      <c r="P244" s="11"/>
     </row>
     <row r="245" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O245" s="17"/>
-      <c r="P245" s="17"/>
+      <c r="O245" s="11"/>
+      <c r="P245" s="11"/>
     </row>
     <row r="246" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O246" s="17"/>
-      <c r="P246" s="17"/>
+      <c r="O246" s="11"/>
+      <c r="P246" s="11"/>
     </row>
     <row r="247" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O247" s="17"/>
+      <c r="O247" s="11"/>
       <c r="P247" s="5"/>
     </row>
     <row r="248" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O248" s="17"/>
-      <c r="P248" s="17"/>
+      <c r="O248" s="11"/>
+      <c r="P248" s="11"/>
     </row>
     <row r="249" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O249" s="17"/>
-      <c r="P249" s="17"/>
+      <c r="O249" s="11"/>
+      <c r="P249" s="11"/>
     </row>
     <row r="250" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O250" s="17"/>
+      <c r="O250" s="11"/>
     </row>
     <row r="251" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O251" s="17"/>
+      <c r="O251" s="11"/>
     </row>
     <row r="252" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O252" s="18"/>
+      <c r="O252" s="12"/>
     </row>
     <row r="253" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O253" s="18"/>
-      <c r="P253" s="18"/>
+      <c r="O253" s="12"/>
+      <c r="P253" s="12"/>
     </row>
     <row r="254" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O254" s="18"/>
-      <c r="P254" s="18"/>
+      <c r="O254" s="12"/>
+      <c r="P254" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="201">
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="X12:X19"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Y14:Y19"/>
-    <mergeCell ref="S113:S117"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="R98:R102"/>
-    <mergeCell ref="S98:S100"/>
-    <mergeCell ref="S101:S102"/>
-    <mergeCell ref="R103:R117"/>
-    <mergeCell ref="S103:S112"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="R90:R97"/>
-    <mergeCell ref="S90:S93"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="S94:S97"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="AA76:AA80"/>
-    <mergeCell ref="AB77:AB80"/>
-    <mergeCell ref="S79:S84"/>
-    <mergeCell ref="G80:G86"/>
-    <mergeCell ref="U8:U12"/>
-    <mergeCell ref="AA81:AA83"/>
-    <mergeCell ref="V9:V12"/>
-    <mergeCell ref="AB82:AB83"/>
-    <mergeCell ref="AA84:AA86"/>
-    <mergeCell ref="R85:R89"/>
-    <mergeCell ref="S85:S88"/>
-    <mergeCell ref="AB85:AB86"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="S68:S69"/>
-    <mergeCell ref="AA68:AA75"/>
-    <mergeCell ref="AB68:AB70"/>
-    <mergeCell ref="O8:O17"/>
-    <mergeCell ref="G70:G74"/>
-    <mergeCell ref="P9:P17"/>
-    <mergeCell ref="R70:R84"/>
-    <mergeCell ref="S70:S78"/>
-    <mergeCell ref="AB71:AB75"/>
-    <mergeCell ref="AK15:AK18"/>
-    <mergeCell ref="AA61:AA63"/>
-    <mergeCell ref="S62:S64"/>
-    <mergeCell ref="AB62:AB63"/>
-    <mergeCell ref="O2:O7"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="AA64:AA67"/>
-    <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="R65:R69"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="AB65:AB67"/>
-    <mergeCell ref="I2:I14"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="AB53:AB56"/>
-    <mergeCell ref="R55:R58"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="AA57:AA60"/>
-    <mergeCell ref="S50:S54"/>
-    <mergeCell ref="AB50:AB51"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="AA52:AA56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="AB58:AB60"/>
-    <mergeCell ref="R59:R64"/>
-    <mergeCell ref="S59:S61"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="AJ15:AJ23"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="R44:R54"/>
-    <mergeCell ref="S44:S49"/>
-    <mergeCell ref="AJ8:AJ14"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="AK10:AK14"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="AA47:AA51"/>
-    <mergeCell ref="AB47:AB49"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AA40:AA46"/>
-    <mergeCell ref="AB40:AB45"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="AG38:AG42"/>
-    <mergeCell ref="AH38:AH40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="R39:R43"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="S40:S43"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="AA30:AA32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="L2:L14"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="R33:R38"/>
-    <mergeCell ref="S33:S36"/>
-    <mergeCell ref="AA33:AA39"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="R29:R32"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AG31:AG35"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="R2:R12"/>
+    <mergeCell ref="S2:S8"/>
+    <mergeCell ref="X2:X11"/>
+    <mergeCell ref="Y2:Y9"/>
+    <mergeCell ref="AA2:AA12"/>
+    <mergeCell ref="AB2:AB8"/>
+    <mergeCell ref="AG2:AG6"/>
+    <mergeCell ref="AH3:AH6"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="R13:R19"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="AB14:AB17"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="AB9:AB12"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AG15:AG19"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="AK4:AK7"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="AH17:AH19"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AG20:AG23"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AH21:AH23"/>
+    <mergeCell ref="AB23:AB25"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AG9:AG14"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AH12:AH14"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AJ2:AJ7"/>
     <mergeCell ref="AH31:AH32"/>
     <mergeCell ref="AB33:AB38"/>
     <mergeCell ref="AH33:AH35"/>
@@ -5978,60 +6562,130 @@
     <mergeCell ref="AA21:AA25"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="G23:G25"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="AG38:AG42"/>
+    <mergeCell ref="AH38:AH40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="R39:R43"/>
+    <mergeCell ref="S40:S43"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="AA30:AA32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="R33:R38"/>
+    <mergeCell ref="S33:S36"/>
+    <mergeCell ref="AA33:AA39"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="R29:R32"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AG31:AG35"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="AA52:AA56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="AB58:AB60"/>
+    <mergeCell ref="R59:R64"/>
+    <mergeCell ref="S59:S61"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="AJ15:AJ23"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="R44:R54"/>
+    <mergeCell ref="S44:S49"/>
+    <mergeCell ref="AJ8:AJ14"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="AA47:AA51"/>
+    <mergeCell ref="AB47:AB49"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="AA40:AA46"/>
+    <mergeCell ref="AB40:AB45"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="AK15:AK18"/>
+    <mergeCell ref="AA61:AA63"/>
+    <mergeCell ref="S62:S64"/>
+    <mergeCell ref="AB62:AB63"/>
+    <mergeCell ref="O2:O7"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="AA64:AA67"/>
+    <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="R65:R69"/>
+    <mergeCell ref="S65:S67"/>
+    <mergeCell ref="AB65:AB67"/>
+    <mergeCell ref="AB53:AB56"/>
+    <mergeCell ref="R55:R58"/>
+    <mergeCell ref="S56:S58"/>
+    <mergeCell ref="AA57:AA60"/>
+    <mergeCell ref="S50:S54"/>
+    <mergeCell ref="AB50:AB51"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AK10:AK14"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AB77:AB80"/>
+    <mergeCell ref="S79:S84"/>
+    <mergeCell ref="G80:G86"/>
+    <mergeCell ref="U8:U12"/>
+    <mergeCell ref="AA81:AA83"/>
+    <mergeCell ref="V9:V12"/>
+    <mergeCell ref="AB82:AB83"/>
+    <mergeCell ref="AA84:AA86"/>
+    <mergeCell ref="R85:R89"/>
+    <mergeCell ref="S85:S88"/>
+    <mergeCell ref="AB85:AB86"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="S68:S69"/>
+    <mergeCell ref="AA68:AA75"/>
+    <mergeCell ref="AB68:AB70"/>
+    <mergeCell ref="O8:O17"/>
+    <mergeCell ref="G70:G74"/>
+    <mergeCell ref="P9:P17"/>
+    <mergeCell ref="R70:R84"/>
+    <mergeCell ref="S70:S78"/>
+    <mergeCell ref="AB71:AB75"/>
+    <mergeCell ref="I2:I14"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="R90:R97"/>
+    <mergeCell ref="S90:S93"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="S94:S97"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="AA76:AA80"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="L2:L14"/>
+    <mergeCell ref="M2:M8"/>
     <mergeCell ref="R24:R28"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AG15:AG19"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="AH17:AH19"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AG20:AG23"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AH21:AH23"/>
-    <mergeCell ref="AB23:AB25"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="R13:R19"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="AB14:AB17"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="AB9:AB12"/>
-    <mergeCell ref="AG9:AG14"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AH12:AH14"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AJ2:AJ7"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="R2:R12"/>
-    <mergeCell ref="S2:S8"/>
-    <mergeCell ref="X2:X11"/>
-    <mergeCell ref="Y2:Y9"/>
-    <mergeCell ref="AA2:AA12"/>
-    <mergeCell ref="AB2:AB8"/>
-    <mergeCell ref="AG2:AG6"/>
-    <mergeCell ref="AH3:AH6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="X12:X19"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Y14:Y19"/>
+    <mergeCell ref="S113:S117"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="R98:R102"/>
+    <mergeCell ref="S98:S100"/>
+    <mergeCell ref="S101:S102"/>
+    <mergeCell ref="R103:R117"/>
+    <mergeCell ref="S103:S112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6043,17 +6697,17 @@
   <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="A2" sqref="A2:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" style="22" customWidth="1"/>
     <col min="2" max="2" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>175</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -6063,751 +6717,751 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C39" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C40" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C41" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="42" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B42" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C42" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="5">
+    <row r="43" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="59" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" s="5">
         <v>21</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C48" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C50" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C51" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C53" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C54" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C56" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C57" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>146</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C63" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C64" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C65" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C66" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B73" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C72" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B74" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>249</v>
-      </c>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
         <v>156</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -6816,10 +7470,499 @@
       <c r="C75" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576 E40:E1048576 E1:E38">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CE93BD-90CB-4899-8529-B72F743680DF}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="73.7109375" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1</v>
+      </c>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="36">
+        <v>3</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="36">
+        <v>5</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="36">
+        <v>5</v>
+      </c>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="36">
+        <v>5</v>
+      </c>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="36">
+        <v>5</v>
+      </c>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="36">
+        <v>6</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="36">
+        <v>6</v>
+      </c>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="36">
+        <v>7</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="36">
+        <v>7</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="36">
+        <v>7</v>
+      </c>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="36">
+        <v>7</v>
+      </c>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="36">
+        <v>7</v>
+      </c>
+      <c r="D15" s="41"/>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="36">
+        <v>8</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="36">
+        <v>10</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="36">
+        <v>14</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="36">
+        <v>14</v>
+      </c>
+      <c r="D19" s="33"/>
+    </row>
+    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="36">
+        <v>14</v>
+      </c>
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="36">
+        <v>14</v>
+      </c>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="36">
+        <v>19</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="36">
+        <v>20</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="36">
+        <v>22</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D12:D15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:A38">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ransomware profile/Example/WannaCry_Profile.xlsx
+++ b/Ransomware profile/Example/WannaCry_Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507UAR\Desktop\Y4FinalReport\Ransomware profile\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE86DD4C-5ABC-43C9-96FF-39BDD6E3AE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E39936A-FD66-4A47-89FF-87854267C21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enterprise ATT&amp;CK (v11)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="266">
   <si>
     <t>Reconnaissance</t>
   </si>
@@ -783,9 +783,6 @@
   </si>
   <si>
     <t>Mitigation &amp; Detection Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster </t>
   </si>
   <si>
     <t>NIST Cybersecurity Framework</t>
@@ -1155,6 +1152,9 @@
 RS.MI-3: Newly identified vulnerabilities are mitigated or documented as accepted risks)
 </t>
     </r>
+  </si>
+  <si>
+    <t>Sub-category</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1420,24 +1420,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1465,28 +1447,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1497,8 +1461,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1530,9 +1524,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1546,9 +1540,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1569,14 +1563,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C75" totalsRowShown="0">
   <autoFilter ref="A1:C75" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
-      <colorFilter dxfId="2"/>
+      <colorFilter dxfId="4"/>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
     <sortCondition sortBy="cellColor" ref="A1:A75" dxfId="3"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mitigation &amp; Detection Techniques" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mitigation &amp; Detection Techniques" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Detail"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Clustering"/>
   </tableColumns>
@@ -1883,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL254"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL23"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X46" sqref="X46:Z46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,64 +1930,64 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="16" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17" t="s">
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17" t="s">
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="16" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="18" t="s">
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="16" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
       <c r="AG1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2002,61 +1996,61 @@
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T2" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="29" t="s">
         <v>134</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -2065,34 +2059,34 @@
       <c r="W2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="30" t="s">
         <v>17</v>
       </c>
       <c r="Z2" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AC2" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AF2" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="30" t="s">
         <v>27</v>
       </c>
       <c r="AH2" s="6" t="s">
@@ -2101,10 +2095,10 @@
       <c r="AI2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="13" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="AK2" s="13" t="s">
+      <c r="AK2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AL2" t="s">
@@ -2118,67 +2112,67 @@
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
       <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
       <c r="T3" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13" t="s">
+      <c r="U3" s="29"/>
+      <c r="V3" s="29" t="s">
         <v>36</v>
       </c>
       <c r="W3" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
       <c r="Z3" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
       <c r="AC3" t="s">
         <v>35</v>
       </c>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
       <c r="AF3" t="s">
         <v>94</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="13" t="s">
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AI3" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
       <c r="AL3" t="s">
         <v>53</v>
       </c>
@@ -2190,67 +2184,67 @@
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
       <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13" t="s">
+      <c r="O4" s="29"/>
+      <c r="P4" s="29" t="s">
         <v>36</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
       <c r="T4" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
       <c r="W4" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
       <c r="Z4" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
       <c r="AC4" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="13"/>
+      <c r="AD4" s="29"/>
       <c r="AE4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AF4" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
       <c r="AI4" t="s">
         <v>45</v>
       </c>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13" t="s">
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AL4" t="s">
@@ -2264,37 +2258,37 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
       <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
       <c r="K5" t="s">
         <v>128</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
       <c r="Q5" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
       <c r="T5" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="29" t="s">
         <v>159</v>
       </c>
       <c r="V5" s="4" t="s">
@@ -2303,32 +2297,32 @@
       <c r="W5" t="s">
         <v>28</v>
       </c>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
       <c r="Z5" t="s">
         <v>33</v>
       </c>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
       <c r="AC5" t="s">
         <v>51</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AD5" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="AE5" s="13" t="s">
+      <c r="AE5" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AF5" t="s">
         <v>44</v>
       </c>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
       <c r="AI5" t="s">
         <v>37</v>
       </c>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
       <c r="AL5" t="s">
         <v>38</v>
       </c>
@@ -2340,69 +2334,69 @@
       <c r="B6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
       <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
       <c r="Q6" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
       <c r="T6" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13" t="s">
+      <c r="U6" s="29"/>
+      <c r="V6" s="29" t="s">
         <v>36</v>
       </c>
       <c r="W6" t="s">
         <v>38</v>
       </c>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
       <c r="Z6" t="s">
         <v>50</v>
       </c>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
       <c r="AC6" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
       <c r="AF6" t="s">
         <v>26</v>
       </c>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
       <c r="AI6" t="s">
         <v>59</v>
       </c>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
@@ -2414,57 +2408,57 @@
       <c r="B7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
       <c r="H7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
       <c r="K7" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
       <c r="Q7" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
       <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
       <c r="W7" t="s">
         <v>52</v>
       </c>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
       <c r="Z7" t="s">
         <v>64</v>
       </c>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
       <c r="AC7" t="s">
         <v>33</v>
       </c>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
       <c r="AF7" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="13" t="s">
+      <c r="AG7" s="29" t="s">
         <v>65</v>
       </c>
       <c r="AH7" s="5" t="s">
@@ -2473,8 +2467,8 @@
       <c r="AI7" t="s">
         <v>26</v>
       </c>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
       <c r="AL7" t="s">
         <v>52</v>
       </c>
@@ -2486,27 +2480,27 @@
       <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
       <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
       <c r="N8" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="29" t="s">
         <v>161</v>
       </c>
       <c r="P8" s="5" t="s">
@@ -2515,12 +2509,12 @@
       <c r="Q8" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
       <c r="T8" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="29" t="s">
         <v>165</v>
       </c>
       <c r="V8" s="4" t="s">
@@ -2529,34 +2523,34 @@
       <c r="W8" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
       <c r="Z8" t="s">
         <v>49</v>
       </c>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
       <c r="AC8" t="s">
         <v>69</v>
       </c>
-      <c r="AD8" s="13"/>
+      <c r="AD8" s="29"/>
       <c r="AE8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AF8" t="s">
         <v>37</v>
       </c>
-      <c r="AG8" s="13"/>
+      <c r="AG8" s="29"/>
       <c r="AH8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AI8" t="s">
         <v>37</v>
       </c>
-      <c r="AJ8" s="13" t="s">
+      <c r="AJ8" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="AK8" s="13" t="s">
+      <c r="AK8" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AL8" t="s">
@@ -2568,56 +2562,56 @@
         <v>70</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="s">
+      <c r="I9" s="29"/>
+      <c r="J9" s="29" t="s">
         <v>36</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13" t="s">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29" t="s">
         <v>36</v>
       </c>
       <c r="N9" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13" t="s">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29" t="s">
         <v>36</v>
       </c>
       <c r="Q9" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13" t="s">
+      <c r="R9" s="29"/>
+      <c r="S9" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T9" t="s">
         <v>56</v>
       </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13" t="s">
+      <c r="U9" s="29"/>
+      <c r="V9" s="29" t="s">
         <v>36</v>
       </c>
       <c r="W9" t="s">
         <v>38</v>
       </c>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
       <c r="Z9" t="s">
         <v>72</v>
       </c>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13" t="s">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC9" t="s">
@@ -2625,17 +2619,17 @@
       </c>
       <c r="AD9" s="11"/>
       <c r="AE9" s="5"/>
-      <c r="AG9" s="13" t="s">
+      <c r="AG9" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AH9" s="13" t="s">
+      <c r="AH9" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AI9" t="s">
         <v>74</v>
       </c>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
       <c r="AL9" t="s">
         <v>24</v>
       </c>
@@ -2644,10 +2638,10 @@
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2656,52 +2650,52 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
       <c r="K10" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
       <c r="N10" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
       <c r="Q10" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
       <c r="T10" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
       <c r="W10" t="s">
         <v>45</v>
       </c>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="13" t="s">
+      <c r="X10" s="30"/>
+      <c r="Y10" s="29" t="s">
         <v>36</v>
       </c>
       <c r="Z10" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
       <c r="AC10" t="s">
         <v>37</v>
       </c>
       <c r="AD10" s="11"/>
       <c r="AE10" s="5"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
       <c r="AI10" t="s">
         <v>44</v>
       </c>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13" t="s">
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AL10" t="s">
@@ -2713,58 +2707,58 @@
         <v>80</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
       <c r="K11" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
       <c r="N11" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
       <c r="Q11" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
       <c r="T11" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
       <c r="W11" t="s">
         <v>37</v>
       </c>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
       <c r="Z11" t="s">
         <v>37</v>
       </c>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
       <c r="AC11" t="s">
         <v>82</v>
       </c>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
       <c r="AI11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
       <c r="AL11" t="s">
         <v>45</v>
       </c>
@@ -2772,64 +2766,64 @@
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
       <c r="K12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
       <c r="N12" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
       <c r="Q12" t="s">
         <v>138</v>
       </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
       <c r="T12" t="s">
         <v>81</v>
       </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
       <c r="W12" t="s">
         <v>52</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="X12" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Y12" s="13" t="s">
+      <c r="Y12" s="29" t="s">
         <v>17</v>
       </c>
       <c r="Z12" t="s">
         <v>44</v>
       </c>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
       <c r="AC12" t="s">
         <v>81</v>
       </c>
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13" t="s">
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AI12" t="s">
         <v>38</v>
       </c>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
       <c r="AL12" t="s">
         <v>52</v>
       </c>
@@ -2837,39 +2831,39 @@
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
       <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
       <c r="N13" t="s">
         <v>82</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
       <c r="Q13" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T13" t="s">
         <v>86</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="U13" s="29" t="s">
         <v>172</v>
       </c>
       <c r="V13" s="4" t="s">
@@ -2878,12 +2872,12 @@
       <c r="W13" t="s">
         <v>28</v>
       </c>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
       <c r="Z13" t="s">
         <v>26</v>
       </c>
-      <c r="AA13" s="13" t="s">
+      <c r="AA13" s="29" t="s">
         <v>87</v>
       </c>
       <c r="AB13" s="6" t="s">
@@ -2894,13 +2888,13 @@
       </c>
       <c r="AD13" s="11"/>
       <c r="AE13" s="10"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
       <c r="AI13" t="s">
         <v>45</v>
       </c>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
       <c r="AL13" t="s">
         <v>82</v>
       </c>
@@ -2908,62 +2902,62 @@
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
       <c r="K14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
       <c r="N14" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
       <c r="Q14" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
       <c r="T14" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13" t="s">
+      <c r="U14" s="29"/>
+      <c r="V14" s="29" t="s">
         <v>36</v>
       </c>
       <c r="W14" t="s">
         <v>38</v>
       </c>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13" t="s">
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29" t="s">
         <v>36</v>
       </c>
       <c r="Z14" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13" t="s">
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC14" t="s">
         <v>38</v>
       </c>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
       <c r="AI14" t="s">
         <v>37</v>
       </c>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
       <c r="AL14" t="s">
         <v>81</v>
       </c>
@@ -2971,13 +2965,13 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="13"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="2"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
@@ -2985,44 +2979,44 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
       <c r="Q15" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
       <c r="T15" t="s">
         <v>92</v>
       </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
       <c r="W15" t="s">
         <v>52</v>
       </c>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
       <c r="Z15" t="s">
         <v>45</v>
       </c>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
       <c r="AC15" t="s">
         <v>45</v>
       </c>
-      <c r="AG15" s="13" t="s">
+      <c r="AG15" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="AH15" s="13" t="s">
+      <c r="AH15" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AI15" t="s">
         <v>74</v>
       </c>
-      <c r="AJ15" s="13" t="s">
+      <c r="AJ15" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="AK15" s="13" t="s">
+      <c r="AK15" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AL15" t="s">
@@ -3032,15 +3026,15 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="2"/>
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
@@ -3048,38 +3042,38 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
       <c r="Q16" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
       <c r="T16" t="s">
         <v>84</v>
       </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
       <c r="W16" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
       <c r="Z16" t="s">
         <v>100</v>
       </c>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
       <c r="AC16" t="s">
         <v>52</v>
       </c>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
       <c r="AI16" t="s">
         <v>26</v>
       </c>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
       <c r="AL16" t="s">
         <v>57</v>
       </c>
@@ -3087,13 +3081,13 @@
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="2"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
@@ -3101,13 +3095,13 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
       <c r="Q17" t="s">
         <v>81</v>
       </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13" t="s">
+      <c r="R17" s="29"/>
+      <c r="S17" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T17" t="s">
@@ -3115,43 +3109,43 @@
       </c>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
       <c r="Z17" t="s">
         <v>103</v>
       </c>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
       <c r="AC17" t="s">
         <v>59</v>
       </c>
       <c r="AD17" s="11"/>
       <c r="AE17" s="10"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13" t="s">
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AI17" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
       <c r="AL17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="2"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
@@ -3161,19 +3155,19 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
       <c r="T18" t="s">
         <v>38</v>
       </c>
       <c r="U18" s="11"/>
       <c r="V18" s="4"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
       <c r="Z18" t="s">
         <v>37</v>
       </c>
-      <c r="AA18" s="13" t="s">
+      <c r="AA18" s="29" t="s">
         <v>97</v>
       </c>
       <c r="AB18" t="s">
@@ -3184,25 +3178,25 @@
       </c>
       <c r="AD18" s="11"/>
       <c r="AE18" s="10"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
       <c r="AI18" t="s">
         <v>98</v>
       </c>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
       <c r="AL18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="2"/>
       <c r="I19" s="11"/>
       <c r="J19" s="4"/>
@@ -3211,20 +3205,20 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
       <c r="T19" t="s">
         <v>46</v>
       </c>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
       <c r="Z19" t="s">
         <v>52</v>
       </c>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13" t="s">
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC19" t="s">
@@ -3232,13 +3226,13 @@
       </c>
       <c r="AD19" s="11"/>
       <c r="AE19" s="10"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
       <c r="AI19" t="s">
         <v>37</v>
       </c>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13" t="s">
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AL19" t="s">
@@ -3246,13 +3240,13 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="13"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="2"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -3262,7 +3256,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="13" t="s">
+      <c r="R20" s="29" t="s">
         <v>102</v>
       </c>
       <c r="S20" s="4" t="s">
@@ -3273,14 +3267,14 @@
       </c>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
       <c r="AC20" t="s">
         <v>52</v>
       </c>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
-      <c r="AG20" s="13" t="s">
+      <c r="AG20" s="29" t="s">
         <v>104</v>
       </c>
       <c r="AH20" t="s">
@@ -3289,20 +3283,20 @@
       <c r="AI20" t="s">
         <v>24</v>
       </c>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
       <c r="AL20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="2"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -3312,8 +3306,8 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13" t="s">
+      <c r="R21" s="29"/>
+      <c r="S21" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T21" t="s">
@@ -3321,10 +3315,10 @@
       </c>
       <c r="U21" s="11"/>
       <c r="V21" s="4"/>
-      <c r="AA21" s="13" t="s">
+      <c r="AA21" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="13" t="s">
+      <c r="AB21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AC21" t="s">
@@ -3332,29 +3326,29 @@
       </c>
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13" t="s">
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AI21" t="s">
         <v>38</v>
       </c>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
       <c r="AL21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="13"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="2"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -3363,39 +3357,39 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
       <c r="T22" t="s">
         <v>45</v>
       </c>
       <c r="U22" s="11"/>
       <c r="V22" s="4"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
       <c r="AC22" t="s">
         <v>108</v>
       </c>
       <c r="AD22" s="11"/>
       <c r="AE22" s="10"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
       <c r="AI22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
       <c r="AL22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F23" s="11"/>
-      <c r="G23" s="13"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="2"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -3404,8 +3398,8 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
       <c r="T23" t="s">
         <v>52</v>
       </c>
@@ -3413,8 +3407,8 @@
       <c r="V23" s="4"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13" t="s">
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC23" t="s">
@@ -3422,25 +3416,25 @@
       </c>
       <c r="AD23" s="11"/>
       <c r="AE23" s="10"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
       <c r="AI23" t="s">
         <v>37</v>
       </c>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
       <c r="AL23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="13"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="2"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -3449,10 +3443,10 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="13" t="s">
+      <c r="R24" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="S24" s="13" t="s">
+      <c r="S24" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T24" t="s">
@@ -3462,17 +3456,17 @@
       <c r="V24" s="4"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
       <c r="AC24" t="s">
         <v>45</v>
       </c>
       <c r="AD24" s="11"/>
       <c r="AE24" s="10"/>
-      <c r="AG24" s="13" t="s">
+      <c r="AG24" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="AH24" s="13" t="s">
+      <c r="AH24" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AI24" t="s">
@@ -3482,17 +3476,17 @@
       <c r="AK24" s="11"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="11"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="2"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -3500,8 +3494,8 @@
       <c r="M25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
       <c r="T25" t="s">
         <v>31</v>
       </c>
@@ -3509,15 +3503,15 @@
       <c r="V25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
       <c r="AC25" t="s">
         <v>59</v>
       </c>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
       <c r="AI25" t="s">
         <v>23</v>
       </c>
@@ -3525,13 +3519,13 @@
       <c r="AK25" s="11"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" t="s">
         <v>114</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="2"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -3539,8 +3533,8 @@
       <c r="M26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
       <c r="T26" t="s">
         <v>64</v>
       </c>
@@ -3548,10 +3542,10 @@
       <c r="V26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="AA26" s="13" t="s">
+      <c r="AA26" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AB26" s="13" t="s">
+      <c r="AB26" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AC26" t="s">
@@ -3559,8 +3553,8 @@
       </c>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
       <c r="AI26" t="s">
         <v>114</v>
       </c>
@@ -3568,15 +3562,15 @@
       <c r="AK26" s="11"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="2"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -3584,8 +3578,8 @@
       <c r="M27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
       <c r="T27" t="s">
         <v>49</v>
       </c>
@@ -3593,15 +3587,15 @@
       <c r="V27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
       <c r="AC27" t="s">
         <v>69</v>
       </c>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13" t="s">
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AI27" t="s">
@@ -3610,13 +3604,13 @@
       <c r="AJ27" s="11"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="13"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="2"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -3624,7 +3618,7 @@
       <c r="M28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="R28" s="13"/>
+      <c r="R28" s="29"/>
       <c r="S28" s="4" t="s">
         <v>36</v>
       </c>
@@ -3635,8 +3629,8 @@
       <c r="V28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13" t="s">
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC28" t="s">
@@ -3644,8 +3638,8 @@
       </c>
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
       <c r="AI28" t="s">
         <v>58</v>
       </c>
@@ -3653,13 +3647,13 @@
       <c r="AK28" s="11"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="2"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -3667,10 +3661,10 @@
       <c r="M29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="R29" s="13" t="s">
+      <c r="R29" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T29" t="s">
@@ -3680,15 +3674,15 @@
       <c r="V29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
       <c r="AC29" t="s">
         <v>52</v>
       </c>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
       <c r="AI29" t="s">
         <v>98</v>
       </c>
@@ -3696,17 +3690,17 @@
       <c r="AK29" s="11"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="2"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -3714,8 +3708,8 @@
       <c r="M30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
       <c r="T30" t="s">
         <v>92</v>
       </c>
@@ -3723,7 +3717,7 @@
       <c r="V30" s="5"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
-      <c r="AA30" s="13" t="s">
+      <c r="AA30" s="29" t="s">
         <v>121</v>
       </c>
       <c r="AB30" t="s">
@@ -3734,8 +3728,8 @@
       </c>
       <c r="AD30" s="11"/>
       <c r="AE30" s="10"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
       <c r="AI30" t="s">
         <v>52</v>
       </c>
@@ -3743,13 +3737,13 @@
       <c r="AK30" s="11"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="2"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -3757,8 +3751,8 @@
       <c r="M31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="5"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13" t="s">
+      <c r="R31" s="29"/>
+      <c r="S31" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T31" t="s">
@@ -3768,8 +3762,8 @@
       <c r="V31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13" t="s">
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC31" t="s">
@@ -3777,10 +3771,10 @@
       </c>
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
-      <c r="AG31" s="13" t="s">
+      <c r="AG31" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="AH31" s="13" t="s">
+      <c r="AH31" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AI31" t="s">
@@ -3789,13 +3783,13 @@
       <c r="AJ31" s="11"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="13"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="2"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
@@ -3803,8 +3797,8 @@
       <c r="M32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
       <c r="T32" t="s">
         <v>37</v>
       </c>
@@ -3812,15 +3806,15 @@
       <c r="V32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
       <c r="AC32" t="s">
         <v>52</v>
       </c>
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
       <c r="AI32" t="s">
         <v>68</v>
       </c>
@@ -3828,22 +3822,22 @@
       <c r="AK32" s="11"/>
     </row>
     <row r="33" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
       <c r="E33" t="s">
         <v>123</v>
       </c>
       <c r="F33" s="11"/>
-      <c r="G33" s="13"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="2"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="R33" s="13" t="s">
+      <c r="R33" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="S33" s="13" t="s">
+      <c r="S33" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T33" t="s">
@@ -3853,10 +3847,10 @@
       <c r="V33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
-      <c r="AA33" s="13" t="s">
+      <c r="AA33" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="AB33" s="13" t="s">
+      <c r="AB33" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AC33" t="s">
@@ -3864,8 +3858,8 @@
       </c>
       <c r="AD33" s="11"/>
       <c r="AE33" s="4"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13" t="s">
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AI33" t="s">
@@ -3875,20 +3869,20 @@
       <c r="AK33" s="11"/>
     </row>
     <row r="34" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
       <c r="E34" t="s">
         <v>69</v>
       </c>
       <c r="F34" s="11"/>
-      <c r="G34" s="13"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="2"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
       <c r="T34" t="s">
         <v>50</v>
       </c>
@@ -3896,13 +3890,13 @@
       <c r="V34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
       <c r="AC34" t="s">
         <v>35</v>
       </c>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
       <c r="AI34" t="s">
         <v>98</v>
       </c>
@@ -3910,22 +3904,22 @@
       <c r="AK34" s="11"/>
     </row>
     <row r="35" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C35" s="13"/>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="11"/>
-      <c r="G35" s="13"/>
+      <c r="G35" s="29"/>
       <c r="H35" s="2"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="5"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
       <c r="T35" t="s">
         <v>123</v>
       </c>
@@ -3933,13 +3927,13 @@
       <c r="V35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
       <c r="AC35" t="s">
         <v>44</v>
       </c>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
       <c r="AI35" t="s">
         <v>37</v>
       </c>
@@ -3947,20 +3941,20 @@
       <c r="AK35" s="11"/>
     </row>
     <row r="36" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="11"/>
-      <c r="G36" s="13"/>
+      <c r="G36" s="29"/>
       <c r="H36" s="2"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
       <c r="T36" t="s">
         <v>84</v>
       </c>
@@ -3968,12 +3962,12 @@
       <c r="V36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
       <c r="AC36" t="s">
         <v>20</v>
       </c>
-      <c r="AG36" s="13" t="s">
+      <c r="AG36" s="29" t="s">
         <v>129</v>
       </c>
       <c r="AH36" s="5" t="s">
@@ -3985,20 +3979,20 @@
       <c r="AJ36" s="11"/>
     </row>
     <row r="37" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" t="s">
         <v>37</v>
       </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="13"/>
+      <c r="G37" s="29"/>
       <c r="H37" s="2"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13" t="s">
+      <c r="R37" s="29"/>
+      <c r="S37" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T37" t="s">
@@ -4008,12 +4002,12 @@
       <c r="V37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
       <c r="AC37" t="s">
         <v>57</v>
       </c>
-      <c r="AG37" s="13"/>
+      <c r="AG37" s="29"/>
       <c r="AH37" s="5" t="s">
         <v>36</v>
       </c>
@@ -4024,23 +4018,23 @@
       <c r="AK37" s="11"/>
     </row>
     <row r="38" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E38" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="11"/>
-      <c r="G38" s="13"/>
+      <c r="G38" s="29"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
       <c r="T38" t="s">
         <v>131</v>
       </c>
@@ -4048,17 +4042,17 @@
       <c r="V38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
       <c r="AC38" t="s">
         <v>84</v>
       </c>
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
-      <c r="AG38" s="13" t="s">
+      <c r="AG38" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="AH38" s="13" t="s">
+      <c r="AH38" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AI38" t="s">
@@ -4068,19 +4062,19 @@
       <c r="AK38" s="11"/>
     </row>
     <row r="39" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
       <c r="E39" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="11"/>
-      <c r="G39" s="13"/>
+      <c r="G39" s="29"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="13" t="s">
+      <c r="R39" s="29" t="s">
         <v>133</v>
       </c>
       <c r="S39" s="4" t="s">
@@ -4091,7 +4085,7 @@
       </c>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
-      <c r="AA39" s="13"/>
+      <c r="AA39" s="29"/>
       <c r="AB39" s="5" t="s">
         <v>36</v>
       </c>
@@ -4100,8 +4094,8 @@
       </c>
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
       <c r="AI39" t="s">
         <v>92</v>
       </c>
@@ -4109,20 +4103,20 @@
       <c r="AK39" s="11"/>
     </row>
     <row r="40" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
       <c r="E40" t="s">
         <v>114</v>
       </c>
       <c r="F40" s="11"/>
-      <c r="G40" s="13"/>
+      <c r="G40" s="29"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13" t="s">
+      <c r="R40" s="29"/>
+      <c r="S40" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T40" t="s">
@@ -4130,10 +4124,10 @@
       </c>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
-      <c r="AA40" s="13" t="s">
+      <c r="AA40" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="AB40" s="13" t="s">
+      <c r="AB40" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AC40" t="s">
@@ -4141,8 +4135,8 @@
       </c>
       <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="29"/>
       <c r="AI40" t="s">
         <v>84</v>
       </c>
@@ -4150,36 +4144,36 @@
       <c r="AK40" s="11"/>
     </row>
     <row r="41" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E41" t="s">
         <v>58</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="13"/>
+      <c r="G41" s="29"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
       <c r="T41" t="s">
         <v>45</v>
       </c>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
       <c r="AC41" t="s">
         <v>44</v>
       </c>
       <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13" t="s">
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AI41" t="s">
@@ -4189,20 +4183,20 @@
       <c r="AK41" s="11"/>
     </row>
     <row r="42" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" t="s">
         <v>45</v>
       </c>
       <c r="F42" s="11"/>
-      <c r="G42" s="13"/>
+      <c r="G42" s="29"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
       <c r="T42" t="s">
         <v>52</v>
       </c>
@@ -4210,15 +4204,15 @@
       <c r="V42" s="4"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
       <c r="AC42" t="s">
         <v>26</v>
       </c>
       <c r="AD42" s="11"/>
       <c r="AE42" s="11"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="29"/>
       <c r="AI42" t="s">
         <v>83</v>
       </c>
@@ -4226,20 +4220,20 @@
       <c r="AK42" s="11"/>
     </row>
     <row r="43" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
       <c r="E43" t="s">
         <v>52</v>
       </c>
       <c r="F43" s="11"/>
-      <c r="G43" s="13"/>
+      <c r="G43" s="29"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
       <c r="T43" t="s">
         <v>81</v>
       </c>
@@ -4247,8 +4241,8 @@
       <c r="V43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
       <c r="AC43" t="s">
         <v>33</v>
       </c>
@@ -4257,26 +4251,26 @@
       <c r="AJ43" s="11"/>
     </row>
     <row r="44" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
         <v>49</v>
       </c>
       <c r="F44" s="11"/>
-      <c r="G44" s="13"/>
+      <c r="G44" s="29"/>
       <c r="I44" s="11"/>
       <c r="J44" s="4"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="13" t="s">
+      <c r="R44" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="S44" s="13" t="s">
+      <c r="S44" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T44" t="s">
@@ -4286,8 +4280,8 @@
       <c r="V44" s="11"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
       <c r="AC44" t="s">
         <v>123</v>
       </c>
@@ -4295,20 +4289,20 @@
       <c r="AE44" s="11"/>
     </row>
     <row r="45" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
       <c r="E45" t="s">
         <v>72</v>
       </c>
       <c r="F45" s="11"/>
-      <c r="G45" s="13"/>
+      <c r="G45" s="29"/>
       <c r="I45" s="11"/>
       <c r="J45" s="4"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
       <c r="T45" t="s">
         <v>24</v>
       </c>
@@ -4316,8 +4310,8 @@
       <c r="V45" s="11"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
       <c r="AC45" t="s">
         <v>49</v>
       </c>
@@ -4325,23 +4319,23 @@
       <c r="AE45" s="5"/>
     </row>
     <row r="46" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C46" s="13"/>
-      <c r="D46" s="13" t="s">
+      <c r="C46" s="29"/>
+      <c r="D46" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="13"/>
+      <c r="G46" s="29"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="5"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
       <c r="T46" t="s">
         <v>92</v>
       </c>
@@ -4349,7 +4343,7 @@
       <c r="V46" s="11"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
-      <c r="AA46" s="13"/>
+      <c r="AA46" s="29"/>
       <c r="AB46" s="5" t="s">
         <v>36</v>
       </c>
@@ -4360,21 +4354,21 @@
       <c r="AE46" s="11"/>
     </row>
     <row r="47" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
       <c r="E47" t="s">
         <v>135</v>
       </c>
       <c r="F47" s="11"/>
-      <c r="G47" s="13"/>
+      <c r="G47" s="29"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
       <c r="T47" t="s">
         <v>50</v>
       </c>
@@ -4382,10 +4376,10 @@
       <c r="V47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
-      <c r="AA47" s="13" t="s">
+      <c r="AA47" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="AB47" s="13" t="s">
+      <c r="AB47" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AC47" t="s">
@@ -4395,25 +4389,25 @@
       <c r="AE47" s="11"/>
     </row>
     <row r="48" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="s">
         <v>33</v>
       </c>
       <c r="F48" s="11"/>
-      <c r="G48" s="13"/>
+      <c r="G48" s="29"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
       <c r="T48" t="s">
         <v>145</v>
       </c>
@@ -4421,8 +4415,8 @@
       <c r="V48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
       <c r="AC48" t="s">
         <v>84</v>
       </c>
@@ -4430,21 +4424,21 @@
       <c r="AE48" s="4"/>
     </row>
     <row r="49" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
       <c r="E49" t="s">
         <v>63</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="13"/>
+      <c r="G49" s="29"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
       <c r="T49" t="s">
         <v>57</v>
       </c>
@@ -4452,30 +4446,30 @@
       <c r="V49" s="11"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
       <c r="AC49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C50" s="13"/>
-      <c r="D50" s="13" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E50" t="s">
         <v>56</v>
       </c>
       <c r="F50" s="11"/>
-      <c r="G50" s="13"/>
+      <c r="G50" s="29"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13" t="s">
+      <c r="R50" s="29"/>
+      <c r="S50" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T50" t="s">
@@ -4485,8 +4479,8 @@
       <c r="V50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="14" t="s">
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="33" t="s">
         <v>36</v>
       </c>
       <c r="AC50" t="s">
@@ -4494,21 +4488,21 @@
       </c>
     </row>
     <row r="51" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
       <c r="E51" t="s">
         <v>99</v>
       </c>
       <c r="F51" s="11"/>
-      <c r="G51" s="13"/>
+      <c r="G51" s="29"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
       <c r="T51" t="s">
         <v>99</v>
       </c>
@@ -4516,18 +4510,18 @@
       <c r="V51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="14"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="33"/>
       <c r="AC51" t="s">
         <v>99</v>
       </c>
       <c r="AJ51" s="11"/>
     </row>
     <row r="52" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E52" t="s">
@@ -4541,8 +4535,8 @@
       <c r="M52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
       <c r="T52" t="s">
         <v>78</v>
       </c>
@@ -4550,7 +4544,7 @@
       <c r="V52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
-      <c r="AA52" s="13" t="s">
+      <c r="AA52" s="29" t="s">
         <v>148</v>
       </c>
       <c r="AB52" s="5" t="s">
@@ -4563,19 +4557,19 @@
       <c r="AK52" s="11"/>
     </row>
     <row r="53" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
       <c r="E53" t="s">
         <v>92</v>
       </c>
       <c r="F53" s="11"/>
-      <c r="G53" s="13"/>
+      <c r="G53" s="29"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
       <c r="T53" t="s">
         <v>52</v>
       </c>
@@ -4583,8 +4577,8 @@
       <c r="V53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="13" t="s">
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC53" t="s">
@@ -4594,19 +4588,19 @@
       <c r="AK53" s="11"/>
     </row>
     <row r="54" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
       <c r="E54" t="s">
         <v>50</v>
       </c>
       <c r="F54" s="11"/>
-      <c r="G54" s="13"/>
+      <c r="G54" s="29"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="5"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
       <c r="T54" t="s">
         <v>81</v>
       </c>
@@ -4614,26 +4608,26 @@
       <c r="V54" s="4"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
-      <c r="AA54" s="13"/>
-      <c r="AB54" s="13"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
       <c r="AC54" t="s">
         <v>45</v>
       </c>
       <c r="AJ54" s="11"/>
     </row>
     <row r="55" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
       <c r="E55" t="s">
         <v>84</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="13"/>
+      <c r="G55" s="29"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="R55" s="13" t="s">
+      <c r="R55" s="29" t="s">
         <v>150</v>
       </c>
       <c r="S55" s="4" t="s">
@@ -4646,8 +4640,8 @@
       <c r="V55" s="11"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="13"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
       <c r="AC55" t="s">
         <v>52</v>
       </c>
@@ -4655,19 +4649,19 @@
       <c r="AK55" s="11"/>
     </row>
     <row r="56" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
       <c r="E56" t="s">
         <v>69</v>
       </c>
       <c r="F56" s="11"/>
-      <c r="G56" s="13"/>
+      <c r="G56" s="29"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13" t="s">
+      <c r="R56" s="29"/>
+      <c r="S56" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T56" t="s">
@@ -4677,8 +4671,8 @@
       <c r="V56" s="11"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
       <c r="AC56" t="s">
         <v>59</v>
       </c>
@@ -4686,21 +4680,21 @@
       <c r="AK56" s="11"/>
     </row>
     <row r="57" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C57" s="13"/>
-      <c r="D57" s="13" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E57" t="s">
         <v>99</v>
       </c>
       <c r="F57" s="11"/>
-      <c r="G57" s="13"/>
+      <c r="G57" s="29"/>
       <c r="L57" s="11"/>
       <c r="M57" s="4"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
       <c r="T57" t="s">
         <v>52</v>
       </c>
@@ -4708,7 +4702,7 @@
       <c r="V57" s="11"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
-      <c r="AA57" s="13" t="s">
+      <c r="AA57" s="29" t="s">
         <v>152</v>
       </c>
       <c r="AB57" s="5" t="s">
@@ -4721,19 +4715,19 @@
       <c r="AK57" s="11"/>
     </row>
     <row r="58" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
       <c r="E58" t="s">
         <v>46</v>
       </c>
       <c r="F58" s="11"/>
-      <c r="G58" s="13"/>
+      <c r="G58" s="29"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
       <c r="T58" t="s">
         <v>81</v>
       </c>
@@ -4741,8 +4735,8 @@
       <c r="V58" s="11"/>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13" t="s">
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC58" t="s">
@@ -4753,15 +4747,15 @@
     </row>
     <row r="59" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F59" s="11"/>
-      <c r="G59" s="13"/>
+      <c r="G59" s="29"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="R59" s="13" t="s">
+      <c r="R59" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="S59" s="13" t="s">
+      <c r="S59" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T59" t="s">
@@ -4771,8 +4765,8 @@
       <c r="V59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
-      <c r="AA59" s="13"/>
-      <c r="AB59" s="13"/>
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
       <c r="AC59" t="s">
         <v>45</v>
       </c>
@@ -4781,13 +4775,13 @@
     </row>
     <row r="60" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F60" s="11"/>
-      <c r="G60" s="13"/>
+      <c r="G60" s="29"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
       <c r="T60" t="s">
         <v>20</v>
       </c>
@@ -4795,21 +4789,21 @@
       <c r="V60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
-      <c r="AA60" s="13"/>
-      <c r="AB60" s="13"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
       <c r="AC60" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="61" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F61" s="11"/>
-      <c r="G61" s="13"/>
+      <c r="G61" s="29"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
       <c r="T61" t="s">
         <v>69</v>
       </c>
@@ -4817,7 +4811,7 @@
       <c r="V61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
-      <c r="AA61" s="13" t="s">
+      <c r="AA61" s="29" t="s">
         <v>155</v>
       </c>
       <c r="AB61" s="5" t="s">
@@ -4829,13 +4823,13 @@
     </row>
     <row r="62" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F62" s="11"/>
-      <c r="G62" s="13"/>
+      <c r="G62" s="29"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13" t="s">
+      <c r="R62" s="29"/>
+      <c r="S62" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T62" t="s">
@@ -4845,8 +4839,8 @@
       <c r="V62" s="4"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
-      <c r="AA62" s="13"/>
-      <c r="AB62" s="13" t="s">
+      <c r="AA62" s="29"/>
+      <c r="AB62" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC62" t="s">
@@ -4855,11 +4849,11 @@
     </row>
     <row r="63" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F63" s="11"/>
-      <c r="G63" s="13"/>
+      <c r="G63" s="29"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
       <c r="T63" t="s">
         <v>99</v>
       </c>
@@ -4867,19 +4861,19 @@
       <c r="V63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
-      <c r="AA63" s="13"/>
-      <c r="AB63" s="13"/>
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
       <c r="AC63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="64" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F64" s="11"/>
-      <c r="G64" s="13"/>
+      <c r="G64" s="29"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
       <c r="T64" t="s">
         <v>46</v>
       </c>
@@ -4887,7 +4881,7 @@
       <c r="V64" s="11"/>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
-      <c r="AA64" s="13" t="s">
+      <c r="AA64" s="29" t="s">
         <v>158</v>
       </c>
       <c r="AB64" t="s">
@@ -4899,13 +4893,13 @@
     </row>
     <row r="65" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F65" s="11"/>
-      <c r="G65" s="13"/>
+      <c r="G65" s="29"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
-      <c r="R65" s="13" t="s">
+      <c r="R65" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="S65" s="13" t="s">
+      <c r="S65" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T65" t="s">
@@ -4915,8 +4909,8 @@
       <c r="V65" s="11"/>
       <c r="X65" s="11"/>
       <c r="Y65" s="11"/>
-      <c r="AA65" s="13"/>
-      <c r="AB65" s="13" t="s">
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC65" t="s">
@@ -4925,53 +4919,53 @@
     </row>
     <row r="66" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F66" s="11"/>
-      <c r="G66" s="13"/>
+      <c r="G66" s="29"/>
       <c r="I66" s="11"/>
       <c r="J66" s="4"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
       <c r="T66" t="s">
         <v>20</v>
       </c>
       <c r="X66" s="11"/>
       <c r="Y66" s="11"/>
-      <c r="AA66" s="13"/>
-      <c r="AB66" s="13"/>
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
       <c r="AC66" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F67" s="11"/>
-      <c r="G67" s="13"/>
+      <c r="G67" s="29"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
       <c r="T67" t="s">
         <v>84</v>
       </c>
       <c r="X67" s="11"/>
       <c r="Y67" s="11"/>
-      <c r="AA67" s="13"/>
-      <c r="AB67" s="13"/>
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="29"/>
       <c r="AC67" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="68" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F68" s="11"/>
-      <c r="G68" s="13"/>
+      <c r="G68" s="29"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13" t="s">
+      <c r="R68" s="29"/>
+      <c r="S68" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T68" t="s">
@@ -4979,10 +4973,10 @@
       </c>
       <c r="X68" s="11"/>
       <c r="Y68" s="11"/>
-      <c r="AA68" s="13" t="s">
+      <c r="AA68" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AB68" s="13" t="s">
+      <c r="AB68" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AC68" t="s">
@@ -4991,13 +4985,13 @@
     </row>
     <row r="69" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F69" s="11"/>
-      <c r="G69" s="13"/>
+      <c r="G69" s="29"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="5"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
       <c r="T69" t="s">
         <v>52</v>
       </c>
@@ -5005,8 +4999,8 @@
       <c r="V69" s="4"/>
       <c r="X69" s="11"/>
       <c r="Y69" s="5"/>
-      <c r="AA69" s="13"/>
-      <c r="AB69" s="13"/>
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="29"/>
       <c r="AC69" t="s">
         <v>35</v>
       </c>
@@ -5014,15 +5008,15 @@
     </row>
     <row r="70" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F70" s="11"/>
-      <c r="G70" s="13"/>
+      <c r="G70" s="29"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
-      <c r="R70" s="13" t="s">
+      <c r="R70" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="S70" s="13" t="s">
+      <c r="S70" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T70" t="s">
@@ -5032,8 +5026,8 @@
       <c r="V70" s="11"/>
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
-      <c r="AA70" s="13"/>
-      <c r="AB70" s="13"/>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="29"/>
       <c r="AC70" t="s">
         <v>20</v>
       </c>
@@ -5042,13 +5036,13 @@
     </row>
     <row r="71" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F71" s="11"/>
-      <c r="G71" s="13"/>
+      <c r="G71" s="29"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
       <c r="T71" t="s">
         <v>32</v>
       </c>
@@ -5056,8 +5050,8 @@
       <c r="V71" s="11"/>
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
-      <c r="AA71" s="13"/>
-      <c r="AB71" s="13" t="s">
+      <c r="AA71" s="29"/>
+      <c r="AB71" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC71" t="s">
@@ -5068,20 +5062,20 @@
     </row>
     <row r="72" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F72" s="11"/>
-      <c r="G72" s="13"/>
+      <c r="G72" s="29"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
       <c r="T72" t="s">
         <v>163</v>
       </c>
       <c r="U72" s="11"/>
       <c r="V72" s="11"/>
-      <c r="AA72" s="13"/>
-      <c r="AB72" s="13"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29"/>
       <c r="AC72" t="s">
         <v>38</v>
       </c>
@@ -5090,80 +5084,80 @@
     </row>
     <row r="73" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F73" s="11"/>
-      <c r="G73" s="13"/>
+      <c r="G73" s="29"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29"/>
       <c r="T73" t="s">
         <v>35</v>
       </c>
       <c r="U73" s="11"/>
       <c r="V73" s="11"/>
-      <c r="AA73" s="13"/>
-      <c r="AB73" s="13"/>
+      <c r="AA73" s="29"/>
+      <c r="AB73" s="29"/>
       <c r="AC73" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="74" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F74" s="11"/>
-      <c r="G74" s="13"/>
+      <c r="G74" s="29"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
       <c r="T74" t="s">
         <v>24</v>
       </c>
       <c r="U74" s="11"/>
       <c r="V74" s="4"/>
-      <c r="AA74" s="13"/>
-      <c r="AB74" s="13"/>
+      <c r="AA74" s="29"/>
+      <c r="AB74" s="29"/>
       <c r="AC74" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="75" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F75" s="11"/>
-      <c r="G75" s="13"/>
+      <c r="G75" s="29"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
       <c r="T75" t="s">
         <v>92</v>
       </c>
       <c r="U75" s="11"/>
       <c r="V75" s="11"/>
-      <c r="AA75" s="13"/>
-      <c r="AB75" s="13"/>
+      <c r="AA75" s="29"/>
+      <c r="AB75" s="29"/>
       <c r="AC75" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="76" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F76" s="11"/>
-      <c r="G76" s="13"/>
+      <c r="G76" s="29"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
       <c r="T76" t="s">
         <v>50</v>
       </c>
       <c r="U76" s="11"/>
       <c r="V76" s="11"/>
       <c r="X76" s="8"/>
-      <c r="AA76" s="13" t="s">
+      <c r="AA76" s="29" t="s">
         <v>133</v>
       </c>
       <c r="AB76" t="s">
@@ -5175,20 +5169,20 @@
     </row>
     <row r="77" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F77" s="11"/>
-      <c r="G77" s="13"/>
+      <c r="G77" s="29"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
       <c r="T77" t="s">
         <v>145</v>
       </c>
       <c r="U77" s="11"/>
       <c r="V77" s="4"/>
-      <c r="AA77" s="13"/>
-      <c r="AB77" s="13" t="s">
+      <c r="AA77" s="29"/>
+      <c r="AB77" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC77" t="s">
@@ -5197,35 +5191,35 @@
     </row>
     <row r="78" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F78" s="11"/>
-      <c r="G78" s="13"/>
+      <c r="G78" s="29"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
       <c r="T78" t="s">
         <v>69</v>
       </c>
       <c r="U78" s="11"/>
       <c r="V78" s="11"/>
-      <c r="AA78" s="13"/>
-      <c r="AB78" s="13"/>
+      <c r="AA78" s="29"/>
+      <c r="AB78" s="29"/>
       <c r="AC78" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="79" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F79" s="11"/>
-      <c r="G79" s="13"/>
+      <c r="G79" s="29"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13" t="s">
+      <c r="R79" s="29"/>
+      <c r="S79" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T79" t="s">
@@ -5233,49 +5227,49 @@
       </c>
       <c r="U79" s="11"/>
       <c r="V79" s="11"/>
-      <c r="AA79" s="13"/>
-      <c r="AB79" s="13"/>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="29"/>
       <c r="AC79" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="80" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F80" s="11"/>
-      <c r="G80" s="13"/>
+      <c r="G80" s="29"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="29"/>
       <c r="T80" t="s">
         <v>38</v>
       </c>
       <c r="U80" s="11"/>
       <c r="V80" s="11"/>
-      <c r="AA80" s="13"/>
-      <c r="AB80" s="13"/>
+      <c r="AA80" s="29"/>
+      <c r="AB80" s="29"/>
       <c r="AC80" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="81" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F81" s="11"/>
-      <c r="G81" s="13"/>
+      <c r="G81" s="29"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
+      <c r="R81" s="29"/>
+      <c r="S81" s="29"/>
       <c r="T81" t="s">
         <v>45</v>
       </c>
-      <c r="AA81" s="13" t="s">
+      <c r="AA81" s="29" t="s">
         <v>166</v>
       </c>
       <c r="AB81" t="s">
@@ -5287,20 +5281,20 @@
     </row>
     <row r="82" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F82" s="11"/>
-      <c r="G82" s="13"/>
+      <c r="G82" s="29"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
       <c r="T82" t="s">
         <v>37</v>
       </c>
-      <c r="AA82" s="13"/>
-      <c r="AB82" s="13" t="s">
+      <c r="AA82" s="29"/>
+      <c r="AB82" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC82" t="s">
@@ -5309,39 +5303,39 @@
     </row>
     <row r="83" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F83" s="11"/>
-      <c r="G83" s="13"/>
+      <c r="G83" s="29"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
       <c r="T83" t="s">
         <v>52</v>
       </c>
-      <c r="AA83" s="13"/>
-      <c r="AB83" s="13"/>
+      <c r="AA83" s="29"/>
+      <c r="AB83" s="29"/>
       <c r="AC83" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="84" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F84" s="11"/>
-      <c r="G84" s="13"/>
+      <c r="G84" s="29"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
       <c r="T84" t="s">
         <v>81</v>
       </c>
-      <c r="AA84" s="13" t="s">
+      <c r="AA84" s="29" t="s">
         <v>167</v>
       </c>
       <c r="AB84" t="s">
@@ -5353,24 +5347,24 @@
     </row>
     <row r="85" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F85" s="11"/>
-      <c r="G85" s="13"/>
+      <c r="G85" s="29"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
-      <c r="R85" s="13" t="s">
+      <c r="R85" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="S85" s="13" t="s">
+      <c r="S85" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T85" t="s">
         <v>21</v>
       </c>
-      <c r="AA85" s="13"/>
-      <c r="AB85" s="13" t="s">
+      <c r="AA85" s="29"/>
+      <c r="AB85" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AC85" t="s">
@@ -5379,22 +5373,22 @@
     </row>
     <row r="86" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F86" s="11"/>
-      <c r="G86" s="13"/>
+      <c r="G86" s="29"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
       <c r="T86" t="s">
         <v>68</v>
       </c>
       <c r="U86" s="11"/>
       <c r="V86" s="4"/>
-      <c r="AA86" s="13"/>
-      <c r="AB86" s="13"/>
+      <c r="AA86" s="29"/>
+      <c r="AB86" s="29"/>
       <c r="AC86" t="s">
         <v>52</v>
       </c>
@@ -5406,8 +5400,8 @@
       <c r="M87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
       <c r="T87" t="s">
         <v>84</v>
       </c>
@@ -5421,8 +5415,8 @@
       <c r="M88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="29"/>
       <c r="T88" t="s">
         <v>69</v>
       </c>
@@ -5436,7 +5430,7 @@
       <c r="M89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
-      <c r="R89" s="13"/>
+      <c r="R89" s="29"/>
       <c r="S89" s="4" t="s">
         <v>36</v>
       </c>
@@ -5453,10 +5447,10 @@
       <c r="M90" s="11"/>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
-      <c r="R90" s="13" t="s">
+      <c r="R90" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="S90" s="13" t="s">
+      <c r="S90" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T90" t="s">
@@ -5472,8 +5466,8 @@
       <c r="M91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
       <c r="T91" t="s">
         <v>35</v>
       </c>
@@ -5487,8 +5481,8 @@
       <c r="M92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
       <c r="T92" t="s">
         <v>92</v>
       </c>
@@ -5502,8 +5496,8 @@
       <c r="M93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
       <c r="T93" t="s">
         <v>50</v>
       </c>
@@ -5517,8 +5511,8 @@
       <c r="M94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13" t="s">
+      <c r="R94" s="29"/>
+      <c r="S94" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T94" t="s">
@@ -5534,8 +5528,8 @@
       <c r="M95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
       <c r="T95" t="s">
         <v>38</v>
       </c>
@@ -5549,8 +5543,8 @@
       <c r="M96" s="11"/>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="13"/>
+      <c r="R96" s="29"/>
+      <c r="S96" s="29"/>
       <c r="T96" t="s">
         <v>45</v>
       </c>
@@ -5562,8 +5556,8 @@
       <c r="M97" s="11"/>
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
+      <c r="R97" s="29"/>
+      <c r="S97" s="29"/>
       <c r="T97" t="s">
         <v>99</v>
       </c>
@@ -5575,10 +5569,10 @@
       <c r="M98" s="11"/>
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
-      <c r="R98" s="13" t="s">
+      <c r="R98" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="S98" s="13" t="s">
+      <c r="S98" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T98" t="s">
@@ -5592,8 +5586,8 @@
       <c r="M99" s="11"/>
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
       <c r="T99" t="s">
         <v>123</v>
       </c>
@@ -5605,8 +5599,8 @@
       <c r="M100" s="11"/>
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
       <c r="T100" t="s">
         <v>69</v>
       </c>
@@ -5620,8 +5614,8 @@
       <c r="M101" s="11"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="13" t="s">
+      <c r="R101" s="29"/>
+      <c r="S101" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T101" t="s">
@@ -5637,8 +5631,8 @@
       <c r="M102" s="11"/>
       <c r="O102" s="11"/>
       <c r="P102" s="11"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="13"/>
+      <c r="R102" s="29"/>
+      <c r="S102" s="29"/>
       <c r="T102" t="s">
         <v>52</v>
       </c>
@@ -5652,10 +5646,10 @@
       <c r="M103" s="11"/>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
-      <c r="R103" s="13" t="s">
+      <c r="R103" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="S103" s="13" t="s">
+      <c r="S103" s="29" t="s">
         <v>17</v>
       </c>
       <c r="T103" t="s">
@@ -5671,8 +5665,8 @@
       <c r="M104" s="11"/>
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
-      <c r="R104" s="13"/>
-      <c r="S104" s="13"/>
+      <c r="R104" s="29"/>
+      <c r="S104" s="29"/>
       <c r="T104" t="s">
         <v>21</v>
       </c>
@@ -5686,8 +5680,8 @@
       <c r="M105" s="12"/>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
+      <c r="R105" s="29"/>
+      <c r="S105" s="29"/>
       <c r="T105" t="s">
         <v>35</v>
       </c>
@@ -5701,8 +5695,8 @@
       <c r="M106" s="12"/>
       <c r="O106" s="11"/>
       <c r="P106" s="11"/>
-      <c r="R106" s="13"/>
-      <c r="S106" s="13"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="29"/>
       <c r="T106" t="s">
         <v>44</v>
       </c>
@@ -5714,8 +5708,8 @@
       <c r="J107" s="11"/>
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="29"/>
       <c r="T107" t="s">
         <v>24</v>
       </c>
@@ -5727,8 +5721,8 @@
       <c r="J108" s="11"/>
       <c r="O108" s="11"/>
       <c r="P108" s="11"/>
-      <c r="R108" s="13"/>
-      <c r="S108" s="13"/>
+      <c r="R108" s="29"/>
+      <c r="S108" s="29"/>
       <c r="T108" t="s">
         <v>92</v>
       </c>
@@ -5740,8 +5734,8 @@
       <c r="J109" s="11"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
-      <c r="R109" s="13"/>
-      <c r="S109" s="13"/>
+      <c r="R109" s="29"/>
+      <c r="S109" s="29"/>
       <c r="T109" t="s">
         <v>50</v>
       </c>
@@ -5753,8 +5747,8 @@
       <c r="J110" s="11"/>
       <c r="O110" s="11"/>
       <c r="P110" s="11"/>
-      <c r="R110" s="13"/>
-      <c r="S110" s="13"/>
+      <c r="R110" s="29"/>
+      <c r="S110" s="29"/>
       <c r="T110" t="s">
         <v>57</v>
       </c>
@@ -5766,8 +5760,8 @@
       <c r="J111" s="11"/>
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
-      <c r="R111" s="13"/>
-      <c r="S111" s="13"/>
+      <c r="R111" s="29"/>
+      <c r="S111" s="29"/>
       <c r="T111" t="s">
         <v>49</v>
       </c>
@@ -5779,8 +5773,8 @@
       <c r="J112" s="11"/>
       <c r="O112" s="11"/>
       <c r="P112" s="11"/>
-      <c r="R112" s="13"/>
-      <c r="S112" s="13"/>
+      <c r="R112" s="29"/>
+      <c r="S112" s="29"/>
       <c r="T112" t="s">
         <v>69</v>
       </c>
@@ -5792,8 +5786,8 @@
       <c r="J113" s="11"/>
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
-      <c r="R113" s="13"/>
-      <c r="S113" s="13" t="s">
+      <c r="R113" s="29"/>
+      <c r="S113" s="29" t="s">
         <v>36</v>
       </c>
       <c r="T113" t="s">
@@ -5807,8 +5801,8 @@
       <c r="J114" s="11"/>
       <c r="O114" s="11"/>
       <c r="P114" s="11"/>
-      <c r="R114" s="13"/>
-      <c r="S114" s="13"/>
+      <c r="R114" s="29"/>
+      <c r="S114" s="29"/>
       <c r="T114" t="s">
         <v>45</v>
       </c>
@@ -5820,8 +5814,8 @@
       <c r="J115" s="11"/>
       <c r="O115" s="11"/>
       <c r="P115" s="5"/>
-      <c r="R115" s="13"/>
-      <c r="S115" s="13"/>
+      <c r="R115" s="29"/>
+      <c r="S115" s="29"/>
       <c r="T115" t="s">
         <v>52</v>
       </c>
@@ -5833,8 +5827,8 @@
       <c r="J116" s="11"/>
       <c r="O116" s="11"/>
       <c r="P116" s="11"/>
-      <c r="R116" s="13"/>
-      <c r="S116" s="13"/>
+      <c r="R116" s="29"/>
+      <c r="S116" s="29"/>
       <c r="T116" t="s">
         <v>46</v>
       </c>
@@ -5846,8 +5840,8 @@
       <c r="J117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
-      <c r="R117" s="13"/>
-      <c r="S117" s="13"/>
+      <c r="R117" s="29"/>
+      <c r="S117" s="29"/>
       <c r="T117" t="s">
         <v>81</v>
       </c>
@@ -6485,6 +6479,183 @@
     </row>
   </sheetData>
   <mergeCells count="201">
+    <mergeCell ref="S113:S117"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="R98:R102"/>
+    <mergeCell ref="S98:S100"/>
+    <mergeCell ref="S101:S102"/>
+    <mergeCell ref="R103:R117"/>
+    <mergeCell ref="S103:S112"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="R90:R97"/>
+    <mergeCell ref="S90:S93"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="S94:S97"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="AA76:AA80"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="L2:L14"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="R24:R28"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="X12:X19"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Y14:Y19"/>
+    <mergeCell ref="AB77:AB80"/>
+    <mergeCell ref="S79:S84"/>
+    <mergeCell ref="G80:G86"/>
+    <mergeCell ref="U8:U12"/>
+    <mergeCell ref="AA81:AA83"/>
+    <mergeCell ref="V9:V12"/>
+    <mergeCell ref="AB82:AB83"/>
+    <mergeCell ref="AA84:AA86"/>
+    <mergeCell ref="R85:R89"/>
+    <mergeCell ref="S85:S88"/>
+    <mergeCell ref="AB85:AB86"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="S68:S69"/>
+    <mergeCell ref="AA68:AA75"/>
+    <mergeCell ref="AB68:AB70"/>
+    <mergeCell ref="O8:O17"/>
+    <mergeCell ref="G70:G74"/>
+    <mergeCell ref="P9:P17"/>
+    <mergeCell ref="R70:R84"/>
+    <mergeCell ref="S70:S78"/>
+    <mergeCell ref="AB71:AB75"/>
+    <mergeCell ref="I2:I14"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="AK15:AK18"/>
+    <mergeCell ref="AA61:AA63"/>
+    <mergeCell ref="S62:S64"/>
+    <mergeCell ref="AB62:AB63"/>
+    <mergeCell ref="O2:O7"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="AA64:AA67"/>
+    <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="R65:R69"/>
+    <mergeCell ref="S65:S67"/>
+    <mergeCell ref="AB65:AB67"/>
+    <mergeCell ref="AB53:AB56"/>
+    <mergeCell ref="R55:R58"/>
+    <mergeCell ref="S56:S58"/>
+    <mergeCell ref="AA57:AA60"/>
+    <mergeCell ref="S50:S54"/>
+    <mergeCell ref="AB50:AB51"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AK10:AK14"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="AA52:AA56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="AB58:AB60"/>
+    <mergeCell ref="R59:R64"/>
+    <mergeCell ref="S59:S61"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="AJ15:AJ23"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="R44:R54"/>
+    <mergeCell ref="S44:S49"/>
+    <mergeCell ref="AJ8:AJ14"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="AA47:AA51"/>
+    <mergeCell ref="AB47:AB49"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="AA40:AA46"/>
+    <mergeCell ref="AB40:AB45"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="AG38:AG42"/>
+    <mergeCell ref="AH38:AH40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="R39:R43"/>
+    <mergeCell ref="S40:S43"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="AA30:AA32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="R33:R38"/>
+    <mergeCell ref="S33:S36"/>
+    <mergeCell ref="AA33:AA39"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="R29:R32"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AG31:AG35"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="AA26:AA29"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="AH27:AH30"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="AA18:AA20"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="AA21:AA25"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AH12:AH14"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AJ2:AJ7"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="AB33:AB38"/>
+    <mergeCell ref="AH33:AH35"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AG24:AG30"/>
+    <mergeCell ref="AH24:AH26"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="R13:R19"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="AB14:AB17"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="AB9:AB12"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AG15:AG19"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="AK4:AK7"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="AH17:AH19"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AG20:AG23"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AH21:AH23"/>
+    <mergeCell ref="AB23:AB25"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AG9:AG14"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="C2:C9"/>
@@ -6509,183 +6680,6 @@
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="R13:R19"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="AB14:AB17"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="AB9:AB12"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AG15:AG19"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="AH17:AH19"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AG20:AG23"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AH21:AH23"/>
-    <mergeCell ref="AB23:AB25"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AG9:AG14"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AH12:AH14"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AJ2:AJ7"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="AB33:AB38"/>
-    <mergeCell ref="AH33:AH35"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AG24:AG30"/>
-    <mergeCell ref="AH24:AH26"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="AA26:AA29"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="AH27:AH30"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="AA18:AA20"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="AA21:AA25"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="AG38:AG42"/>
-    <mergeCell ref="AH38:AH40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="R39:R43"/>
-    <mergeCell ref="S40:S43"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="AA30:AA32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="R33:R38"/>
-    <mergeCell ref="S33:S36"/>
-    <mergeCell ref="AA33:AA39"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="R29:R32"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AG31:AG35"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="AA52:AA56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="AB58:AB60"/>
-    <mergeCell ref="R59:R64"/>
-    <mergeCell ref="S59:S61"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="AJ15:AJ23"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="R44:R54"/>
-    <mergeCell ref="S44:S49"/>
-    <mergeCell ref="AJ8:AJ14"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="AA47:AA51"/>
-    <mergeCell ref="AB47:AB49"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="AA40:AA46"/>
-    <mergeCell ref="AB40:AB45"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="AK15:AK18"/>
-    <mergeCell ref="AA61:AA63"/>
-    <mergeCell ref="S62:S64"/>
-    <mergeCell ref="AB62:AB63"/>
-    <mergeCell ref="O2:O7"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="AA64:AA67"/>
-    <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="R65:R69"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="AB65:AB67"/>
-    <mergeCell ref="AB53:AB56"/>
-    <mergeCell ref="R55:R58"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="AA57:AA60"/>
-    <mergeCell ref="S50:S54"/>
-    <mergeCell ref="AB50:AB51"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AK10:AK14"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AB77:AB80"/>
-    <mergeCell ref="S79:S84"/>
-    <mergeCell ref="G80:G86"/>
-    <mergeCell ref="U8:U12"/>
-    <mergeCell ref="AA81:AA83"/>
-    <mergeCell ref="V9:V12"/>
-    <mergeCell ref="AB82:AB83"/>
-    <mergeCell ref="AA84:AA86"/>
-    <mergeCell ref="R85:R89"/>
-    <mergeCell ref="S85:S88"/>
-    <mergeCell ref="AB85:AB86"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="S68:S69"/>
-    <mergeCell ref="AA68:AA75"/>
-    <mergeCell ref="AB68:AB70"/>
-    <mergeCell ref="O8:O17"/>
-    <mergeCell ref="G70:G74"/>
-    <mergeCell ref="P9:P17"/>
-    <mergeCell ref="R70:R84"/>
-    <mergeCell ref="S70:S78"/>
-    <mergeCell ref="AB71:AB75"/>
-    <mergeCell ref="I2:I14"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="R90:R97"/>
-    <mergeCell ref="S90:S93"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="S94:S97"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="AA76:AA80"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="L2:L14"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="R24:R28"/>
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="X12:X19"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Y14:Y19"/>
-    <mergeCell ref="S113:S117"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="R98:R102"/>
-    <mergeCell ref="S98:S100"/>
-    <mergeCell ref="S101:S102"/>
-    <mergeCell ref="R103:R117"/>
-    <mergeCell ref="S103:S112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6696,18 +6690,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C38"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" style="16" customWidth="1"/>
     <col min="2" max="2" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>175</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -6718,7 +6712,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6727,7 +6721,7 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -6738,7 +6732,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -6749,7 +6743,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6760,18 +6754,18 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -6780,7 +6774,7 @@
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -6791,7 +6785,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -6800,7 +6794,7 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -6811,7 +6805,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -6822,7 +6816,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -6831,18 +6825,18 @@
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="14">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -6853,7 +6847,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -6862,7 +6856,7 @@
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -6873,7 +6867,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -6882,7 +6876,7 @@
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="16" t="s">
         <v>128</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -6893,7 +6887,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -6902,7 +6896,7 @@
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -6913,7 +6907,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -6924,7 +6918,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -6933,7 +6927,7 @@
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -6944,7 +6938,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -6953,7 +6947,7 @@
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -6964,7 +6958,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -6975,7 +6969,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -6984,7 +6978,7 @@
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -6995,7 +6989,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="16" t="s">
         <v>116</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -7006,7 +7000,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -7015,7 +7009,7 @@
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -7024,7 +7018,7 @@
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -7035,7 +7029,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -7046,7 +7040,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -7057,7 +7051,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -7066,7 +7060,7 @@
       <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -7077,7 +7071,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -7088,7 +7082,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -7097,7 +7091,7 @@
       <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -7108,7 +7102,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="16" t="s">
         <v>142</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -7119,7 +7113,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -7130,7 +7124,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="16" t="s">
         <v>120</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -7141,7 +7135,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="16" t="s">
         <v>137</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -7152,7 +7146,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -7161,7 +7155,7 @@
       <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="17" t="s">
         <v>109</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -7170,7 +7164,7 @@
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="16" t="s">
         <v>163</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -7181,7 +7175,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -7192,7 +7186,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="16" t="s">
         <v>149</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -7201,7 +7195,7 @@
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -7210,7 +7204,7 @@
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -7221,7 +7215,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -7230,7 +7224,7 @@
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="17" t="s">
         <v>71</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -7239,7 +7233,7 @@
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -7248,7 +7242,7 @@
       <c r="C53" s="5"/>
     </row>
     <row r="54" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -7257,7 +7251,7 @@
       <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -7266,7 +7260,7 @@
       <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -7277,7 +7271,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="16" t="s">
         <v>114</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -7288,7 +7282,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="17" t="s">
         <v>99</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -7299,7 +7293,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -7308,7 +7302,7 @@
       <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -7319,7 +7313,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="16" t="s">
         <v>92</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -7330,7 +7324,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="17" t="s">
         <v>113</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -7339,7 +7333,7 @@
       <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="16" t="s">
         <v>145</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -7350,7 +7344,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -7361,7 +7355,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -7372,7 +7366,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -7383,7 +7377,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="16" t="s">
         <v>146</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -7392,7 +7386,7 @@
       <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="16" t="s">
         <v>135</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -7401,7 +7395,7 @@
       <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -7410,7 +7404,7 @@
       <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -7421,7 +7415,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -7432,7 +7426,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -7443,7 +7437,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -7452,7 +7446,7 @@
       <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -7461,7 +7455,7 @@
       <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="16" t="s">
         <v>156</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -7483,481 +7477,394 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CE93BD-90CB-4899-8529-B72F743680DF}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="73.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="73.7109375" style="18" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="27" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="35"/>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="35"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="36"/>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="36">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="36">
-        <v>1</v>
-      </c>
-      <c r="D3" s="32"/>
-    </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="36">
-        <v>3</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="36">
-        <v>5</v>
-      </c>
-      <c r="D5" s="31" t="s">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="38"/>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="36">
-        <v>5</v>
-      </c>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="36">
-        <v>5</v>
-      </c>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="36">
-        <v>5</v>
-      </c>
-      <c r="D8" s="32"/>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="36">
-        <v>6</v>
-      </c>
-      <c r="D9" s="29" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="35"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="35"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="39"/>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="36">
-        <v>6</v>
-      </c>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="36">
-        <v>7</v>
-      </c>
-      <c r="D11" s="34" t="s">
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="35"/>
+    </row>
+    <row r="20" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="35"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="36"/>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="36">
-        <v>7</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="36">
-        <v>7</v>
-      </c>
-      <c r="D13" s="33"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="36">
-        <v>7</v>
-      </c>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="36">
-        <v>7</v>
-      </c>
-      <c r="D15" s="41"/>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="36">
-        <v>8</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="36">
-        <v>10</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="36">
-        <v>14</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="36">
-        <v>14</v>
-      </c>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="36">
-        <v>14</v>
-      </c>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="36">
-        <v>14</v>
-      </c>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="36">
-        <v>19</v>
-      </c>
-      <c r="D22" s="34" t="s">
+    <row r="24" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" s="36">
-        <v>20</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" s="36">
-        <v>22</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-    </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="34"/>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="34"/>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="34"/>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="34"/>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="34"/>
-    </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="34"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="34"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="34"/>
-    </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="34"/>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:A38">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/Ransomware profile/Example/WannaCry_Profile.xlsx
+++ b/Ransomware profile/Example/WannaCry_Profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507UAR\Desktop\Y4FinalReport\Ransomware profile\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E39936A-FD66-4A47-89FF-87854267C21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77507CB9-2B2A-4C0B-B42D-1795248B0F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="267">
   <si>
     <t>Reconnaissance</t>
   </si>
@@ -782,386 +782,59 @@
     <t>The infrastructure for management data and operations that enables local and remote management of Windows personal computers and servers[1][2]</t>
   </si>
   <si>
-    <t>Mitigation &amp; Detection Category</t>
-  </si>
-  <si>
     <t>NIST Cybersecurity Framework</t>
   </si>
   <si>
-    <t>DE.AE-3: Event data are collected and correlated from multiple sources and sensors</t>
-  </si>
-  <si>
-    <t>PR.DS-6: Integrity checking mechanisms are used to verify software, firmware, and information integrity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR.IP-4: Backups of information are conducted, maintained, and tested </t>
-  </si>
-  <si>
-    <t>PR.PT-3: The principle of least functionality is incorporated by configuring systems to provide only essential capabilities</t>
-  </si>
-  <si>
-    <t>PR.MA-1: Maintenance and repair of organizational assets are performed and logged, with approved and controlled tools</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PR.AC-1: Identities and credentials are issued, managed, verified, revoked, and audited for authorized devices, users and processes
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-PR.AC-4: Access permissions and authorizations are managed, incorporating the principles of least privilege and separation of duties</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PR.DS-5: Protections against data leaks are implemented
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(DE.CM-6: External service provider activity is monitored to detect potential cybersecurity events
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-DE.CM-7: Monitoring for unauthorized personnel, connections, devices, and software is performed)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ID.SC-2: Suppliers and third party partners of information systems, components, and services are identified, prioritized, and assessed using a cyber supply chain risk assessment process 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(DE.CM-4: Malicious code is detected
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-DE.CM-5: Unauthorized mobile code is detected)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-DE.CM-7: Monitoring for unauthorized personnel, connections, devices, and software is performed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(PR.DS-6: Integrity checking mechanisms are used to verify software, firmware, and information integrity
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-PR.DS-8: Integrity checking mechanisms are used to verify hardware integrity)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(PR.IP-3: Configuration change control processes are in place
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-PR.PT-3: The principle of least functionality is incorporated by configuring systems to provide only essential capabilities)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PR.PT-4: Communications and control networks are protected
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-DE.CM-1: The network is monitored to detect potential cybersecurity events
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-DE.AE-1: A baseline of network operations and expected data flows for users and systems is established and managed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ID.RA-2: Cyber threat intelligence is received from information sharing forums and sources
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-ID.RA-3: Threats, both internal and external, are identified and documented</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(PR.IP-12: A vulnerability management plan is developed and implemented
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-ID.RA-1: Asset vulnerabilities are identified and documented)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(DE.CM-8: Vulnerability scans are performed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-RS.MI-3: Newly identified vulnerabilities are mitigated or documented as accepted risks)
-</t>
-    </r>
-  </si>
-  <si>
     <t>Sub-category</t>
+  </si>
+  <si>
+    <t>Administration Access control</t>
+  </si>
+  <si>
+    <t>Limitation</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Prevention &amp; Detection</t>
+  </si>
+  <si>
+    <t>Validation &amp; Checksum</t>
+  </si>
+  <si>
+    <t>Backup &amp; Snapshot</t>
+  </si>
+  <si>
+    <t>Filtering</t>
+  </si>
+  <si>
+    <t>Redundency</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Account management</t>
+  </si>
+  <si>
+    <t>Privilege &amp; Permission</t>
+  </si>
+  <si>
+    <t>Intelligence Capability</t>
+  </si>
+  <si>
+    <t>Patch</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1196,20 +869,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1218,12 +879,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor theme="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1251,54 +924,17 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1312,6 +948,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1321,72 +973,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1434,38 +1025,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1476,26 +1043,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1524,17 +1109,17 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1566,11 +1151,11 @@
       <colorFilter dxfId="4"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
-    <sortCondition sortBy="cellColor" ref="A1:A75" dxfId="3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
+    <sortCondition ref="C1:C75"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mitigation &amp; Detection Techniques" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mitigation &amp; Detection Techniques" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Detail"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Clustering"/>
   </tableColumns>
@@ -1930,64 +1515,64 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="28" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="31" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="28" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="32" t="s">
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="28" t="s">
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
       <c r="AG1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1996,61 +1581,61 @@
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T2" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="19" t="s">
         <v>134</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -2059,34 +1644,34 @@
       <c r="W2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="22" t="s">
         <v>17</v>
       </c>
       <c r="Z2" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AC2" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AE2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AF2" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="30" t="s">
+      <c r="AG2" s="22" t="s">
         <v>27</v>
       </c>
       <c r="AH2" s="6" t="s">
@@ -2095,10 +1680,10 @@
       <c r="AI2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="29" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AK2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AL2" t="s">
@@ -2112,67 +1697,67 @@
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
       <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
       <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
       <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
       <c r="T3" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29" t="s">
+      <c r="U3" s="19"/>
+      <c r="V3" s="19" t="s">
         <v>36</v>
       </c>
       <c r="W3" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
       <c r="Z3" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
       <c r="AC3" t="s">
         <v>35</v>
       </c>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
       <c r="AF3" t="s">
         <v>94</v>
       </c>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="29" t="s">
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AI3" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
       <c r="AL3" t="s">
         <v>53</v>
       </c>
@@ -2184,67 +1769,67 @@
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
       <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29" t="s">
+      <c r="O4" s="19"/>
+      <c r="P4" s="19" t="s">
         <v>36</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
       <c r="T4" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
       <c r="W4" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
       <c r="Z4" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
       <c r="AC4" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="29"/>
+      <c r="AD4" s="19"/>
       <c r="AE4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AF4" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
       <c r="AI4" t="s">
         <v>45</v>
       </c>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29" t="s">
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AL4" t="s">
@@ -2258,37 +1843,37 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
       <c r="K5" t="s">
         <v>128</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
       <c r="N5" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
       <c r="Q5" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
       <c r="T5" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="29" t="s">
+      <c r="U5" s="19" t="s">
         <v>159</v>
       </c>
       <c r="V5" s="4" t="s">
@@ -2297,32 +1882,32 @@
       <c r="W5" t="s">
         <v>28</v>
       </c>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
       <c r="Z5" t="s">
         <v>33</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
       <c r="AC5" t="s">
         <v>51</v>
       </c>
-      <c r="AD5" s="29" t="s">
+      <c r="AD5" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="AE5" s="29" t="s">
+      <c r="AE5" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AF5" t="s">
         <v>44</v>
       </c>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
       <c r="AI5" t="s">
         <v>37</v>
       </c>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
       <c r="AL5" t="s">
         <v>38</v>
       </c>
@@ -2334,69 +1919,69 @@
       <c r="B6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
         <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
       <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
       <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
       <c r="Q6" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
       <c r="T6" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29" t="s">
+      <c r="U6" s="19"/>
+      <c r="V6" s="19" t="s">
         <v>36</v>
       </c>
       <c r="W6" t="s">
         <v>38</v>
       </c>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
       <c r="Z6" t="s">
         <v>50</v>
       </c>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
       <c r="AC6" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
       <c r="AF6" t="s">
         <v>26</v>
       </c>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
       <c r="AI6" t="s">
         <v>59</v>
       </c>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
@@ -2408,57 +1993,57 @@
       <c r="B7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
       <c r="K7" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
       <c r="N7" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
       <c r="Q7" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
       <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
       <c r="W7" t="s">
         <v>52</v>
       </c>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
       <c r="Z7" t="s">
         <v>64</v>
       </c>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
       <c r="AC7" t="s">
         <v>33</v>
       </c>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
       <c r="AF7" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="29" t="s">
+      <c r="AG7" s="19" t="s">
         <v>65</v>
       </c>
       <c r="AH7" s="5" t="s">
@@ -2467,8 +2052,8 @@
       <c r="AI7" t="s">
         <v>26</v>
       </c>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
       <c r="AL7" t="s">
         <v>52</v>
       </c>
@@ -2480,27 +2065,27 @@
       <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
       <c r="N8" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="19" t="s">
         <v>161</v>
       </c>
       <c r="P8" s="5" t="s">
@@ -2509,12 +2094,12 @@
       <c r="Q8" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
       <c r="T8" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="U8" s="19" t="s">
         <v>165</v>
       </c>
       <c r="V8" s="4" t="s">
@@ -2523,34 +2108,34 @@
       <c r="W8" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
       <c r="Z8" t="s">
         <v>49</v>
       </c>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
       <c r="AC8" t="s">
         <v>69</v>
       </c>
-      <c r="AD8" s="29"/>
+      <c r="AD8" s="19"/>
       <c r="AE8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AF8" t="s">
         <v>37</v>
       </c>
-      <c r="AG8" s="29"/>
+      <c r="AG8" s="19"/>
       <c r="AH8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AI8" t="s">
         <v>37</v>
       </c>
-      <c r="AJ8" s="29" t="s">
+      <c r="AJ8" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="AK8" s="29" t="s">
+      <c r="AK8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AL8" t="s">
@@ -2562,56 +2147,56 @@
         <v>70</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29" t="s">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19" t="s">
         <v>36</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29" t="s">
+      <c r="L9" s="19"/>
+      <c r="M9" s="19" t="s">
         <v>36</v>
       </c>
       <c r="N9" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29" t="s">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19" t="s">
         <v>36</v>
       </c>
       <c r="Q9" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29" t="s">
+      <c r="R9" s="19"/>
+      <c r="S9" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T9" t="s">
         <v>56</v>
       </c>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29" t="s">
+      <c r="U9" s="19"/>
+      <c r="V9" s="19" t="s">
         <v>36</v>
       </c>
       <c r="W9" t="s">
         <v>38</v>
       </c>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
       <c r="Z9" t="s">
         <v>72</v>
       </c>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29" t="s">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC9" t="s">
@@ -2619,17 +2204,17 @@
       </c>
       <c r="AD9" s="11"/>
       <c r="AE9" s="5"/>
-      <c r="AG9" s="29" t="s">
+      <c r="AG9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AH9" s="29" t="s">
+      <c r="AH9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AI9" t="s">
         <v>74</v>
       </c>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
       <c r="AL9" t="s">
         <v>24</v>
       </c>
@@ -2638,10 +2223,10 @@
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2650,52 +2235,52 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
       <c r="N10" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
       <c r="Q10" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
       <c r="T10" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
       <c r="W10" t="s">
         <v>45</v>
       </c>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="29" t="s">
+      <c r="X10" s="22"/>
+      <c r="Y10" s="19" t="s">
         <v>36</v>
       </c>
       <c r="Z10" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
       <c r="AC10" t="s">
         <v>37</v>
       </c>
       <c r="AD10" s="11"/>
       <c r="AE10" s="5"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
       <c r="AI10" t="s">
         <v>44</v>
       </c>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29" t="s">
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AL10" t="s">
@@ -2707,58 +2292,58 @@
         <v>80</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
       <c r="N11" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
       <c r="Q11" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
       <c r="T11" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" t="s">
         <v>37</v>
       </c>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
       <c r="Z11" t="s">
         <v>37</v>
       </c>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
       <c r="AC11" t="s">
         <v>82</v>
       </c>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
       <c r="AI11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
       <c r="AL11" t="s">
         <v>45</v>
       </c>
@@ -2766,64 +2351,64 @@
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
       <c r="N12" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
       <c r="Q12" t="s">
         <v>138</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
       <c r="T12" t="s">
         <v>81</v>
       </c>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
       <c r="W12" t="s">
         <v>52</v>
       </c>
-      <c r="X12" s="29" t="s">
+      <c r="X12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="Y12" s="29" t="s">
+      <c r="Y12" s="19" t="s">
         <v>17</v>
       </c>
       <c r="Z12" t="s">
         <v>44</v>
       </c>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
       <c r="AC12" t="s">
         <v>81</v>
       </c>
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29" t="s">
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AI12" t="s">
         <v>38</v>
       </c>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
       <c r="AL12" t="s">
         <v>52</v>
       </c>
@@ -2831,39 +2416,39 @@
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="29"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
       <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
       <c r="N13" t="s">
         <v>82</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
       <c r="Q13" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="29" t="s">
+      <c r="R13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="S13" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T13" t="s">
         <v>86</v>
       </c>
-      <c r="U13" s="29" t="s">
+      <c r="U13" s="19" t="s">
         <v>172</v>
       </c>
       <c r="V13" s="4" t="s">
@@ -2872,12 +2457,12 @@
       <c r="W13" t="s">
         <v>28</v>
       </c>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" t="s">
         <v>26</v>
       </c>
-      <c r="AA13" s="29" t="s">
+      <c r="AA13" s="19" t="s">
         <v>87</v>
       </c>
       <c r="AB13" s="6" t="s">
@@ -2888,13 +2473,13 @@
       </c>
       <c r="AD13" s="11"/>
       <c r="AE13" s="10"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
       <c r="AI13" t="s">
         <v>45</v>
       </c>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
       <c r="AL13" t="s">
         <v>82</v>
       </c>
@@ -2902,62 +2487,62 @@
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="29"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
       <c r="K14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
       <c r="N14" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
       <c r="Q14" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
       <c r="T14" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29" t="s">
+      <c r="U14" s="19"/>
+      <c r="V14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="W14" t="s">
         <v>38</v>
       </c>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29" t="s">
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="Z14" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29" t="s">
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC14" t="s">
         <v>38</v>
       </c>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
       <c r="AI14" t="s">
         <v>37</v>
       </c>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
       <c r="AL14" t="s">
         <v>81</v>
       </c>
@@ -2965,13 +2550,13 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="29"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="2"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
@@ -2979,44 +2564,44 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
       <c r="Q15" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
       <c r="T15" t="s">
         <v>92</v>
       </c>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
       <c r="W15" t="s">
         <v>52</v>
       </c>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
       <c r="Z15" t="s">
         <v>45</v>
       </c>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
       <c r="AC15" t="s">
         <v>45</v>
       </c>
-      <c r="AG15" s="29" t="s">
+      <c r="AG15" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AH15" s="29" t="s">
+      <c r="AH15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AI15" t="s">
         <v>74</v>
       </c>
-      <c r="AJ15" s="29" t="s">
+      <c r="AJ15" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="AK15" s="29" t="s">
+      <c r="AK15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AL15" t="s">
@@ -3026,15 +2611,15 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="29"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="2"/>
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
@@ -3042,38 +2627,38 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
       <c r="Q16" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
       <c r="T16" t="s">
         <v>84</v>
       </c>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
       <c r="W16" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
       <c r="Z16" t="s">
         <v>100</v>
       </c>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
       <c r="AC16" t="s">
         <v>52</v>
       </c>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
       <c r="AI16" t="s">
         <v>26</v>
       </c>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="29"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
       <c r="AL16" t="s">
         <v>57</v>
       </c>
@@ -3081,13 +2666,13 @@
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="29"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="2"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
@@ -3095,13 +2680,13 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
       <c r="Q17" t="s">
         <v>81</v>
       </c>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29" t="s">
+      <c r="R17" s="19"/>
+      <c r="S17" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T17" t="s">
@@ -3109,43 +2694,43 @@
       </c>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
       <c r="Z17" t="s">
         <v>103</v>
       </c>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
       <c r="AC17" t="s">
         <v>59</v>
       </c>
       <c r="AD17" s="11"/>
       <c r="AE17" s="10"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29" t="s">
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AI17" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="29"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
       <c r="AL17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="29"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="2"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
@@ -3155,19 +2740,19 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
       <c r="T18" t="s">
         <v>38</v>
       </c>
       <c r="U18" s="11"/>
       <c r="V18" s="4"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
       <c r="Z18" t="s">
         <v>37</v>
       </c>
-      <c r="AA18" s="29" t="s">
+      <c r="AA18" s="19" t="s">
         <v>97</v>
       </c>
       <c r="AB18" t="s">
@@ -3178,25 +2763,25 @@
       </c>
       <c r="AD18" s="11"/>
       <c r="AE18" s="10"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
       <c r="AI18" t="s">
         <v>98</v>
       </c>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="29"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
       <c r="AL18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="29"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="2"/>
       <c r="I19" s="11"/>
       <c r="J19" s="4"/>
@@ -3205,20 +2790,20 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
       <c r="T19" t="s">
         <v>46</v>
       </c>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
       <c r="Z19" t="s">
         <v>52</v>
       </c>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29" t="s">
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC19" t="s">
@@ -3226,13 +2811,13 @@
       </c>
       <c r="AD19" s="11"/>
       <c r="AE19" s="10"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
       <c r="AI19" t="s">
         <v>37</v>
       </c>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29" t="s">
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AL19" t="s">
@@ -3240,13 +2825,13 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="29"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="2"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -3256,7 +2841,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="29" t="s">
+      <c r="R20" s="19" t="s">
         <v>102</v>
       </c>
       <c r="S20" s="4" t="s">
@@ -3267,14 +2852,14 @@
       </c>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
       <c r="AC20" t="s">
         <v>52</v>
       </c>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
-      <c r="AG20" s="29" t="s">
+      <c r="AG20" s="19" t="s">
         <v>104</v>
       </c>
       <c r="AH20" t="s">
@@ -3283,20 +2868,20 @@
       <c r="AI20" t="s">
         <v>24</v>
       </c>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
       <c r="AL20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="2"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -3306,8 +2891,8 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29" t="s">
+      <c r="R21" s="19"/>
+      <c r="S21" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T21" t="s">
@@ -3315,10 +2900,10 @@
       </c>
       <c r="U21" s="11"/>
       <c r="V21" s="4"/>
-      <c r="AA21" s="29" t="s">
+      <c r="AA21" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="29" t="s">
+      <c r="AB21" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AC21" t="s">
@@ -3326,29 +2911,29 @@
       </c>
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29" t="s">
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AI21" t="s">
         <v>38</v>
       </c>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
       <c r="AL21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="29"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="2"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -3357,39 +2942,39 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
       <c r="T22" t="s">
         <v>45</v>
       </c>
       <c r="U22" s="11"/>
       <c r="V22" s="4"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
       <c r="AC22" t="s">
         <v>108</v>
       </c>
       <c r="AD22" s="11"/>
       <c r="AE22" s="10"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
       <c r="AI22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
       <c r="AL22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F23" s="11"/>
-      <c r="G23" s="29"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="2"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -3398,8 +2983,8 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
       <c r="T23" t="s">
         <v>52</v>
       </c>
@@ -3407,8 +2992,8 @@
       <c r="V23" s="4"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29" t="s">
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC23" t="s">
@@ -3416,25 +3001,25 @@
       </c>
       <c r="AD23" s="11"/>
       <c r="AE23" s="10"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
       <c r="AI23" t="s">
         <v>37</v>
       </c>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="29"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="29"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="2"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -3443,10 +3028,10 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="29" t="s">
+      <c r="R24" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="S24" s="29" t="s">
+      <c r="S24" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T24" t="s">
@@ -3456,17 +3041,17 @@
       <c r="V24" s="4"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
       <c r="AC24" t="s">
         <v>45</v>
       </c>
       <c r="AD24" s="11"/>
       <c r="AE24" s="10"/>
-      <c r="AG24" s="29" t="s">
+      <c r="AG24" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AH24" s="29" t="s">
+      <c r="AH24" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AI24" t="s">
@@ -3476,17 +3061,17 @@
       <c r="AK24" s="11"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="11"/>
-      <c r="G25" s="29"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="2"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -3494,8 +3079,8 @@
       <c r="M25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
       <c r="T25" t="s">
         <v>31</v>
       </c>
@@ -3503,15 +3088,15 @@
       <c r="V25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
       <c r="AC25" t="s">
         <v>59</v>
       </c>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
       <c r="AI25" t="s">
         <v>23</v>
       </c>
@@ -3519,13 +3104,13 @@
       <c r="AK25" s="11"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" t="s">
         <v>114</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="29"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="2"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -3533,8 +3118,8 @@
       <c r="M26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
       <c r="T26" t="s">
         <v>64</v>
       </c>
@@ -3542,10 +3127,10 @@
       <c r="V26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="AA26" s="29" t="s">
+      <c r="AA26" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AB26" s="29" t="s">
+      <c r="AB26" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AC26" t="s">
@@ -3553,8 +3138,8 @@
       </c>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
       <c r="AI26" t="s">
         <v>114</v>
       </c>
@@ -3562,15 +3147,15 @@
       <c r="AK26" s="11"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C27" s="29"/>
-      <c r="D27" s="29" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="G27" s="29"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="2"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -3578,8 +3163,8 @@
       <c r="M27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
       <c r="T27" t="s">
         <v>49</v>
       </c>
@@ -3587,15 +3172,15 @@
       <c r="V27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
       <c r="AC27" t="s">
         <v>69</v>
       </c>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29" t="s">
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AI27" t="s">
@@ -3604,13 +3189,13 @@
       <c r="AJ27" s="11"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
       <c r="E28" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="2"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -3618,7 +3203,7 @@
       <c r="M28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="R28" s="29"/>
+      <c r="R28" s="19"/>
       <c r="S28" s="4" t="s">
         <v>36</v>
       </c>
@@ -3629,8 +3214,8 @@
       <c r="V28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29" t="s">
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC28" t="s">
@@ -3638,8 +3223,8 @@
       </c>
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
       <c r="AI28" t="s">
         <v>58</v>
       </c>
@@ -3647,13 +3232,13 @@
       <c r="AK28" s="11"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
       <c r="E29" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="29"/>
+      <c r="G29" s="19"/>
       <c r="H29" s="2"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -3661,10 +3246,10 @@
       <c r="M29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="R29" s="29" t="s">
+      <c r="R29" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="S29" s="29" t="s">
+      <c r="S29" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T29" t="s">
@@ -3674,15 +3259,15 @@
       <c r="V29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
       <c r="AC29" t="s">
         <v>52</v>
       </c>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
       <c r="AI29" t="s">
         <v>98</v>
       </c>
@@ -3690,17 +3275,17 @@
       <c r="AK29" s="11"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="29"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="2"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -3708,8 +3293,8 @@
       <c r="M30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
       <c r="T30" t="s">
         <v>92</v>
       </c>
@@ -3717,7 +3302,7 @@
       <c r="V30" s="5"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
-      <c r="AA30" s="29" t="s">
+      <c r="AA30" s="19" t="s">
         <v>121</v>
       </c>
       <c r="AB30" t="s">
@@ -3728,8 +3313,8 @@
       </c>
       <c r="AD30" s="11"/>
       <c r="AE30" s="10"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
       <c r="AI30" t="s">
         <v>52</v>
       </c>
@@ -3737,13 +3322,13 @@
       <c r="AK30" s="11"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="E31" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="29"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="2"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -3751,8 +3336,8 @@
       <c r="M31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="5"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29" t="s">
+      <c r="R31" s="19"/>
+      <c r="S31" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T31" t="s">
@@ -3762,8 +3347,8 @@
       <c r="V31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29" t="s">
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC31" t="s">
@@ -3771,10 +3356,10 @@
       </c>
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
-      <c r="AG31" s="29" t="s">
+      <c r="AG31" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AH31" s="29" t="s">
+      <c r="AH31" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AI31" t="s">
@@ -3783,13 +3368,13 @@
       <c r="AJ31" s="11"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
       <c r="E32" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="29"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="2"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
@@ -3797,8 +3382,8 @@
       <c r="M32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
       <c r="T32" t="s">
         <v>37</v>
       </c>
@@ -3806,15 +3391,15 @@
       <c r="V32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
       <c r="AC32" t="s">
         <v>52</v>
       </c>
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="29"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
       <c r="AI32" t="s">
         <v>68</v>
       </c>
@@ -3822,22 +3407,22 @@
       <c r="AK32" s="11"/>
     </row>
     <row r="33" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
       <c r="E33" t="s">
         <v>123</v>
       </c>
       <c r="F33" s="11"/>
-      <c r="G33" s="29"/>
+      <c r="G33" s="19"/>
       <c r="H33" s="2"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="R33" s="29" t="s">
+      <c r="R33" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="S33" s="29" t="s">
+      <c r="S33" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T33" t="s">
@@ -3847,10 +3432,10 @@
       <c r="V33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
-      <c r="AA33" s="29" t="s">
+      <c r="AA33" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="AB33" s="29" t="s">
+      <c r="AB33" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AC33" t="s">
@@ -3858,8 +3443,8 @@
       </c>
       <c r="AD33" s="11"/>
       <c r="AE33" s="4"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="29" t="s">
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AI33" t="s">
@@ -3869,20 +3454,20 @@
       <c r="AK33" s="11"/>
     </row>
     <row r="34" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
       <c r="E34" t="s">
         <v>69</v>
       </c>
       <c r="F34" s="11"/>
-      <c r="G34" s="29"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="2"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
       <c r="T34" t="s">
         <v>50</v>
       </c>
@@ -3890,13 +3475,13 @@
       <c r="V34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
       <c r="AC34" t="s">
         <v>35</v>
       </c>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="29"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
       <c r="AI34" t="s">
         <v>98</v>
       </c>
@@ -3904,22 +3489,22 @@
       <c r="AK34" s="11"/>
     </row>
     <row r="35" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="11"/>
-      <c r="G35" s="29"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="2"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="5"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
       <c r="T35" t="s">
         <v>123</v>
       </c>
@@ -3927,13 +3512,13 @@
       <c r="V35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
       <c r="AC35" t="s">
         <v>44</v>
       </c>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="29"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
       <c r="AI35" t="s">
         <v>37</v>
       </c>
@@ -3941,20 +3526,20 @@
       <c r="AK35" s="11"/>
     </row>
     <row r="36" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="E36" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="11"/>
-      <c r="G36" s="29"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="2"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
       <c r="T36" t="s">
         <v>84</v>
       </c>
@@ -3962,12 +3547,12 @@
       <c r="V36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
       <c r="AC36" t="s">
         <v>20</v>
       </c>
-      <c r="AG36" s="29" t="s">
+      <c r="AG36" s="19" t="s">
         <v>129</v>
       </c>
       <c r="AH36" s="5" t="s">
@@ -3979,20 +3564,20 @@
       <c r="AJ36" s="11"/>
     </row>
     <row r="37" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
       <c r="E37" t="s">
         <v>37</v>
       </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="29"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="2"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29" t="s">
+      <c r="R37" s="19"/>
+      <c r="S37" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T37" t="s">
@@ -4002,12 +3587,12 @@
       <c r="V37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
       <c r="AC37" t="s">
         <v>57</v>
       </c>
-      <c r="AG37" s="29"/>
+      <c r="AG37" s="19"/>
       <c r="AH37" s="5" t="s">
         <v>36</v>
       </c>
@@ -4018,23 +3603,23 @@
       <c r="AK37" s="11"/>
     </row>
     <row r="38" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E38" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="11"/>
-      <c r="G38" s="29"/>
+      <c r="G38" s="19"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
       <c r="T38" t="s">
         <v>131</v>
       </c>
@@ -4042,17 +3627,17 @@
       <c r="V38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
       <c r="AC38" t="s">
         <v>84</v>
       </c>
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
-      <c r="AG38" s="29" t="s">
+      <c r="AG38" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AH38" s="29" t="s">
+      <c r="AH38" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AI38" t="s">
@@ -4062,19 +3647,19 @@
       <c r="AK38" s="11"/>
     </row>
     <row r="39" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
       <c r="E39" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="11"/>
-      <c r="G39" s="29"/>
+      <c r="G39" s="19"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="29" t="s">
+      <c r="R39" s="19" t="s">
         <v>133</v>
       </c>
       <c r="S39" s="4" t="s">
@@ -4085,7 +3670,7 @@
       </c>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
-      <c r="AA39" s="29"/>
+      <c r="AA39" s="19"/>
       <c r="AB39" s="5" t="s">
         <v>36</v>
       </c>
@@ -4094,8 +3679,8 @@
       </c>
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="29"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
       <c r="AI39" t="s">
         <v>92</v>
       </c>
@@ -4103,20 +3688,20 @@
       <c r="AK39" s="11"/>
     </row>
     <row r="40" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
       <c r="E40" t="s">
         <v>114</v>
       </c>
       <c r="F40" s="11"/>
-      <c r="G40" s="29"/>
+      <c r="G40" s="19"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29" t="s">
+      <c r="R40" s="19"/>
+      <c r="S40" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T40" t="s">
@@ -4124,10 +3709,10 @@
       </c>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
-      <c r="AA40" s="29" t="s">
+      <c r="AA40" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AB40" s="29" t="s">
+      <c r="AB40" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AC40" t="s">
@@ -4135,8 +3720,8 @@
       </c>
       <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="29"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
       <c r="AI40" t="s">
         <v>84</v>
       </c>
@@ -4144,36 +3729,36 @@
       <c r="AK40" s="11"/>
     </row>
     <row r="41" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C41" s="29"/>
-      <c r="D41" s="29" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E41" t="s">
         <v>58</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="29"/>
+      <c r="G41" s="19"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
       <c r="T41" t="s">
         <v>45</v>
       </c>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
       <c r="AC41" t="s">
         <v>44</v>
       </c>
       <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="29" t="s">
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AI41" t="s">
@@ -4183,20 +3768,20 @@
       <c r="AK41" s="11"/>
     </row>
     <row r="42" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
       <c r="E42" t="s">
         <v>45</v>
       </c>
       <c r="F42" s="11"/>
-      <c r="G42" s="29"/>
+      <c r="G42" s="19"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
       <c r="T42" t="s">
         <v>52</v>
       </c>
@@ -4204,15 +3789,15 @@
       <c r="V42" s="4"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
       <c r="AC42" t="s">
         <v>26</v>
       </c>
       <c r="AD42" s="11"/>
       <c r="AE42" s="11"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="29"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
       <c r="AI42" t="s">
         <v>83</v>
       </c>
@@ -4220,20 +3805,20 @@
       <c r="AK42" s="11"/>
     </row>
     <row r="43" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
       <c r="E43" t="s">
         <v>52</v>
       </c>
       <c r="F43" s="11"/>
-      <c r="G43" s="29"/>
+      <c r="G43" s="19"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
       <c r="T43" t="s">
         <v>81</v>
       </c>
@@ -4241,8 +3826,8 @@
       <c r="V43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
       <c r="AC43" t="s">
         <v>33</v>
       </c>
@@ -4251,26 +3836,26 @@
       <c r="AJ43" s="11"/>
     </row>
     <row r="44" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
         <v>49</v>
       </c>
       <c r="F44" s="11"/>
-      <c r="G44" s="29"/>
+      <c r="G44" s="19"/>
       <c r="I44" s="11"/>
       <c r="J44" s="4"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="29" t="s">
+      <c r="R44" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="S44" s="29" t="s">
+      <c r="S44" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T44" t="s">
@@ -4280,8 +3865,8 @@
       <c r="V44" s="11"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
       <c r="AC44" t="s">
         <v>123</v>
       </c>
@@ -4289,20 +3874,20 @@
       <c r="AE44" s="11"/>
     </row>
     <row r="45" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
       <c r="E45" t="s">
         <v>72</v>
       </c>
       <c r="F45" s="11"/>
-      <c r="G45" s="29"/>
+      <c r="G45" s="19"/>
       <c r="I45" s="11"/>
       <c r="J45" s="4"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
       <c r="T45" t="s">
         <v>24</v>
       </c>
@@ -4310,8 +3895,8 @@
       <c r="V45" s="11"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
       <c r="AC45" t="s">
         <v>49</v>
       </c>
@@ -4319,23 +3904,23 @@
       <c r="AE45" s="5"/>
     </row>
     <row r="46" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C46" s="29"/>
-      <c r="D46" s="29" t="s">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="29"/>
+      <c r="G46" s="19"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="5"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
       <c r="T46" t="s">
         <v>92</v>
       </c>
@@ -4343,7 +3928,7 @@
       <c r="V46" s="11"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
-      <c r="AA46" s="29"/>
+      <c r="AA46" s="19"/>
       <c r="AB46" s="5" t="s">
         <v>36</v>
       </c>
@@ -4354,21 +3939,21 @@
       <c r="AE46" s="11"/>
     </row>
     <row r="47" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
       <c r="E47" t="s">
         <v>135</v>
       </c>
       <c r="F47" s="11"/>
-      <c r="G47" s="29"/>
+      <c r="G47" s="19"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
       <c r="T47" t="s">
         <v>50</v>
       </c>
@@ -4376,10 +3961,10 @@
       <c r="V47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
-      <c r="AA47" s="29" t="s">
+      <c r="AA47" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="AB47" s="29" t="s">
+      <c r="AB47" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AC47" t="s">
@@ -4389,25 +3974,25 @@
       <c r="AE47" s="11"/>
     </row>
     <row r="48" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="s">
         <v>33</v>
       </c>
       <c r="F48" s="11"/>
-      <c r="G48" s="29"/>
+      <c r="G48" s="19"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
       <c r="T48" t="s">
         <v>145</v>
       </c>
@@ -4415,8 +4000,8 @@
       <c r="V48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
       <c r="AC48" t="s">
         <v>84</v>
       </c>
@@ -4424,21 +4009,21 @@
       <c r="AE48" s="4"/>
     </row>
     <row r="49" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
       <c r="E49" t="s">
         <v>63</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="29"/>
+      <c r="G49" s="19"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
       <c r="T49" t="s">
         <v>57</v>
       </c>
@@ -4446,30 +4031,30 @@
       <c r="V49" s="11"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
       <c r="AC49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C50" s="29"/>
-      <c r="D50" s="29" t="s">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E50" t="s">
         <v>56</v>
       </c>
       <c r="F50" s="11"/>
-      <c r="G50" s="29"/>
+      <c r="G50" s="19"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29" t="s">
+      <c r="R50" s="19"/>
+      <c r="S50" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T50" t="s">
@@ -4479,8 +4064,8 @@
       <c r="V50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="33" t="s">
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="20" t="s">
         <v>36</v>
       </c>
       <c r="AC50" t="s">
@@ -4488,21 +4073,21 @@
       </c>
     </row>
     <row r="51" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
       <c r="E51" t="s">
         <v>99</v>
       </c>
       <c r="F51" s="11"/>
-      <c r="G51" s="29"/>
+      <c r="G51" s="19"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
       <c r="T51" t="s">
         <v>99</v>
       </c>
@@ -4510,18 +4095,18 @@
       <c r="V51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="33"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="20"/>
       <c r="AC51" t="s">
         <v>99</v>
       </c>
       <c r="AJ51" s="11"/>
     </row>
     <row r="52" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E52" t="s">
@@ -4535,8 +4120,8 @@
       <c r="M52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
       <c r="T52" t="s">
         <v>78</v>
       </c>
@@ -4544,7 +4129,7 @@
       <c r="V52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
-      <c r="AA52" s="29" t="s">
+      <c r="AA52" s="19" t="s">
         <v>148</v>
       </c>
       <c r="AB52" s="5" t="s">
@@ -4557,19 +4142,19 @@
       <c r="AK52" s="11"/>
     </row>
     <row r="53" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
       <c r="E53" t="s">
         <v>92</v>
       </c>
       <c r="F53" s="11"/>
-      <c r="G53" s="29"/>
+      <c r="G53" s="19"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
       <c r="T53" t="s">
         <v>52</v>
       </c>
@@ -4577,8 +4162,8 @@
       <c r="V53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29" t="s">
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC53" t="s">
@@ -4588,19 +4173,19 @@
       <c r="AK53" s="11"/>
     </row>
     <row r="54" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
       <c r="E54" t="s">
         <v>50</v>
       </c>
       <c r="F54" s="11"/>
-      <c r="G54" s="29"/>
+      <c r="G54" s="19"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="5"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
       <c r="T54" t="s">
         <v>81</v>
       </c>
@@ -4608,26 +4193,26 @@
       <c r="V54" s="4"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
-      <c r="AA54" s="29"/>
-      <c r="AB54" s="29"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
       <c r="AC54" t="s">
         <v>45</v>
       </c>
       <c r="AJ54" s="11"/>
     </row>
     <row r="55" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
       <c r="E55" t="s">
         <v>84</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="29"/>
+      <c r="G55" s="19"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="R55" s="29" t="s">
+      <c r="R55" s="19" t="s">
         <v>150</v>
       </c>
       <c r="S55" s="4" t="s">
@@ -4640,8 +4225,8 @@
       <c r="V55" s="11"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="29"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19"/>
       <c r="AC55" t="s">
         <v>52</v>
       </c>
@@ -4649,19 +4234,19 @@
       <c r="AK55" s="11"/>
     </row>
     <row r="56" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
       <c r="E56" t="s">
         <v>69</v>
       </c>
       <c r="F56" s="11"/>
-      <c r="G56" s="29"/>
+      <c r="G56" s="19"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29" t="s">
+      <c r="R56" s="19"/>
+      <c r="S56" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T56" t="s">
@@ -4671,8 +4256,8 @@
       <c r="V56" s="11"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="29"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
       <c r="AC56" t="s">
         <v>59</v>
       </c>
@@ -4680,21 +4265,21 @@
       <c r="AK56" s="11"/>
     </row>
     <row r="57" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C57" s="29"/>
-      <c r="D57" s="29" t="s">
+      <c r="C57" s="19"/>
+      <c r="D57" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E57" t="s">
         <v>99</v>
       </c>
       <c r="F57" s="11"/>
-      <c r="G57" s="29"/>
+      <c r="G57" s="19"/>
       <c r="L57" s="11"/>
       <c r="M57" s="4"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
       <c r="T57" t="s">
         <v>52</v>
       </c>
@@ -4702,7 +4287,7 @@
       <c r="V57" s="11"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
-      <c r="AA57" s="29" t="s">
+      <c r="AA57" s="19" t="s">
         <v>152</v>
       </c>
       <c r="AB57" s="5" t="s">
@@ -4715,19 +4300,19 @@
       <c r="AK57" s="11"/>
     </row>
     <row r="58" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
       <c r="E58" t="s">
         <v>46</v>
       </c>
       <c r="F58" s="11"/>
-      <c r="G58" s="29"/>
+      <c r="G58" s="19"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
       <c r="T58" t="s">
         <v>81</v>
       </c>
@@ -4735,8 +4320,8 @@
       <c r="V58" s="11"/>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
-      <c r="AA58" s="29"/>
-      <c r="AB58" s="29" t="s">
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC58" t="s">
@@ -4747,15 +4332,15 @@
     </row>
     <row r="59" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F59" s="11"/>
-      <c r="G59" s="29"/>
+      <c r="G59" s="19"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="R59" s="29" t="s">
+      <c r="R59" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="S59" s="29" t="s">
+      <c r="S59" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T59" t="s">
@@ -4765,8 +4350,8 @@
       <c r="V59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
       <c r="AC59" t="s">
         <v>45</v>
       </c>
@@ -4775,13 +4360,13 @@
     </row>
     <row r="60" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F60" s="11"/>
-      <c r="G60" s="29"/>
+      <c r="G60" s="19"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
       <c r="T60" t="s">
         <v>20</v>
       </c>
@@ -4789,21 +4374,21 @@
       <c r="V60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="29"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="19"/>
       <c r="AC60" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="61" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F61" s="11"/>
-      <c r="G61" s="29"/>
+      <c r="G61" s="19"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
       <c r="T61" t="s">
         <v>69</v>
       </c>
@@ -4811,7 +4396,7 @@
       <c r="V61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
-      <c r="AA61" s="29" t="s">
+      <c r="AA61" s="19" t="s">
         <v>155</v>
       </c>
       <c r="AB61" s="5" t="s">
@@ -4823,13 +4408,13 @@
     </row>
     <row r="62" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F62" s="11"/>
-      <c r="G62" s="29"/>
+      <c r="G62" s="19"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29" t="s">
+      <c r="R62" s="19"/>
+      <c r="S62" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T62" t="s">
@@ -4839,8 +4424,8 @@
       <c r="V62" s="4"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
-      <c r="AA62" s="29"/>
-      <c r="AB62" s="29" t="s">
+      <c r="AA62" s="19"/>
+      <c r="AB62" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC62" t="s">
@@ -4849,11 +4434,11 @@
     </row>
     <row r="63" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F63" s="11"/>
-      <c r="G63" s="29"/>
+      <c r="G63" s="19"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
       <c r="T63" t="s">
         <v>99</v>
       </c>
@@ -4861,19 +4446,19 @@
       <c r="V63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
-      <c r="AA63" s="29"/>
-      <c r="AB63" s="29"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
       <c r="AC63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="64" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F64" s="11"/>
-      <c r="G64" s="29"/>
+      <c r="G64" s="19"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
       <c r="T64" t="s">
         <v>46</v>
       </c>
@@ -4881,7 +4466,7 @@
       <c r="V64" s="11"/>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
-      <c r="AA64" s="29" t="s">
+      <c r="AA64" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AB64" t="s">
@@ -4893,13 +4478,13 @@
     </row>
     <row r="65" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F65" s="11"/>
-      <c r="G65" s="29"/>
+      <c r="G65" s="19"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
-      <c r="R65" s="29" t="s">
+      <c r="R65" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="S65" s="29" t="s">
+      <c r="S65" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T65" t="s">
@@ -4909,8 +4494,8 @@
       <c r="V65" s="11"/>
       <c r="X65" s="11"/>
       <c r="Y65" s="11"/>
-      <c r="AA65" s="29"/>
-      <c r="AB65" s="29" t="s">
+      <c r="AA65" s="19"/>
+      <c r="AB65" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC65" t="s">
@@ -4919,53 +4504,53 @@
     </row>
     <row r="66" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F66" s="11"/>
-      <c r="G66" s="29"/>
+      <c r="G66" s="19"/>
       <c r="I66" s="11"/>
       <c r="J66" s="4"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
       <c r="T66" t="s">
         <v>20</v>
       </c>
       <c r="X66" s="11"/>
       <c r="Y66" s="11"/>
-      <c r="AA66" s="29"/>
-      <c r="AB66" s="29"/>
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="19"/>
       <c r="AC66" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F67" s="11"/>
-      <c r="G67" s="29"/>
+      <c r="G67" s="19"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
       <c r="T67" t="s">
         <v>84</v>
       </c>
       <c r="X67" s="11"/>
       <c r="Y67" s="11"/>
-      <c r="AA67" s="29"/>
-      <c r="AB67" s="29"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="19"/>
       <c r="AC67" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="68" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F68" s="11"/>
-      <c r="G68" s="29"/>
+      <c r="G68" s="19"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29" t="s">
+      <c r="R68" s="19"/>
+      <c r="S68" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T68" t="s">
@@ -4973,10 +4558,10 @@
       </c>
       <c r="X68" s="11"/>
       <c r="Y68" s="11"/>
-      <c r="AA68" s="29" t="s">
+      <c r="AA68" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="AB68" s="29" t="s">
+      <c r="AB68" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AC68" t="s">
@@ -4985,13 +4570,13 @@
     </row>
     <row r="69" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F69" s="11"/>
-      <c r="G69" s="29"/>
+      <c r="G69" s="19"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="5"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
       <c r="T69" t="s">
         <v>52</v>
       </c>
@@ -4999,8 +4584,8 @@
       <c r="V69" s="4"/>
       <c r="X69" s="11"/>
       <c r="Y69" s="5"/>
-      <c r="AA69" s="29"/>
-      <c r="AB69" s="29"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
       <c r="AC69" t="s">
         <v>35</v>
       </c>
@@ -5008,15 +4593,15 @@
     </row>
     <row r="70" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F70" s="11"/>
-      <c r="G70" s="29"/>
+      <c r="G70" s="19"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
-      <c r="R70" s="29" t="s">
+      <c r="R70" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="S70" s="29" t="s">
+      <c r="S70" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T70" t="s">
@@ -5026,8 +4611,8 @@
       <c r="V70" s="11"/>
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
-      <c r="AA70" s="29"/>
-      <c r="AB70" s="29"/>
+      <c r="AA70" s="19"/>
+      <c r="AB70" s="19"/>
       <c r="AC70" t="s">
         <v>20</v>
       </c>
@@ -5036,13 +4621,13 @@
     </row>
     <row r="71" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F71" s="11"/>
-      <c r="G71" s="29"/>
+      <c r="G71" s="19"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
       <c r="T71" t="s">
         <v>32</v>
       </c>
@@ -5050,8 +4635,8 @@
       <c r="V71" s="11"/>
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
-      <c r="AA71" s="29"/>
-      <c r="AB71" s="29" t="s">
+      <c r="AA71" s="19"/>
+      <c r="AB71" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC71" t="s">
@@ -5062,20 +4647,20 @@
     </row>
     <row r="72" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F72" s="11"/>
-      <c r="G72" s="29"/>
+      <c r="G72" s="19"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
       <c r="T72" t="s">
         <v>163</v>
       </c>
       <c r="U72" s="11"/>
       <c r="V72" s="11"/>
-      <c r="AA72" s="29"/>
-      <c r="AB72" s="29"/>
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="19"/>
       <c r="AC72" t="s">
         <v>38</v>
       </c>
@@ -5084,80 +4669,80 @@
     </row>
     <row r="73" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F73" s="11"/>
-      <c r="G73" s="29"/>
+      <c r="G73" s="19"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
       <c r="T73" t="s">
         <v>35</v>
       </c>
       <c r="U73" s="11"/>
       <c r="V73" s="11"/>
-      <c r="AA73" s="29"/>
-      <c r="AB73" s="29"/>
+      <c r="AA73" s="19"/>
+      <c r="AB73" s="19"/>
       <c r="AC73" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="74" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F74" s="11"/>
-      <c r="G74" s="29"/>
+      <c r="G74" s="19"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
       <c r="T74" t="s">
         <v>24</v>
       </c>
       <c r="U74" s="11"/>
       <c r="V74" s="4"/>
-      <c r="AA74" s="29"/>
-      <c r="AB74" s="29"/>
+      <c r="AA74" s="19"/>
+      <c r="AB74" s="19"/>
       <c r="AC74" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="75" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F75" s="11"/>
-      <c r="G75" s="29"/>
+      <c r="G75" s="19"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
       <c r="T75" t="s">
         <v>92</v>
       </c>
       <c r="U75" s="11"/>
       <c r="V75" s="11"/>
-      <c r="AA75" s="29"/>
-      <c r="AB75" s="29"/>
+      <c r="AA75" s="19"/>
+      <c r="AB75" s="19"/>
       <c r="AC75" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="76" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F76" s="11"/>
-      <c r="G76" s="29"/>
+      <c r="G76" s="19"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
-      <c r="R76" s="29"/>
-      <c r="S76" s="29"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
       <c r="T76" t="s">
         <v>50</v>
       </c>
       <c r="U76" s="11"/>
       <c r="V76" s="11"/>
       <c r="X76" s="8"/>
-      <c r="AA76" s="29" t="s">
+      <c r="AA76" s="19" t="s">
         <v>133</v>
       </c>
       <c r="AB76" t="s">
@@ -5169,20 +4754,20 @@
     </row>
     <row r="77" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F77" s="11"/>
-      <c r="G77" s="29"/>
+      <c r="G77" s="19"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="29"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
       <c r="T77" t="s">
         <v>145</v>
       </c>
       <c r="U77" s="11"/>
       <c r="V77" s="4"/>
-      <c r="AA77" s="29"/>
-      <c r="AB77" s="29" t="s">
+      <c r="AA77" s="19"/>
+      <c r="AB77" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC77" t="s">
@@ -5191,35 +4776,35 @@
     </row>
     <row r="78" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F78" s="11"/>
-      <c r="G78" s="29"/>
+      <c r="G78" s="19"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
       <c r="T78" t="s">
         <v>69</v>
       </c>
       <c r="U78" s="11"/>
       <c r="V78" s="11"/>
-      <c r="AA78" s="29"/>
-      <c r="AB78" s="29"/>
+      <c r="AA78" s="19"/>
+      <c r="AB78" s="19"/>
       <c r="AC78" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="79" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F79" s="11"/>
-      <c r="G79" s="29"/>
+      <c r="G79" s="19"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="29" t="s">
+      <c r="R79" s="19"/>
+      <c r="S79" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T79" t="s">
@@ -5227,49 +4812,49 @@
       </c>
       <c r="U79" s="11"/>
       <c r="V79" s="11"/>
-      <c r="AA79" s="29"/>
-      <c r="AB79" s="29"/>
+      <c r="AA79" s="19"/>
+      <c r="AB79" s="19"/>
       <c r="AC79" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="80" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F80" s="11"/>
-      <c r="G80" s="29"/>
+      <c r="G80" s="19"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
       <c r="T80" t="s">
         <v>38</v>
       </c>
       <c r="U80" s="11"/>
       <c r="V80" s="11"/>
-      <c r="AA80" s="29"/>
-      <c r="AB80" s="29"/>
+      <c r="AA80" s="19"/>
+      <c r="AB80" s="19"/>
       <c r="AC80" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="81" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F81" s="11"/>
-      <c r="G81" s="29"/>
+      <c r="G81" s="19"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
-      <c r="R81" s="29"/>
-      <c r="S81" s="29"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
       <c r="T81" t="s">
         <v>45</v>
       </c>
-      <c r="AA81" s="29" t="s">
+      <c r="AA81" s="19" t="s">
         <v>166</v>
       </c>
       <c r="AB81" t="s">
@@ -5281,20 +4866,20 @@
     </row>
     <row r="82" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F82" s="11"/>
-      <c r="G82" s="29"/>
+      <c r="G82" s="19"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
-      <c r="R82" s="29"/>
-      <c r="S82" s="29"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
       <c r="T82" t="s">
         <v>37</v>
       </c>
-      <c r="AA82" s="29"/>
-      <c r="AB82" s="29" t="s">
+      <c r="AA82" s="19"/>
+      <c r="AB82" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC82" t="s">
@@ -5303,39 +4888,39 @@
     </row>
     <row r="83" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F83" s="11"/>
-      <c r="G83" s="29"/>
+      <c r="G83" s="19"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
       <c r="T83" t="s">
         <v>52</v>
       </c>
-      <c r="AA83" s="29"/>
-      <c r="AB83" s="29"/>
+      <c r="AA83" s="19"/>
+      <c r="AB83" s="19"/>
       <c r="AC83" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="84" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F84" s="11"/>
-      <c r="G84" s="29"/>
+      <c r="G84" s="19"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
-      <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
       <c r="T84" t="s">
         <v>81</v>
       </c>
-      <c r="AA84" s="29" t="s">
+      <c r="AA84" s="19" t="s">
         <v>167</v>
       </c>
       <c r="AB84" t="s">
@@ -5347,24 +4932,24 @@
     </row>
     <row r="85" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F85" s="11"/>
-      <c r="G85" s="29"/>
+      <c r="G85" s="19"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
-      <c r="R85" s="29" t="s">
+      <c r="R85" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="S85" s="29" t="s">
+      <c r="S85" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T85" t="s">
         <v>21</v>
       </c>
-      <c r="AA85" s="29"/>
-      <c r="AB85" s="29" t="s">
+      <c r="AA85" s="19"/>
+      <c r="AB85" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AC85" t="s">
@@ -5373,22 +4958,22 @@
     </row>
     <row r="86" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F86" s="11"/>
-      <c r="G86" s="29"/>
+      <c r="G86" s="19"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
-      <c r="R86" s="29"/>
-      <c r="S86" s="29"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
       <c r="T86" t="s">
         <v>68</v>
       </c>
       <c r="U86" s="11"/>
       <c r="V86" s="4"/>
-      <c r="AA86" s="29"/>
-      <c r="AB86" s="29"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="19"/>
       <c r="AC86" t="s">
         <v>52</v>
       </c>
@@ -5400,8 +4985,8 @@
       <c r="M87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
-      <c r="R87" s="29"/>
-      <c r="S87" s="29"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
       <c r="T87" t="s">
         <v>84</v>
       </c>
@@ -5415,8 +5000,8 @@
       <c r="M88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
-      <c r="R88" s="29"/>
-      <c r="S88" s="29"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
       <c r="T88" t="s">
         <v>69</v>
       </c>
@@ -5430,7 +5015,7 @@
       <c r="M89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
-      <c r="R89" s="29"/>
+      <c r="R89" s="19"/>
       <c r="S89" s="4" t="s">
         <v>36</v>
       </c>
@@ -5447,10 +5032,10 @@
       <c r="M90" s="11"/>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
-      <c r="R90" s="29" t="s">
+      <c r="R90" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="S90" s="29" t="s">
+      <c r="S90" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T90" t="s">
@@ -5466,8 +5051,8 @@
       <c r="M91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
-      <c r="R91" s="29"/>
-      <c r="S91" s="29"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
       <c r="T91" t="s">
         <v>35</v>
       </c>
@@ -5481,8 +5066,8 @@
       <c r="M92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="29"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="19"/>
       <c r="T92" t="s">
         <v>92</v>
       </c>
@@ -5496,8 +5081,8 @@
       <c r="M93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
-      <c r="R93" s="29"/>
-      <c r="S93" s="29"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
       <c r="T93" t="s">
         <v>50</v>
       </c>
@@ -5511,8 +5096,8 @@
       <c r="M94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29" t="s">
+      <c r="R94" s="19"/>
+      <c r="S94" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T94" t="s">
@@ -5528,8 +5113,8 @@
       <c r="M95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="29"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="19"/>
       <c r="T95" t="s">
         <v>38</v>
       </c>
@@ -5543,8 +5128,8 @@
       <c r="M96" s="11"/>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
-      <c r="R96" s="29"/>
-      <c r="S96" s="29"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
       <c r="T96" t="s">
         <v>45</v>
       </c>
@@ -5556,8 +5141,8 @@
       <c r="M97" s="11"/>
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
-      <c r="R97" s="29"/>
-      <c r="S97" s="29"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="19"/>
       <c r="T97" t="s">
         <v>99</v>
       </c>
@@ -5569,10 +5154,10 @@
       <c r="M98" s="11"/>
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
-      <c r="R98" s="29" t="s">
+      <c r="R98" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="S98" s="29" t="s">
+      <c r="S98" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T98" t="s">
@@ -5586,8 +5171,8 @@
       <c r="M99" s="11"/>
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
-      <c r="R99" s="29"/>
-      <c r="S99" s="29"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
       <c r="T99" t="s">
         <v>123</v>
       </c>
@@ -5599,8 +5184,8 @@
       <c r="M100" s="11"/>
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
-      <c r="R100" s="29"/>
-      <c r="S100" s="29"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
       <c r="T100" t="s">
         <v>69</v>
       </c>
@@ -5614,8 +5199,8 @@
       <c r="M101" s="11"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29" t="s">
+      <c r="R101" s="19"/>
+      <c r="S101" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T101" t="s">
@@ -5631,8 +5216,8 @@
       <c r="M102" s="11"/>
       <c r="O102" s="11"/>
       <c r="P102" s="11"/>
-      <c r="R102" s="29"/>
-      <c r="S102" s="29"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="19"/>
       <c r="T102" t="s">
         <v>52</v>
       </c>
@@ -5646,10 +5231,10 @@
       <c r="M103" s="11"/>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
-      <c r="R103" s="29" t="s">
+      <c r="R103" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="S103" s="29" t="s">
+      <c r="S103" s="19" t="s">
         <v>17</v>
       </c>
       <c r="T103" t="s">
@@ -5665,8 +5250,8 @@
       <c r="M104" s="11"/>
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
-      <c r="R104" s="29"/>
-      <c r="S104" s="29"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
       <c r="T104" t="s">
         <v>21</v>
       </c>
@@ -5680,8 +5265,8 @@
       <c r="M105" s="12"/>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
-      <c r="R105" s="29"/>
-      <c r="S105" s="29"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
       <c r="T105" t="s">
         <v>35</v>
       </c>
@@ -5695,8 +5280,8 @@
       <c r="M106" s="12"/>
       <c r="O106" s="11"/>
       <c r="P106" s="11"/>
-      <c r="R106" s="29"/>
-      <c r="S106" s="29"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
       <c r="T106" t="s">
         <v>44</v>
       </c>
@@ -5708,8 +5293,8 @@
       <c r="J107" s="11"/>
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
-      <c r="R107" s="29"/>
-      <c r="S107" s="29"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="19"/>
       <c r="T107" t="s">
         <v>24</v>
       </c>
@@ -5721,8 +5306,8 @@
       <c r="J108" s="11"/>
       <c r="O108" s="11"/>
       <c r="P108" s="11"/>
-      <c r="R108" s="29"/>
-      <c r="S108" s="29"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="19"/>
       <c r="T108" t="s">
         <v>92</v>
       </c>
@@ -5734,8 +5319,8 @@
       <c r="J109" s="11"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
-      <c r="R109" s="29"/>
-      <c r="S109" s="29"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="19"/>
       <c r="T109" t="s">
         <v>50</v>
       </c>
@@ -5747,8 +5332,8 @@
       <c r="J110" s="11"/>
       <c r="O110" s="11"/>
       <c r="P110" s="11"/>
-      <c r="R110" s="29"/>
-      <c r="S110" s="29"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="19"/>
       <c r="T110" t="s">
         <v>57</v>
       </c>
@@ -5760,8 +5345,8 @@
       <c r="J111" s="11"/>
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
-      <c r="R111" s="29"/>
-      <c r="S111" s="29"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
       <c r="T111" t="s">
         <v>49</v>
       </c>
@@ -5773,8 +5358,8 @@
       <c r="J112" s="11"/>
       <c r="O112" s="11"/>
       <c r="P112" s="11"/>
-      <c r="R112" s="29"/>
-      <c r="S112" s="29"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="19"/>
       <c r="T112" t="s">
         <v>69</v>
       </c>
@@ -5786,8 +5371,8 @@
       <c r="J113" s="11"/>
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
-      <c r="R113" s="29"/>
-      <c r="S113" s="29" t="s">
+      <c r="R113" s="19"/>
+      <c r="S113" s="19" t="s">
         <v>36</v>
       </c>
       <c r="T113" t="s">
@@ -5801,8 +5386,8 @@
       <c r="J114" s="11"/>
       <c r="O114" s="11"/>
       <c r="P114" s="11"/>
-      <c r="R114" s="29"/>
-      <c r="S114" s="29"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="19"/>
       <c r="T114" t="s">
         <v>45</v>
       </c>
@@ -5814,8 +5399,8 @@
       <c r="J115" s="11"/>
       <c r="O115" s="11"/>
       <c r="P115" s="5"/>
-      <c r="R115" s="29"/>
-      <c r="S115" s="29"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
       <c r="T115" t="s">
         <v>52</v>
       </c>
@@ -5827,8 +5412,8 @@
       <c r="J116" s="11"/>
       <c r="O116" s="11"/>
       <c r="P116" s="11"/>
-      <c r="R116" s="29"/>
-      <c r="S116" s="29"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="19"/>
       <c r="T116" t="s">
         <v>46</v>
       </c>
@@ -5840,8 +5425,8 @@
       <c r="J117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
-      <c r="R117" s="29"/>
-      <c r="S117" s="29"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="19"/>
       <c r="T117" t="s">
         <v>81</v>
       </c>
@@ -6479,34 +6064,154 @@
     </row>
   </sheetData>
   <mergeCells count="201">
-    <mergeCell ref="S113:S117"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="R98:R102"/>
-    <mergeCell ref="S98:S100"/>
-    <mergeCell ref="S101:S102"/>
-    <mergeCell ref="R103:R117"/>
-    <mergeCell ref="S103:S112"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="R90:R97"/>
-    <mergeCell ref="S90:S93"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="S94:S97"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="AA76:AA80"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="L2:L14"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="R24:R28"/>
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="X12:X19"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Y14:Y19"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="R2:R12"/>
+    <mergeCell ref="S2:S8"/>
+    <mergeCell ref="X2:X11"/>
+    <mergeCell ref="Y2:Y9"/>
+    <mergeCell ref="AA2:AA12"/>
+    <mergeCell ref="AB2:AB8"/>
+    <mergeCell ref="AG2:AG6"/>
+    <mergeCell ref="AH3:AH6"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="AB9:AB12"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AG15:AG19"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="AK4:AK7"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="AH17:AH19"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AG20:AG23"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AH21:AH23"/>
+    <mergeCell ref="AB23:AB25"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AG9:AG14"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AH12:AH14"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AJ2:AJ7"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="AB33:AB38"/>
+    <mergeCell ref="AH33:AH35"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AG24:AG30"/>
+    <mergeCell ref="AH24:AH26"/>
+    <mergeCell ref="AB14:AB17"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="AA26:AA29"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="AH27:AH30"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="AA18:AA20"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="AA21:AA25"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="R13:R19"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="AG38:AG42"/>
+    <mergeCell ref="AH38:AH40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="R39:R43"/>
+    <mergeCell ref="S40:S43"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="AA30:AA32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="R33:R38"/>
+    <mergeCell ref="S33:S36"/>
+    <mergeCell ref="AA33:AA39"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="R29:R32"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AG31:AG35"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="AA52:AA56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="AB58:AB60"/>
+    <mergeCell ref="R59:R64"/>
+    <mergeCell ref="S59:S61"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="AJ15:AJ23"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="R44:R54"/>
+    <mergeCell ref="S44:S49"/>
+    <mergeCell ref="AJ8:AJ14"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="AA47:AA51"/>
+    <mergeCell ref="AB47:AB49"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="AA40:AA46"/>
+    <mergeCell ref="AB40:AB45"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="AK15:AK18"/>
+    <mergeCell ref="AA61:AA63"/>
+    <mergeCell ref="S62:S64"/>
+    <mergeCell ref="AB62:AB63"/>
+    <mergeCell ref="O2:O7"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="AA64:AA67"/>
+    <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="R65:R69"/>
+    <mergeCell ref="S65:S67"/>
+    <mergeCell ref="AB65:AB67"/>
+    <mergeCell ref="AB53:AB56"/>
+    <mergeCell ref="R55:R58"/>
+    <mergeCell ref="S56:S58"/>
+    <mergeCell ref="AA57:AA60"/>
+    <mergeCell ref="S50:S54"/>
+    <mergeCell ref="AB50:AB51"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AK10:AK14"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AB28:AB29"/>
     <mergeCell ref="AB77:AB80"/>
     <mergeCell ref="S79:S84"/>
     <mergeCell ref="G80:G86"/>
@@ -6531,155 +6236,35 @@
     <mergeCell ref="I2:I14"/>
     <mergeCell ref="J2:J8"/>
     <mergeCell ref="G41:G42"/>
-    <mergeCell ref="AK15:AK18"/>
-    <mergeCell ref="AA61:AA63"/>
-    <mergeCell ref="S62:S64"/>
-    <mergeCell ref="AB62:AB63"/>
-    <mergeCell ref="O2:O7"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="AA64:AA67"/>
-    <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="R65:R69"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="AB65:AB67"/>
-    <mergeCell ref="AB53:AB56"/>
-    <mergeCell ref="R55:R58"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="AA57:AA60"/>
-    <mergeCell ref="S50:S54"/>
-    <mergeCell ref="AB50:AB51"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AK10:AK14"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="AA52:AA56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="AB58:AB60"/>
-    <mergeCell ref="R59:R64"/>
-    <mergeCell ref="S59:S61"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="AJ15:AJ23"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="R44:R54"/>
-    <mergeCell ref="S44:S49"/>
-    <mergeCell ref="AJ8:AJ14"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="AA47:AA51"/>
-    <mergeCell ref="AB47:AB49"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="AA40:AA46"/>
-    <mergeCell ref="AB40:AB45"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="AG38:AG42"/>
-    <mergeCell ref="AH38:AH40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="R39:R43"/>
-    <mergeCell ref="S40:S43"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="AA30:AA32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="R33:R38"/>
-    <mergeCell ref="S33:S36"/>
-    <mergeCell ref="AA33:AA39"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="R29:R32"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AG31:AG35"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="AA26:AA29"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="AH27:AH30"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="AA18:AA20"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="AA21:AA25"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AH12:AH14"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AJ2:AJ7"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="AB33:AB38"/>
-    <mergeCell ref="AH33:AH35"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AG24:AG30"/>
-    <mergeCell ref="AH24:AH26"/>
+    <mergeCell ref="AA76:AA80"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="L2:L14"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="R24:R28"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="X12:X19"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Y14:Y19"/>
     <mergeCell ref="G13:G16"/>
-    <mergeCell ref="R13:R19"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="AB14:AB17"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="AB9:AB12"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AG15:AG19"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="AH17:AH19"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AG20:AG23"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AH21:AH23"/>
-    <mergeCell ref="AB23:AB25"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AG9:AG14"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="R2:R12"/>
-    <mergeCell ref="S2:S8"/>
-    <mergeCell ref="X2:X11"/>
-    <mergeCell ref="Y2:Y9"/>
-    <mergeCell ref="AA2:AA12"/>
-    <mergeCell ref="AB2:AB8"/>
-    <mergeCell ref="AG2:AG6"/>
-    <mergeCell ref="AH3:AH6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="S113:S117"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="R98:R102"/>
+    <mergeCell ref="S98:S100"/>
+    <mergeCell ref="S101:S102"/>
+    <mergeCell ref="R103:R117"/>
+    <mergeCell ref="S103:S112"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="R90:R97"/>
+    <mergeCell ref="S90:S93"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="S94:S97"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="G75:G79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6690,14 +6275,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" style="16" customWidth="1"/>
     <col min="2" max="2" width="82.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6713,33 +6299,35 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>18</v>
+      <c r="A3" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5</v>
+        <v>244</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6</v>
+        <v>179</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6749,344 +6337,368 @@
       <c r="B5" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="5">
-        <v>7</v>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>60</v>
+      <c r="A6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>199</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="5">
-        <v>8</v>
+        <v>203</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>38</v>
+      <c r="A9" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>23</v>
+        <v>217</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="5">
-        <v>12</v>
+        <v>220</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="14">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>31</v>
+      <c r="A14" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>45</v>
+        <v>236</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>44</v>
+      <c r="A16" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="5">
-        <v>15</v>
+        <v>194</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>26</v>
+        <v>222</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>33</v>
+        <v>204</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C21" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>103</v>
+        <v>240</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23" s="5">
-        <v>6</v>
+        <v>196</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>24</v>
+      <c r="A25" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>241</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="5">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="5">
-        <v>17</v>
+      <c r="A29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C33" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>49</v>
+        <v>231</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C34" s="5">
-        <v>20</v>
+        <v>189</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>46</v>
+      <c r="A35" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>84</v>
+        <v>190</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
+        <v>247</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -7477,397 +7089,320 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CE93BD-90CB-4899-8529-B72F743680DF}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="73.7109375" style="18" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="25"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="36"/>
-    </row>
-    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="35"/>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="35"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="36"/>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="38"/>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="35"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="35"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="39"/>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="B35" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="35"/>
-    </row>
-    <row r="20" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="35"/>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="36"/>
-    </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="C36" s="25"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="23"/>
-    </row>
-    <row r="28" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" s="23"/>
-    </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="23"/>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="23"/>
-    </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31" s="23"/>
-    </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" s="23"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="23"/>
-    </row>
-    <row r="34" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C34" s="23"/>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" s="23"/>
-    </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C36" s="23"/>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="23"/>
-    </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="C38" s="22"/>
+      <c r="B37" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A29:A34"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:A38">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B2:B37">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Ransomware profile/Example/WannaCry_Profile.xlsx
+++ b/Ransomware profile/Example/WannaCry_Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507UAR\Desktop\Y4FinalReport\Ransomware profile\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77507CB9-2B2A-4C0B-B42D-1795248B0F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150AC992-D76E-488F-9F2E-A2B9BE538940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33555" yWindow="3150" windowWidth="15375" windowHeight="7995" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enterprise ATT&amp;CK (v11)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="281">
   <si>
     <t>Reconnaissance</t>
   </si>
@@ -828,13 +828,316 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DE.AE-3: Event data are collected and correlated from multiple sources and sensors
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+DE.CM-7: Monitoring for unauthorized personnel, connections, devices, and software is performed</t>
+    </r>
+  </si>
+  <si>
+    <t>PR.PT-4: Communications and control networks are protected</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PR.AC-4: Access permissions and authorizations are managed, incorporating the principles of least privilege and separation of duties
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+PR.AC-7: Users, devices, and other assets are authenticated (e.g., single-factor, multi-factor) commensurate with the risk of the transaction (e.g., individuals’ security and privacy risks and other organizational risks)</t>
+    </r>
+  </si>
+  <si>
+    <t>DE.CM-8: Vulnerability scans are performed</t>
+  </si>
+  <si>
+    <t>PR.PT-3: The principle of least functionality is incorporated by configuring systems to provide only essential capabilities</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(PR.DS-6: Integrity checking mechanisms are used to verify software, firmware, and information integrity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+PR.DS-8: Integrity checking mechanisms are used to verify hardware integrity)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(PR.AC-1: Identities and credentials are issued, managed, verified, revoked, and audited for authorized devices, users and processes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+PR.PT-3: The principle of least functionality is incorporated by configuring systems to provide only essential capabilities)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+PR.PT-2: Removable media is protected and its use restricted according to policy
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(PR.IP-9: Response plans (Incident Response and Business Continuity) and recovery plans (Incident Recovery and Disaster Recovery) are in place and managed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+PR.IP-10: Response and recovery plans are tested)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PR.IP-4: Backups of information are conducted, maintained, and tested </t>
+  </si>
+  <si>
+    <t>PR.IP-3: Configuration change control processes are in place</t>
+  </si>
+  <si>
+    <t>PR.DS-8: Integrity checking mechanisms are used to verify hardware integrity</t>
+  </si>
+  <si>
+    <t>ID.RA-2: Cyber threat intelligence is received from information sharing forums and sources</t>
+  </si>
+  <si>
+    <t>PR.AC-5: Network integrity is protected (e.g., network segregation, network segmentation)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(DE.AE-2: Detected events are analyzed to understand attack targets and methods
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(DE.CM-7: Monitoring for unauthorized personnel, connections, devices, and software is performed) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (DE.CM-4: Malicious code is detected </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DE.CM-5: Unauthorized mobile code is detected))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+DE.CM-1: The network is monitored to detect potential cybersecurity events</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RS.MI-3: Newly identified vulnerabilities are mitigated or documented as accepted risks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+RS.AN-5: Processes are established to receive, analyze and respond to vulnerabilities disclosed to the organization from internal and external sources (e.g. internal testing, security bulletins, or security researchers)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -866,6 +1169,18 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -977,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1022,52 +1337,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1082,11 +1361,53 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1104,14 +1425,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1148,14 +1461,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C75" totalsRowShown="0">
   <autoFilter ref="A1:C75" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
-      <colorFilter dxfId="4"/>
+      <colorFilter dxfId="3"/>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
     <sortCondition ref="C1:C75"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mitigation &amp; Detection Techniques" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mitigation &amp; Detection Techniques" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Detail"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Clustering"/>
   </tableColumns>
@@ -1515,64 +1828,64 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="21" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="23" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="21" t="s">
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="24" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="21" t="s">
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
       <c r="AG1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1581,61 +1894,61 @@
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T2" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="27" t="s">
         <v>134</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -1644,34 +1957,34 @@
       <c r="W2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="28" t="s">
         <v>17</v>
       </c>
       <c r="Z2" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AC2" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AD2" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AE2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AF2" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="28" t="s">
         <v>27</v>
       </c>
       <c r="AH2" s="6" t="s">
@@ -1680,10 +1993,10 @@
       <c r="AI2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AJ2" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AK2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AL2" t="s">
@@ -1697,67 +2010,67 @@
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
       <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
       <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
       <c r="T3" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19" t="s">
+      <c r="U3" s="27"/>
+      <c r="V3" s="27" t="s">
         <v>36</v>
       </c>
       <c r="W3" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
       <c r="Z3" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
       <c r="AC3" t="s">
         <v>35</v>
       </c>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
       <c r="AF3" t="s">
         <v>94</v>
       </c>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="19" t="s">
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AI3" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
       <c r="AL3" t="s">
         <v>53</v>
       </c>
@@ -1769,67 +2082,67 @@
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
       <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19" t="s">
+      <c r="O4" s="27"/>
+      <c r="P4" s="27" t="s">
         <v>36</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
       <c r="T4" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
       <c r="W4" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
       <c r="Z4" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
       <c r="AC4" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="19"/>
+      <c r="AD4" s="27"/>
       <c r="AE4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AF4" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
       <c r="AI4" t="s">
         <v>45</v>
       </c>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19" t="s">
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AL4" t="s">
@@ -1843,37 +2156,37 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
       <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" t="s">
         <v>128</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
       <c r="N5" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
       <c r="Q5" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
       <c r="T5" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="27" t="s">
         <v>159</v>
       </c>
       <c r="V5" s="4" t="s">
@@ -1882,32 +2195,32 @@
       <c r="W5" t="s">
         <v>28</v>
       </c>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
       <c r="Z5" t="s">
         <v>33</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
       <c r="AC5" t="s">
         <v>51</v>
       </c>
-      <c r="AD5" s="19" t="s">
+      <c r="AD5" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="AE5" s="19" t="s">
+      <c r="AE5" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AF5" t="s">
         <v>44</v>
       </c>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
       <c r="AI5" t="s">
         <v>37</v>
       </c>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
       <c r="AL5" t="s">
         <v>38</v>
       </c>
@@ -1919,69 +2232,69 @@
       <c r="B6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27" t="s">
         <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
       <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
       <c r="Q6" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
       <c r="T6" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19" t="s">
+      <c r="U6" s="27"/>
+      <c r="V6" s="27" t="s">
         <v>36</v>
       </c>
       <c r="W6" t="s">
         <v>38</v>
       </c>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
       <c r="Z6" t="s">
         <v>50</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
       <c r="AC6" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
       <c r="AF6" t="s">
         <v>26</v>
       </c>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
       <c r="AI6" t="s">
         <v>59</v>
       </c>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
@@ -1993,57 +2306,57 @@
       <c r="B7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
       <c r="H7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
       <c r="K7" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
       <c r="N7" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
       <c r="Q7" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
       <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
       <c r="W7" t="s">
         <v>52</v>
       </c>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
       <c r="Z7" t="s">
         <v>64</v>
       </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
       <c r="AC7" t="s">
         <v>33</v>
       </c>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
       <c r="AF7" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="19" t="s">
+      <c r="AG7" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AH7" s="5" t="s">
@@ -2052,8 +2365,8 @@
       <c r="AI7" t="s">
         <v>26</v>
       </c>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
       <c r="AL7" t="s">
         <v>52</v>
       </c>
@@ -2065,27 +2378,27 @@
       <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
       <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
       <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
       <c r="N8" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="27" t="s">
         <v>161</v>
       </c>
       <c r="P8" s="5" t="s">
@@ -2094,12 +2407,12 @@
       <c r="Q8" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
       <c r="T8" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="27" t="s">
         <v>165</v>
       </c>
       <c r="V8" s="4" t="s">
@@ -2108,34 +2421,34 @@
       <c r="W8" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
       <c r="Z8" t="s">
         <v>49</v>
       </c>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
       <c r="AC8" t="s">
         <v>69</v>
       </c>
-      <c r="AD8" s="19"/>
+      <c r="AD8" s="27"/>
       <c r="AE8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AF8" t="s">
         <v>37</v>
       </c>
-      <c r="AG8" s="19"/>
+      <c r="AG8" s="27"/>
       <c r="AH8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AI8" t="s">
         <v>37</v>
       </c>
-      <c r="AJ8" s="19" t="s">
+      <c r="AJ8" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="AK8" s="19" t="s">
+      <c r="AK8" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AL8" t="s">
@@ -2147,56 +2460,56 @@
         <v>70</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27" t="s">
         <v>36</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19" t="s">
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
         <v>36</v>
       </c>
       <c r="N9" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19" t="s">
+      <c r="O9" s="27"/>
+      <c r="P9" s="27" t="s">
         <v>36</v>
       </c>
       <c r="Q9" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19" t="s">
+      <c r="R9" s="27"/>
+      <c r="S9" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T9" t="s">
         <v>56</v>
       </c>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19" t="s">
+      <c r="U9" s="27"/>
+      <c r="V9" s="27" t="s">
         <v>36</v>
       </c>
       <c r="W9" t="s">
         <v>38</v>
       </c>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
       <c r="Z9" t="s">
         <v>72</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19" t="s">
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC9" t="s">
@@ -2204,17 +2517,17 @@
       </c>
       <c r="AD9" s="11"/>
       <c r="AE9" s="5"/>
-      <c r="AG9" s="19" t="s">
+      <c r="AG9" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AH9" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AI9" t="s">
         <v>74</v>
       </c>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
       <c r="AL9" t="s">
         <v>24</v>
       </c>
@@ -2223,10 +2536,10 @@
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2235,52 +2548,52 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
       <c r="K10" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
       <c r="N10" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
       <c r="Q10" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
       <c r="T10" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
       <c r="W10" t="s">
         <v>45</v>
       </c>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="19" t="s">
+      <c r="X10" s="28"/>
+      <c r="Y10" s="27" t="s">
         <v>36</v>
       </c>
       <c r="Z10" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
       <c r="AC10" t="s">
         <v>37</v>
       </c>
       <c r="AD10" s="11"/>
       <c r="AE10" s="5"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
       <c r="AI10" t="s">
         <v>44</v>
       </c>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19" t="s">
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AL10" t="s">
@@ -2292,58 +2605,58 @@
         <v>80</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
       <c r="K11" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
       <c r="N11" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
       <c r="Q11" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
       <c r="T11" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" t="s">
         <v>37</v>
       </c>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
       <c r="Z11" t="s">
         <v>37</v>
       </c>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
       <c r="AC11" t="s">
         <v>82</v>
       </c>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
       <c r="AI11" t="s">
         <v>33</v>
       </c>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
       <c r="AL11" t="s">
         <v>45</v>
       </c>
@@ -2351,64 +2664,64 @@
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
       <c r="K12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
       <c r="N12" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
       <c r="Q12" t="s">
         <v>138</v>
       </c>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
       <c r="T12" t="s">
         <v>81</v>
       </c>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
       <c r="W12" t="s">
         <v>52</v>
       </c>
-      <c r="X12" s="19" t="s">
+      <c r="X12" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Y12" s="19" t="s">
+      <c r="Y12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="Z12" t="s">
         <v>44</v>
       </c>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
       <c r="AC12" t="s">
         <v>81</v>
       </c>
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19" t="s">
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AI12" t="s">
         <v>38</v>
       </c>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
       <c r="AL12" t="s">
         <v>52</v>
       </c>
@@ -2416,39 +2729,39 @@
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
       <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
       <c r="N13" t="s">
         <v>82</v>
       </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
       <c r="Q13" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="19" t="s">
+      <c r="R13" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="19" t="s">
+      <c r="S13" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T13" t="s">
         <v>86</v>
       </c>
-      <c r="U13" s="19" t="s">
+      <c r="U13" s="27" t="s">
         <v>172</v>
       </c>
       <c r="V13" s="4" t="s">
@@ -2457,12 +2770,12 @@
       <c r="W13" t="s">
         <v>28</v>
       </c>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
       <c r="Z13" t="s">
         <v>26</v>
       </c>
-      <c r="AA13" s="19" t="s">
+      <c r="AA13" s="27" t="s">
         <v>87</v>
       </c>
       <c r="AB13" s="6" t="s">
@@ -2473,13 +2786,13 @@
       </c>
       <c r="AD13" s="11"/>
       <c r="AE13" s="10"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
       <c r="AI13" t="s">
         <v>45</v>
       </c>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
       <c r="AL13" t="s">
         <v>82</v>
       </c>
@@ -2487,62 +2800,62 @@
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
       <c r="K14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
       <c r="N14" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
       <c r="Q14" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
       <c r="T14" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19" t="s">
+      <c r="U14" s="27"/>
+      <c r="V14" s="27" t="s">
         <v>36</v>
       </c>
       <c r="W14" t="s">
         <v>38</v>
       </c>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19" t="s">
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27" t="s">
         <v>36</v>
       </c>
       <c r="Z14" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19" t="s">
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC14" t="s">
         <v>38</v>
       </c>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
       <c r="AI14" t="s">
         <v>37</v>
       </c>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
       <c r="AL14" t="s">
         <v>81</v>
       </c>
@@ -2550,13 +2863,13 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="2"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
@@ -2564,44 +2877,44 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
       <c r="Q15" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
       <c r="T15" t="s">
         <v>92</v>
       </c>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
       <c r="W15" t="s">
         <v>52</v>
       </c>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
       <c r="Z15" t="s">
         <v>45</v>
       </c>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
       <c r="AC15" t="s">
         <v>45</v>
       </c>
-      <c r="AG15" s="19" t="s">
+      <c r="AG15" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="AH15" s="19" t="s">
+      <c r="AH15" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AI15" t="s">
         <v>74</v>
       </c>
-      <c r="AJ15" s="19" t="s">
+      <c r="AJ15" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="AK15" s="19" t="s">
+      <c r="AK15" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AL15" t="s">
@@ -2611,15 +2924,15 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="2"/>
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
@@ -2627,38 +2940,38 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
       <c r="Q16" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
       <c r="T16" t="s">
         <v>84</v>
       </c>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
       <c r="W16" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
       <c r="Z16" t="s">
         <v>100</v>
       </c>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
       <c r="AC16" t="s">
         <v>52</v>
       </c>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
       <c r="AI16" t="s">
         <v>26</v>
       </c>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
       <c r="AL16" t="s">
         <v>57</v>
       </c>
@@ -2666,13 +2979,13 @@
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="2"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
@@ -2680,13 +2993,13 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
       <c r="Q17" t="s">
         <v>81</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19" t="s">
+      <c r="R17" s="27"/>
+      <c r="S17" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T17" t="s">
@@ -2694,43 +3007,43 @@
       </c>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
       <c r="Z17" t="s">
         <v>103</v>
       </c>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
       <c r="AC17" t="s">
         <v>59</v>
       </c>
       <c r="AD17" s="11"/>
       <c r="AE17" s="10"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19" t="s">
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AI17" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
       <c r="AL17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="19"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="2"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
@@ -2740,19 +3053,19 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
       <c r="T18" t="s">
         <v>38</v>
       </c>
       <c r="U18" s="11"/>
       <c r="V18" s="4"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
       <c r="Z18" t="s">
         <v>37</v>
       </c>
-      <c r="AA18" s="19" t="s">
+      <c r="AA18" s="27" t="s">
         <v>97</v>
       </c>
       <c r="AB18" t="s">
@@ -2763,25 +3076,25 @@
       </c>
       <c r="AD18" s="11"/>
       <c r="AE18" s="10"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
       <c r="AI18" t="s">
         <v>98</v>
       </c>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
       <c r="AL18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="19"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="2"/>
       <c r="I19" s="11"/>
       <c r="J19" s="4"/>
@@ -2790,20 +3103,20 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
       <c r="T19" t="s">
         <v>46</v>
       </c>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
       <c r="Z19" t="s">
         <v>52</v>
       </c>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19" t="s">
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC19" t="s">
@@ -2811,13 +3124,13 @@
       </c>
       <c r="AD19" s="11"/>
       <c r="AE19" s="10"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
       <c r="AI19" t="s">
         <v>37</v>
       </c>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19" t="s">
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AL19" t="s">
@@ -2825,13 +3138,13 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="19"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="2"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -2841,7 +3154,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="19" t="s">
+      <c r="R20" s="27" t="s">
         <v>102</v>
       </c>
       <c r="S20" s="4" t="s">
@@ -2852,14 +3165,14 @@
       </c>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
       <c r="AC20" t="s">
         <v>52</v>
       </c>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
-      <c r="AG20" s="19" t="s">
+      <c r="AG20" s="27" t="s">
         <v>104</v>
       </c>
       <c r="AH20" t="s">
@@ -2868,20 +3181,20 @@
       <c r="AI20" t="s">
         <v>24</v>
       </c>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
       <c r="AL20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="2"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -2891,8 +3204,8 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19" t="s">
+      <c r="R21" s="27"/>
+      <c r="S21" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T21" t="s">
@@ -2900,10 +3213,10 @@
       </c>
       <c r="U21" s="11"/>
       <c r="V21" s="4"/>
-      <c r="AA21" s="19" t="s">
+      <c r="AA21" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" s="19" t="s">
+      <c r="AB21" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AC21" t="s">
@@ -2911,29 +3224,29 @@
       </c>
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19" t="s">
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AI21" t="s">
         <v>38</v>
       </c>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
       <c r="AL21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C22" s="19"/>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="19"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="2"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -2942,39 +3255,39 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
       <c r="T22" t="s">
         <v>45</v>
       </c>
       <c r="U22" s="11"/>
       <c r="V22" s="4"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
       <c r="AC22" t="s">
         <v>108</v>
       </c>
       <c r="AD22" s="11"/>
       <c r="AE22" s="10"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
       <c r="AI22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
       <c r="AL22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F23" s="11"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="2"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -2983,8 +3296,8 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
       <c r="T23" t="s">
         <v>52</v>
       </c>
@@ -2992,8 +3305,8 @@
       <c r="V23" s="4"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19" t="s">
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC23" t="s">
@@ -3001,25 +3314,25 @@
       </c>
       <c r="AD23" s="11"/>
       <c r="AE23" s="10"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
       <c r="AI23" t="s">
         <v>37</v>
       </c>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
       <c r="AL23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="19"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="2"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -3028,10 +3341,10 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="19" t="s">
+      <c r="R24" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="S24" s="19" t="s">
+      <c r="S24" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T24" t="s">
@@ -3041,17 +3354,17 @@
       <c r="V24" s="4"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
       <c r="AC24" t="s">
         <v>45</v>
       </c>
       <c r="AD24" s="11"/>
       <c r="AE24" s="10"/>
-      <c r="AG24" s="19" t="s">
+      <c r="AG24" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="AH24" s="19" t="s">
+      <c r="AH24" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AI24" t="s">
@@ -3061,17 +3374,17 @@
       <c r="AK24" s="11"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="11"/>
-      <c r="G25" s="19"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="2"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -3079,8 +3392,8 @@
       <c r="M25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
       <c r="T25" t="s">
         <v>31</v>
       </c>
@@ -3088,15 +3401,15 @@
       <c r="V25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
       <c r="AC25" t="s">
         <v>59</v>
       </c>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
       <c r="AI25" t="s">
         <v>23</v>
       </c>
@@ -3104,13 +3417,13 @@
       <c r="AK25" s="11"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" t="s">
         <v>114</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="19"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="2"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -3118,8 +3431,8 @@
       <c r="M26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
       <c r="T26" t="s">
         <v>64</v>
       </c>
@@ -3127,10 +3440,10 @@
       <c r="V26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="AA26" s="19" t="s">
+      <c r="AA26" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="AB26" s="19" t="s">
+      <c r="AB26" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AC26" t="s">
@@ -3138,8 +3451,8 @@
       </c>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
       <c r="AI26" t="s">
         <v>114</v>
       </c>
@@ -3147,15 +3460,15 @@
       <c r="AK26" s="11"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="G27" s="19"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="2"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -3163,8 +3476,8 @@
       <c r="M27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
       <c r="T27" t="s">
         <v>49</v>
       </c>
@@ -3172,15 +3485,15 @@
       <c r="V27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
       <c r="AC27" t="s">
         <v>69</v>
       </c>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19" t="s">
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AI27" t="s">
@@ -3189,13 +3502,13 @@
       <c r="AJ27" s="11"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="2"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -3203,7 +3516,7 @@
       <c r="M28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="R28" s="19"/>
+      <c r="R28" s="27"/>
       <c r="S28" s="4" t="s">
         <v>36</v>
       </c>
@@ -3214,8 +3527,8 @@
       <c r="V28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19" t="s">
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC28" t="s">
@@ -3223,8 +3536,8 @@
       </c>
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
       <c r="AI28" t="s">
         <v>58</v>
       </c>
@@ -3232,13 +3545,13 @@
       <c r="AK28" s="11"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="19"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="2"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -3246,10 +3559,10 @@
       <c r="M29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="R29" s="19" t="s">
+      <c r="R29" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="S29" s="19" t="s">
+      <c r="S29" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T29" t="s">
@@ -3259,15 +3572,15 @@
       <c r="V29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
       <c r="AC29" t="s">
         <v>52</v>
       </c>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
       <c r="AI29" t="s">
         <v>98</v>
       </c>
@@ -3275,17 +3588,17 @@
       <c r="AK29" s="11"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="19"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="2"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -3293,8 +3606,8 @@
       <c r="M30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
       <c r="T30" t="s">
         <v>92</v>
       </c>
@@ -3302,7 +3615,7 @@
       <c r="V30" s="5"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
-      <c r="AA30" s="19" t="s">
+      <c r="AA30" s="27" t="s">
         <v>121</v>
       </c>
       <c r="AB30" t="s">
@@ -3313,8 +3626,8 @@
       </c>
       <c r="AD30" s="11"/>
       <c r="AE30" s="10"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
       <c r="AI30" t="s">
         <v>52</v>
       </c>
@@ -3322,13 +3635,13 @@
       <c r="AK30" s="11"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="19"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="2"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -3336,8 +3649,8 @@
       <c r="M31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="5"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19" t="s">
+      <c r="R31" s="27"/>
+      <c r="S31" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T31" t="s">
@@ -3347,8 +3660,8 @@
       <c r="V31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19" t="s">
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC31" t="s">
@@ -3356,10 +3669,10 @@
       </c>
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
-      <c r="AG31" s="19" t="s">
+      <c r="AG31" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AH31" s="19" t="s">
+      <c r="AH31" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AI31" t="s">
@@ -3368,13 +3681,13 @@
       <c r="AJ31" s="11"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
       <c r="E32" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="19"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="2"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
@@ -3382,8 +3695,8 @@
       <c r="M32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
       <c r="T32" t="s">
         <v>37</v>
       </c>
@@ -3391,15 +3704,15 @@
       <c r="V32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
       <c r="AC32" t="s">
         <v>52</v>
       </c>
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
       <c r="AI32" t="s">
         <v>68</v>
       </c>
@@ -3407,22 +3720,22 @@
       <c r="AK32" s="11"/>
     </row>
     <row r="33" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
       <c r="E33" t="s">
         <v>123</v>
       </c>
       <c r="F33" s="11"/>
-      <c r="G33" s="19"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="2"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="R33" s="19" t="s">
+      <c r="R33" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="S33" s="19" t="s">
+      <c r="S33" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T33" t="s">
@@ -3432,10 +3745,10 @@
       <c r="V33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
-      <c r="AA33" s="19" t="s">
+      <c r="AA33" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AB33" s="19" t="s">
+      <c r="AB33" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AC33" t="s">
@@ -3443,8 +3756,8 @@
       </c>
       <c r="AD33" s="11"/>
       <c r="AE33" s="4"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="19" t="s">
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AI33" t="s">
@@ -3454,20 +3767,20 @@
       <c r="AK33" s="11"/>
     </row>
     <row r="34" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
       <c r="E34" t="s">
         <v>69</v>
       </c>
       <c r="F34" s="11"/>
-      <c r="G34" s="19"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="2"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
       <c r="T34" t="s">
         <v>50</v>
       </c>
@@ -3475,13 +3788,13 @@
       <c r="V34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
       <c r="AC34" t="s">
         <v>35</v>
       </c>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
       <c r="AI34" t="s">
         <v>98</v>
       </c>
@@ -3489,22 +3802,22 @@
       <c r="AK34" s="11"/>
     </row>
     <row r="35" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="11"/>
-      <c r="G35" s="19"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="2"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="5"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
       <c r="T35" t="s">
         <v>123</v>
       </c>
@@ -3512,13 +3825,13 @@
       <c r="V35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
       <c r="AC35" t="s">
         <v>44</v>
       </c>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="19"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
       <c r="AI35" t="s">
         <v>37</v>
       </c>
@@ -3526,20 +3839,20 @@
       <c r="AK35" s="11"/>
     </row>
     <row r="36" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="11"/>
-      <c r="G36" s="19"/>
+      <c r="G36" s="27"/>
       <c r="H36" s="2"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
       <c r="T36" t="s">
         <v>84</v>
       </c>
@@ -3547,12 +3860,12 @@
       <c r="V36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
       <c r="AC36" t="s">
         <v>20</v>
       </c>
-      <c r="AG36" s="19" t="s">
+      <c r="AG36" s="27" t="s">
         <v>129</v>
       </c>
       <c r="AH36" s="5" t="s">
@@ -3564,20 +3877,20 @@
       <c r="AJ36" s="11"/>
     </row>
     <row r="37" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" t="s">
         <v>37</v>
       </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="19"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="2"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19" t="s">
+      <c r="R37" s="27"/>
+      <c r="S37" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T37" t="s">
@@ -3587,12 +3900,12 @@
       <c r="V37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
       <c r="AC37" t="s">
         <v>57</v>
       </c>
-      <c r="AG37" s="19"/>
+      <c r="AG37" s="27"/>
       <c r="AH37" s="5" t="s">
         <v>36</v>
       </c>
@@ -3603,23 +3916,23 @@
       <c r="AK37" s="11"/>
     </row>
     <row r="38" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E38" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="11"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="27"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
       <c r="T38" t="s">
         <v>131</v>
       </c>
@@ -3627,17 +3940,17 @@
       <c r="V38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
       <c r="AC38" t="s">
         <v>84</v>
       </c>
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
-      <c r="AG38" s="19" t="s">
+      <c r="AG38" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="AH38" s="19" t="s">
+      <c r="AH38" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AI38" t="s">
@@ -3647,19 +3960,19 @@
       <c r="AK38" s="11"/>
     </row>
     <row r="39" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="E39" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="11"/>
-      <c r="G39" s="19"/>
+      <c r="G39" s="27"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="19" t="s">
+      <c r="R39" s="27" t="s">
         <v>133</v>
       </c>
       <c r="S39" s="4" t="s">
@@ -3670,7 +3983,7 @@
       </c>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
-      <c r="AA39" s="19"/>
+      <c r="AA39" s="27"/>
       <c r="AB39" s="5" t="s">
         <v>36</v>
       </c>
@@ -3679,8 +3992,8 @@
       </c>
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
+      <c r="AG39" s="27"/>
+      <c r="AH39" s="27"/>
       <c r="AI39" t="s">
         <v>92</v>
       </c>
@@ -3688,20 +4001,20 @@
       <c r="AK39" s="11"/>
     </row>
     <row r="40" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" t="s">
         <v>114</v>
       </c>
       <c r="F40" s="11"/>
-      <c r="G40" s="19"/>
+      <c r="G40" s="27"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19" t="s">
+      <c r="R40" s="27"/>
+      <c r="S40" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T40" t="s">
@@ -3709,10 +4022,10 @@
       </c>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
-      <c r="AA40" s="19" t="s">
+      <c r="AA40" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="AB40" s="19" t="s">
+      <c r="AB40" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AC40" t="s">
@@ -3720,8 +4033,8 @@
       </c>
       <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="27"/>
       <c r="AI40" t="s">
         <v>84</v>
       </c>
@@ -3729,36 +4042,36 @@
       <c r="AK40" s="11"/>
     </row>
     <row r="41" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C41" s="19"/>
-      <c r="D41" s="19" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E41" t="s">
         <v>58</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="19"/>
+      <c r="G41" s="27"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
       <c r="T41" t="s">
         <v>45</v>
       </c>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
       <c r="AC41" t="s">
         <v>44</v>
       </c>
       <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19" t="s">
+      <c r="AG41" s="27"/>
+      <c r="AH41" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AI41" t="s">
@@ -3768,20 +4081,20 @@
       <c r="AK41" s="11"/>
     </row>
     <row r="42" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
       <c r="E42" t="s">
         <v>45</v>
       </c>
       <c r="F42" s="11"/>
-      <c r="G42" s="19"/>
+      <c r="G42" s="27"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
       <c r="T42" t="s">
         <v>52</v>
       </c>
@@ -3789,15 +4102,15 @@
       <c r="V42" s="4"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
       <c r="AC42" t="s">
         <v>26</v>
       </c>
       <c r="AD42" s="11"/>
       <c r="AE42" s="11"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
+      <c r="AG42" s="27"/>
+      <c r="AH42" s="27"/>
       <c r="AI42" t="s">
         <v>83</v>
       </c>
@@ -3805,20 +4118,20 @@
       <c r="AK42" s="11"/>
     </row>
     <row r="43" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
       <c r="E43" t="s">
         <v>52</v>
       </c>
       <c r="F43" s="11"/>
-      <c r="G43" s="19"/>
+      <c r="G43" s="27"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
       <c r="T43" t="s">
         <v>81</v>
       </c>
@@ -3826,8 +4139,8 @@
       <c r="V43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
       <c r="AC43" t="s">
         <v>33</v>
       </c>
@@ -3836,26 +4149,26 @@
       <c r="AJ43" s="11"/>
     </row>
     <row r="44" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
         <v>49</v>
       </c>
       <c r="F44" s="11"/>
-      <c r="G44" s="19"/>
+      <c r="G44" s="27"/>
       <c r="I44" s="11"/>
       <c r="J44" s="4"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="19" t="s">
+      <c r="R44" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="S44" s="19" t="s">
+      <c r="S44" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T44" t="s">
@@ -3865,8 +4178,8 @@
       <c r="V44" s="11"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
       <c r="AC44" t="s">
         <v>123</v>
       </c>
@@ -3874,20 +4187,20 @@
       <c r="AE44" s="11"/>
     </row>
     <row r="45" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="E45" t="s">
         <v>72</v>
       </c>
       <c r="F45" s="11"/>
-      <c r="G45" s="19"/>
+      <c r="G45" s="27"/>
       <c r="I45" s="11"/>
       <c r="J45" s="4"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
       <c r="T45" t="s">
         <v>24</v>
       </c>
@@ -3895,8 +4208,8 @@
       <c r="V45" s="11"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
       <c r="AC45" t="s">
         <v>49</v>
       </c>
@@ -3904,23 +4217,23 @@
       <c r="AE45" s="5"/>
     </row>
     <row r="46" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C46" s="19"/>
-      <c r="D46" s="19" t="s">
+      <c r="C46" s="27"/>
+      <c r="D46" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="19"/>
+      <c r="G46" s="27"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="5"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
       <c r="T46" t="s">
         <v>92</v>
       </c>
@@ -3928,7 +4241,7 @@
       <c r="V46" s="11"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
-      <c r="AA46" s="19"/>
+      <c r="AA46" s="27"/>
       <c r="AB46" s="5" t="s">
         <v>36</v>
       </c>
@@ -3939,21 +4252,21 @@
       <c r="AE46" s="11"/>
     </row>
     <row r="47" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
       <c r="E47" t="s">
         <v>135</v>
       </c>
       <c r="F47" s="11"/>
-      <c r="G47" s="19"/>
+      <c r="G47" s="27"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
       <c r="T47" t="s">
         <v>50</v>
       </c>
@@ -3961,10 +4274,10 @@
       <c r="V47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
-      <c r="AA47" s="19" t="s">
+      <c r="AA47" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AB47" s="19" t="s">
+      <c r="AB47" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AC47" t="s">
@@ -3974,25 +4287,25 @@
       <c r="AE47" s="11"/>
     </row>
     <row r="48" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="s">
         <v>33</v>
       </c>
       <c r="F48" s="11"/>
-      <c r="G48" s="19"/>
+      <c r="G48" s="27"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
       <c r="T48" t="s">
         <v>145</v>
       </c>
@@ -4000,8 +4313,8 @@
       <c r="V48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="19"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
       <c r="AC48" t="s">
         <v>84</v>
       </c>
@@ -4009,21 +4322,21 @@
       <c r="AE48" s="4"/>
     </row>
     <row r="49" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
       <c r="E49" t="s">
         <v>63</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="19"/>
+      <c r="G49" s="27"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
       <c r="T49" t="s">
         <v>57</v>
       </c>
@@ -4031,30 +4344,30 @@
       <c r="V49" s="11"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
       <c r="AC49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C50" s="19"/>
-      <c r="D50" s="19" t="s">
+      <c r="C50" s="27"/>
+      <c r="D50" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E50" t="s">
         <v>56</v>
       </c>
       <c r="F50" s="11"/>
-      <c r="G50" s="19"/>
+      <c r="G50" s="27"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19" t="s">
+      <c r="R50" s="27"/>
+      <c r="S50" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T50" t="s">
@@ -4064,8 +4377,8 @@
       <c r="V50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="20" t="s">
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="31" t="s">
         <v>36</v>
       </c>
       <c r="AC50" t="s">
@@ -4073,21 +4386,21 @@
       </c>
     </row>
     <row r="51" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
       <c r="E51" t="s">
         <v>99</v>
       </c>
       <c r="F51" s="11"/>
-      <c r="G51" s="19"/>
+      <c r="G51" s="27"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
       <c r="T51" t="s">
         <v>99</v>
       </c>
@@ -4095,18 +4408,18 @@
       <c r="V51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="20"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="31"/>
       <c r="AC51" t="s">
         <v>99</v>
       </c>
       <c r="AJ51" s="11"/>
     </row>
     <row r="52" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E52" t="s">
@@ -4120,8 +4433,8 @@
       <c r="M52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
       <c r="T52" t="s">
         <v>78</v>
       </c>
@@ -4129,7 +4442,7 @@
       <c r="V52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
-      <c r="AA52" s="19" t="s">
+      <c r="AA52" s="27" t="s">
         <v>148</v>
       </c>
       <c r="AB52" s="5" t="s">
@@ -4142,19 +4455,19 @@
       <c r="AK52" s="11"/>
     </row>
     <row r="53" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
       <c r="E53" t="s">
         <v>92</v>
       </c>
       <c r="F53" s="11"/>
-      <c r="G53" s="19"/>
+      <c r="G53" s="27"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
       <c r="T53" t="s">
         <v>52</v>
       </c>
@@ -4162,8 +4475,8 @@
       <c r="V53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19" t="s">
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC53" t="s">
@@ -4173,19 +4486,19 @@
       <c r="AK53" s="11"/>
     </row>
     <row r="54" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
       <c r="E54" t="s">
         <v>50</v>
       </c>
       <c r="F54" s="11"/>
-      <c r="G54" s="19"/>
+      <c r="G54" s="27"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="5"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
       <c r="T54" t="s">
         <v>81</v>
       </c>
@@ -4193,26 +4506,26 @@
       <c r="V54" s="4"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
-      <c r="AA54" s="19"/>
-      <c r="AB54" s="19"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
       <c r="AC54" t="s">
         <v>45</v>
       </c>
       <c r="AJ54" s="11"/>
     </row>
     <row r="55" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
       <c r="E55" t="s">
         <v>84</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="19"/>
+      <c r="G55" s="27"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="R55" s="19" t="s">
+      <c r="R55" s="27" t="s">
         <v>150</v>
       </c>
       <c r="S55" s="4" t="s">
@@ -4225,8 +4538,8 @@
       <c r="V55" s="11"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="27"/>
       <c r="AC55" t="s">
         <v>52</v>
       </c>
@@ -4234,19 +4547,19 @@
       <c r="AK55" s="11"/>
     </row>
     <row r="56" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
       <c r="E56" t="s">
         <v>69</v>
       </c>
       <c r="F56" s="11"/>
-      <c r="G56" s="19"/>
+      <c r="G56" s="27"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19" t="s">
+      <c r="R56" s="27"/>
+      <c r="S56" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T56" t="s">
@@ -4256,8 +4569,8 @@
       <c r="V56" s="11"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
-      <c r="AA56" s="19"/>
-      <c r="AB56" s="19"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="27"/>
       <c r="AC56" t="s">
         <v>59</v>
       </c>
@@ -4265,21 +4578,21 @@
       <c r="AK56" s="11"/>
     </row>
     <row r="57" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C57" s="19"/>
-      <c r="D57" s="19" t="s">
+      <c r="C57" s="27"/>
+      <c r="D57" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E57" t="s">
         <v>99</v>
       </c>
       <c r="F57" s="11"/>
-      <c r="G57" s="19"/>
+      <c r="G57" s="27"/>
       <c r="L57" s="11"/>
       <c r="M57" s="4"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
       <c r="T57" t="s">
         <v>52</v>
       </c>
@@ -4287,7 +4600,7 @@
       <c r="V57" s="11"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
-      <c r="AA57" s="19" t="s">
+      <c r="AA57" s="27" t="s">
         <v>152</v>
       </c>
       <c r="AB57" s="5" t="s">
@@ -4300,19 +4613,19 @@
       <c r="AK57" s="11"/>
     </row>
     <row r="58" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
       <c r="E58" t="s">
         <v>46</v>
       </c>
       <c r="F58" s="11"/>
-      <c r="G58" s="19"/>
+      <c r="G58" s="27"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
       <c r="T58" t="s">
         <v>81</v>
       </c>
@@ -4320,8 +4633,8 @@
       <c r="V58" s="11"/>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="19" t="s">
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC58" t="s">
@@ -4332,15 +4645,15 @@
     </row>
     <row r="59" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F59" s="11"/>
-      <c r="G59" s="19"/>
+      <c r="G59" s="27"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="R59" s="19" t="s">
+      <c r="R59" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="S59" s="19" t="s">
+      <c r="S59" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T59" t="s">
@@ -4350,8 +4663,8 @@
       <c r="V59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
-      <c r="AA59" s="19"/>
-      <c r="AB59" s="19"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
       <c r="AC59" t="s">
         <v>45</v>
       </c>
@@ -4360,13 +4673,13 @@
     </row>
     <row r="60" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F60" s="11"/>
-      <c r="G60" s="19"/>
+      <c r="G60" s="27"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
       <c r="T60" t="s">
         <v>20</v>
       </c>
@@ -4374,21 +4687,21 @@
       <c r="V60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="19"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="27"/>
       <c r="AC60" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="61" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F61" s="11"/>
-      <c r="G61" s="19"/>
+      <c r="G61" s="27"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
       <c r="T61" t="s">
         <v>69</v>
       </c>
@@ -4396,7 +4709,7 @@
       <c r="V61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
-      <c r="AA61" s="19" t="s">
+      <c r="AA61" s="27" t="s">
         <v>155</v>
       </c>
       <c r="AB61" s="5" t="s">
@@ -4408,13 +4721,13 @@
     </row>
     <row r="62" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F62" s="11"/>
-      <c r="G62" s="19"/>
+      <c r="G62" s="27"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19" t="s">
+      <c r="R62" s="27"/>
+      <c r="S62" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T62" t="s">
@@ -4424,8 +4737,8 @@
       <c r="V62" s="4"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
-      <c r="AA62" s="19"/>
-      <c r="AB62" s="19" t="s">
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC62" t="s">
@@ -4434,11 +4747,11 @@
     </row>
     <row r="63" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F63" s="11"/>
-      <c r="G63" s="19"/>
+      <c r="G63" s="27"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
       <c r="T63" t="s">
         <v>99</v>
       </c>
@@ -4446,19 +4759,19 @@
       <c r="V63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
-      <c r="AA63" s="19"/>
-      <c r="AB63" s="19"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
       <c r="AC63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="64" spans="3:37" x14ac:dyDescent="0.25">
       <c r="F64" s="11"/>
-      <c r="G64" s="19"/>
+      <c r="G64" s="27"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
       <c r="T64" t="s">
         <v>46</v>
       </c>
@@ -4466,7 +4779,7 @@
       <c r="V64" s="11"/>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
-      <c r="AA64" s="19" t="s">
+      <c r="AA64" s="27" t="s">
         <v>158</v>
       </c>
       <c r="AB64" t="s">
@@ -4478,13 +4791,13 @@
     </row>
     <row r="65" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F65" s="11"/>
-      <c r="G65" s="19"/>
+      <c r="G65" s="27"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
-      <c r="R65" s="19" t="s">
+      <c r="R65" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="S65" s="19" t="s">
+      <c r="S65" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T65" t="s">
@@ -4494,8 +4807,8 @@
       <c r="V65" s="11"/>
       <c r="X65" s="11"/>
       <c r="Y65" s="11"/>
-      <c r="AA65" s="19"/>
-      <c r="AB65" s="19" t="s">
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC65" t="s">
@@ -4504,53 +4817,53 @@
     </row>
     <row r="66" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F66" s="11"/>
-      <c r="G66" s="19"/>
+      <c r="G66" s="27"/>
       <c r="I66" s="11"/>
       <c r="J66" s="4"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
       <c r="T66" t="s">
         <v>20</v>
       </c>
       <c r="X66" s="11"/>
       <c r="Y66" s="11"/>
-      <c r="AA66" s="19"/>
-      <c r="AB66" s="19"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
       <c r="AC66" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F67" s="11"/>
-      <c r="G67" s="19"/>
+      <c r="G67" s="27"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
       <c r="T67" t="s">
         <v>84</v>
       </c>
       <c r="X67" s="11"/>
       <c r="Y67" s="11"/>
-      <c r="AA67" s="19"/>
-      <c r="AB67" s="19"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="27"/>
       <c r="AC67" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="68" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F68" s="11"/>
-      <c r="G68" s="19"/>
+      <c r="G68" s="27"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19" t="s">
+      <c r="R68" s="27"/>
+      <c r="S68" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T68" t="s">
@@ -4558,10 +4871,10 @@
       </c>
       <c r="X68" s="11"/>
       <c r="Y68" s="11"/>
-      <c r="AA68" s="19" t="s">
+      <c r="AA68" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="AB68" s="19" t="s">
+      <c r="AB68" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AC68" t="s">
@@ -4570,13 +4883,13 @@
     </row>
     <row r="69" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F69" s="11"/>
-      <c r="G69" s="19"/>
+      <c r="G69" s="27"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="5"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
       <c r="T69" t="s">
         <v>52</v>
       </c>
@@ -4584,8 +4897,8 @@
       <c r="V69" s="4"/>
       <c r="X69" s="11"/>
       <c r="Y69" s="5"/>
-      <c r="AA69" s="19"/>
-      <c r="AB69" s="19"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
       <c r="AC69" t="s">
         <v>35</v>
       </c>
@@ -4593,15 +4906,15 @@
     </row>
     <row r="70" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F70" s="11"/>
-      <c r="G70" s="19"/>
+      <c r="G70" s="27"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
-      <c r="R70" s="19" t="s">
+      <c r="R70" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="S70" s="19" t="s">
+      <c r="S70" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T70" t="s">
@@ -4611,8 +4924,8 @@
       <c r="V70" s="11"/>
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
-      <c r="AA70" s="19"/>
-      <c r="AB70" s="19"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="27"/>
       <c r="AC70" t="s">
         <v>20</v>
       </c>
@@ -4621,13 +4934,13 @@
     </row>
     <row r="71" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F71" s="11"/>
-      <c r="G71" s="19"/>
+      <c r="G71" s="27"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
       <c r="T71" t="s">
         <v>32</v>
       </c>
@@ -4635,8 +4948,8 @@
       <c r="V71" s="11"/>
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
-      <c r="AA71" s="19"/>
-      <c r="AB71" s="19" t="s">
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC71" t="s">
@@ -4647,20 +4960,20 @@
     </row>
     <row r="72" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F72" s="11"/>
-      <c r="G72" s="19"/>
+      <c r="G72" s="27"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="27"/>
       <c r="T72" t="s">
         <v>163</v>
       </c>
       <c r="U72" s="11"/>
       <c r="V72" s="11"/>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="19"/>
+      <c r="AA72" s="27"/>
+      <c r="AB72" s="27"/>
       <c r="AC72" t="s">
         <v>38</v>
       </c>
@@ -4669,80 +4982,80 @@
     </row>
     <row r="73" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F73" s="11"/>
-      <c r="G73" s="19"/>
+      <c r="G73" s="27"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
       <c r="T73" t="s">
         <v>35</v>
       </c>
       <c r="U73" s="11"/>
       <c r="V73" s="11"/>
-      <c r="AA73" s="19"/>
-      <c r="AB73" s="19"/>
+      <c r="AA73" s="27"/>
+      <c r="AB73" s="27"/>
       <c r="AC73" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="74" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F74" s="11"/>
-      <c r="G74" s="19"/>
+      <c r="G74" s="27"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
       <c r="T74" t="s">
         <v>24</v>
       </c>
       <c r="U74" s="11"/>
       <c r="V74" s="4"/>
-      <c r="AA74" s="19"/>
-      <c r="AB74" s="19"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
       <c r="AC74" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="75" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F75" s="11"/>
-      <c r="G75" s="19"/>
+      <c r="G75" s="27"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
       <c r="T75" t="s">
         <v>92</v>
       </c>
       <c r="U75" s="11"/>
       <c r="V75" s="11"/>
-      <c r="AA75" s="19"/>
-      <c r="AB75" s="19"/>
+      <c r="AA75" s="27"/>
+      <c r="AB75" s="27"/>
       <c r="AC75" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="76" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F76" s="11"/>
-      <c r="G76" s="19"/>
+      <c r="G76" s="27"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
       <c r="T76" t="s">
         <v>50</v>
       </c>
       <c r="U76" s="11"/>
       <c r="V76" s="11"/>
       <c r="X76" s="8"/>
-      <c r="AA76" s="19" t="s">
+      <c r="AA76" s="27" t="s">
         <v>133</v>
       </c>
       <c r="AB76" t="s">
@@ -4754,20 +5067,20 @@
     </row>
     <row r="77" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F77" s="11"/>
-      <c r="G77" s="19"/>
+      <c r="G77" s="27"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
       <c r="T77" t="s">
         <v>145</v>
       </c>
       <c r="U77" s="11"/>
       <c r="V77" s="4"/>
-      <c r="AA77" s="19"/>
-      <c r="AB77" s="19" t="s">
+      <c r="AA77" s="27"/>
+      <c r="AB77" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC77" t="s">
@@ -4776,35 +5089,35 @@
     </row>
     <row r="78" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F78" s="11"/>
-      <c r="G78" s="19"/>
+      <c r="G78" s="27"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="19"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
       <c r="T78" t="s">
         <v>69</v>
       </c>
       <c r="U78" s="11"/>
       <c r="V78" s="11"/>
-      <c r="AA78" s="19"/>
-      <c r="AB78" s="19"/>
+      <c r="AA78" s="27"/>
+      <c r="AB78" s="27"/>
       <c r="AC78" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="79" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F79" s="11"/>
-      <c r="G79" s="19"/>
+      <c r="G79" s="27"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19" t="s">
+      <c r="R79" s="27"/>
+      <c r="S79" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T79" t="s">
@@ -4812,49 +5125,49 @@
       </c>
       <c r="U79" s="11"/>
       <c r="V79" s="11"/>
-      <c r="AA79" s="19"/>
-      <c r="AB79" s="19"/>
+      <c r="AA79" s="27"/>
+      <c r="AB79" s="27"/>
       <c r="AC79" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="80" spans="6:37" x14ac:dyDescent="0.25">
       <c r="F80" s="11"/>
-      <c r="G80" s="19"/>
+      <c r="G80" s="27"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="19"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
       <c r="T80" t="s">
         <v>38</v>
       </c>
       <c r="U80" s="11"/>
       <c r="V80" s="11"/>
-      <c r="AA80" s="19"/>
-      <c r="AB80" s="19"/>
+      <c r="AA80" s="27"/>
+      <c r="AB80" s="27"/>
       <c r="AC80" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="81" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F81" s="11"/>
-      <c r="G81" s="19"/>
+      <c r="G81" s="27"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
       <c r="T81" t="s">
         <v>45</v>
       </c>
-      <c r="AA81" s="19" t="s">
+      <c r="AA81" s="27" t="s">
         <v>166</v>
       </c>
       <c r="AB81" t="s">
@@ -4866,20 +5179,20 @@
     </row>
     <row r="82" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F82" s="11"/>
-      <c r="G82" s="19"/>
+      <c r="G82" s="27"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
       <c r="T82" t="s">
         <v>37</v>
       </c>
-      <c r="AA82" s="19"/>
-      <c r="AB82" s="19" t="s">
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC82" t="s">
@@ -4888,39 +5201,39 @@
     </row>
     <row r="83" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F83" s="11"/>
-      <c r="G83" s="19"/>
+      <c r="G83" s="27"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
-      <c r="R83" s="19"/>
-      <c r="S83" s="19"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
       <c r="T83" t="s">
         <v>52</v>
       </c>
-      <c r="AA83" s="19"/>
-      <c r="AB83" s="19"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
       <c r="AC83" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="84" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F84" s="11"/>
-      <c r="G84" s="19"/>
+      <c r="G84" s="27"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
       <c r="T84" t="s">
         <v>81</v>
       </c>
-      <c r="AA84" s="19" t="s">
+      <c r="AA84" s="27" t="s">
         <v>167</v>
       </c>
       <c r="AB84" t="s">
@@ -4932,24 +5245,24 @@
     </row>
     <row r="85" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F85" s="11"/>
-      <c r="G85" s="19"/>
+      <c r="G85" s="27"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
-      <c r="R85" s="19" t="s">
+      <c r="R85" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="S85" s="19" t="s">
+      <c r="S85" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T85" t="s">
         <v>21</v>
       </c>
-      <c r="AA85" s="19"/>
-      <c r="AB85" s="19" t="s">
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AC85" t="s">
@@ -4958,22 +5271,22 @@
     </row>
     <row r="86" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F86" s="11"/>
-      <c r="G86" s="19"/>
+      <c r="G86" s="27"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
+      <c r="R86" s="27"/>
+      <c r="S86" s="27"/>
       <c r="T86" t="s">
         <v>68</v>
       </c>
       <c r="U86" s="11"/>
       <c r="V86" s="4"/>
-      <c r="AA86" s="19"/>
-      <c r="AB86" s="19"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
       <c r="AC86" t="s">
         <v>52</v>
       </c>
@@ -4985,8 +5298,8 @@
       <c r="M87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
+      <c r="R87" s="27"/>
+      <c r="S87" s="27"/>
       <c r="T87" t="s">
         <v>84</v>
       </c>
@@ -5000,8 +5313,8 @@
       <c r="M88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
+      <c r="R88" s="27"/>
+      <c r="S88" s="27"/>
       <c r="T88" t="s">
         <v>69</v>
       </c>
@@ -5015,7 +5328,7 @@
       <c r="M89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
-      <c r="R89" s="19"/>
+      <c r="R89" s="27"/>
       <c r="S89" s="4" t="s">
         <v>36</v>
       </c>
@@ -5032,10 +5345,10 @@
       <c r="M90" s="11"/>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
-      <c r="R90" s="19" t="s">
+      <c r="R90" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="S90" s="19" t="s">
+      <c r="S90" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T90" t="s">
@@ -5051,8 +5364,8 @@
       <c r="M91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
+      <c r="R91" s="27"/>
+      <c r="S91" s="27"/>
       <c r="T91" t="s">
         <v>35</v>
       </c>
@@ -5066,8 +5379,8 @@
       <c r="M92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
-      <c r="R92" s="19"/>
-      <c r="S92" s="19"/>
+      <c r="R92" s="27"/>
+      <c r="S92" s="27"/>
       <c r="T92" t="s">
         <v>92</v>
       </c>
@@ -5081,8 +5394,8 @@
       <c r="M93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
       <c r="T93" t="s">
         <v>50</v>
       </c>
@@ -5096,8 +5409,8 @@
       <c r="M94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
-      <c r="R94" s="19"/>
-      <c r="S94" s="19" t="s">
+      <c r="R94" s="27"/>
+      <c r="S94" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T94" t="s">
@@ -5113,8 +5426,8 @@
       <c r="M95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
-      <c r="R95" s="19"/>
-      <c r="S95" s="19"/>
+      <c r="R95" s="27"/>
+      <c r="S95" s="27"/>
       <c r="T95" t="s">
         <v>38</v>
       </c>
@@ -5128,8 +5441,8 @@
       <c r="M96" s="11"/>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
-      <c r="R96" s="19"/>
-      <c r="S96" s="19"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27"/>
       <c r="T96" t="s">
         <v>45</v>
       </c>
@@ -5141,8 +5454,8 @@
       <c r="M97" s="11"/>
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
-      <c r="R97" s="19"/>
-      <c r="S97" s="19"/>
+      <c r="R97" s="27"/>
+      <c r="S97" s="27"/>
       <c r="T97" t="s">
         <v>99</v>
       </c>
@@ -5154,10 +5467,10 @@
       <c r="M98" s="11"/>
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
-      <c r="R98" s="19" t="s">
+      <c r="R98" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="S98" s="19" t="s">
+      <c r="S98" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T98" t="s">
@@ -5171,8 +5484,8 @@
       <c r="M99" s="11"/>
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
-      <c r="R99" s="19"/>
-      <c r="S99" s="19"/>
+      <c r="R99" s="27"/>
+      <c r="S99" s="27"/>
       <c r="T99" t="s">
         <v>123</v>
       </c>
@@ -5184,8 +5497,8 @@
       <c r="M100" s="11"/>
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
-      <c r="R100" s="19"/>
-      <c r="S100" s="19"/>
+      <c r="R100" s="27"/>
+      <c r="S100" s="27"/>
       <c r="T100" t="s">
         <v>69</v>
       </c>
@@ -5199,8 +5512,8 @@
       <c r="M101" s="11"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19" t="s">
+      <c r="R101" s="27"/>
+      <c r="S101" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T101" t="s">
@@ -5216,8 +5529,8 @@
       <c r="M102" s="11"/>
       <c r="O102" s="11"/>
       <c r="P102" s="11"/>
-      <c r="R102" s="19"/>
-      <c r="S102" s="19"/>
+      <c r="R102" s="27"/>
+      <c r="S102" s="27"/>
       <c r="T102" t="s">
         <v>52</v>
       </c>
@@ -5231,10 +5544,10 @@
       <c r="M103" s="11"/>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
-      <c r="R103" s="19" t="s">
+      <c r="R103" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="S103" s="19" t="s">
+      <c r="S103" s="27" t="s">
         <v>17</v>
       </c>
       <c r="T103" t="s">
@@ -5250,8 +5563,8 @@
       <c r="M104" s="11"/>
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
-      <c r="R104" s="19"/>
-      <c r="S104" s="19"/>
+      <c r="R104" s="27"/>
+      <c r="S104" s="27"/>
       <c r="T104" t="s">
         <v>21</v>
       </c>
@@ -5265,8 +5578,8 @@
       <c r="M105" s="12"/>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
-      <c r="R105" s="19"/>
-      <c r="S105" s="19"/>
+      <c r="R105" s="27"/>
+      <c r="S105" s="27"/>
       <c r="T105" t="s">
         <v>35</v>
       </c>
@@ -5280,8 +5593,8 @@
       <c r="M106" s="12"/>
       <c r="O106" s="11"/>
       <c r="P106" s="11"/>
-      <c r="R106" s="19"/>
-      <c r="S106" s="19"/>
+      <c r="R106" s="27"/>
+      <c r="S106" s="27"/>
       <c r="T106" t="s">
         <v>44</v>
       </c>
@@ -5293,8 +5606,8 @@
       <c r="J107" s="11"/>
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
-      <c r="R107" s="19"/>
-      <c r="S107" s="19"/>
+      <c r="R107" s="27"/>
+      <c r="S107" s="27"/>
       <c r="T107" t="s">
         <v>24</v>
       </c>
@@ -5306,8 +5619,8 @@
       <c r="J108" s="11"/>
       <c r="O108" s="11"/>
       <c r="P108" s="11"/>
-      <c r="R108" s="19"/>
-      <c r="S108" s="19"/>
+      <c r="R108" s="27"/>
+      <c r="S108" s="27"/>
       <c r="T108" t="s">
         <v>92</v>
       </c>
@@ -5319,8 +5632,8 @@
       <c r="J109" s="11"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
-      <c r="R109" s="19"/>
-      <c r="S109" s="19"/>
+      <c r="R109" s="27"/>
+      <c r="S109" s="27"/>
       <c r="T109" t="s">
         <v>50</v>
       </c>
@@ -5332,8 +5645,8 @@
       <c r="J110" s="11"/>
       <c r="O110" s="11"/>
       <c r="P110" s="11"/>
-      <c r="R110" s="19"/>
-      <c r="S110" s="19"/>
+      <c r="R110" s="27"/>
+      <c r="S110" s="27"/>
       <c r="T110" t="s">
         <v>57</v>
       </c>
@@ -5345,8 +5658,8 @@
       <c r="J111" s="11"/>
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="19"/>
+      <c r="R111" s="27"/>
+      <c r="S111" s="27"/>
       <c r="T111" t="s">
         <v>49</v>
       </c>
@@ -5358,8 +5671,8 @@
       <c r="J112" s="11"/>
       <c r="O112" s="11"/>
       <c r="P112" s="11"/>
-      <c r="R112" s="19"/>
-      <c r="S112" s="19"/>
+      <c r="R112" s="27"/>
+      <c r="S112" s="27"/>
       <c r="T112" t="s">
         <v>69</v>
       </c>
@@ -5371,8 +5684,8 @@
       <c r="J113" s="11"/>
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
-      <c r="R113" s="19"/>
-      <c r="S113" s="19" t="s">
+      <c r="R113" s="27"/>
+      <c r="S113" s="27" t="s">
         <v>36</v>
       </c>
       <c r="T113" t="s">
@@ -5386,8 +5699,8 @@
       <c r="J114" s="11"/>
       <c r="O114" s="11"/>
       <c r="P114" s="11"/>
-      <c r="R114" s="19"/>
-      <c r="S114" s="19"/>
+      <c r="R114" s="27"/>
+      <c r="S114" s="27"/>
       <c r="T114" t="s">
         <v>45</v>
       </c>
@@ -5399,8 +5712,8 @@
       <c r="J115" s="11"/>
       <c r="O115" s="11"/>
       <c r="P115" s="5"/>
-      <c r="R115" s="19"/>
-      <c r="S115" s="19"/>
+      <c r="R115" s="27"/>
+      <c r="S115" s="27"/>
       <c r="T115" t="s">
         <v>52</v>
       </c>
@@ -5412,8 +5725,8 @@
       <c r="J116" s="11"/>
       <c r="O116" s="11"/>
       <c r="P116" s="11"/>
-      <c r="R116" s="19"/>
-      <c r="S116" s="19"/>
+      <c r="R116" s="27"/>
+      <c r="S116" s="27"/>
       <c r="T116" t="s">
         <v>46</v>
       </c>
@@ -5425,8 +5738,8 @@
       <c r="J117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
-      <c r="R117" s="19"/>
-      <c r="S117" s="19"/>
+      <c r="R117" s="27"/>
+      <c r="S117" s="27"/>
       <c r="T117" t="s">
         <v>81</v>
       </c>
@@ -6064,6 +6377,183 @@
     </row>
   </sheetData>
   <mergeCells count="201">
+    <mergeCell ref="S113:S117"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="R98:R102"/>
+    <mergeCell ref="S98:S100"/>
+    <mergeCell ref="S101:S102"/>
+    <mergeCell ref="R103:R117"/>
+    <mergeCell ref="S103:S112"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="R90:R97"/>
+    <mergeCell ref="S90:S93"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="S94:S97"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="AA76:AA80"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="L2:L14"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="R24:R28"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="X12:X19"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Y14:Y19"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="AB77:AB80"/>
+    <mergeCell ref="S79:S84"/>
+    <mergeCell ref="G80:G86"/>
+    <mergeCell ref="U8:U12"/>
+    <mergeCell ref="AA81:AA83"/>
+    <mergeCell ref="V9:V12"/>
+    <mergeCell ref="AB82:AB83"/>
+    <mergeCell ref="AA84:AA86"/>
+    <mergeCell ref="R85:R89"/>
+    <mergeCell ref="S85:S88"/>
+    <mergeCell ref="AB85:AB86"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="S68:S69"/>
+    <mergeCell ref="AA68:AA75"/>
+    <mergeCell ref="AB68:AB70"/>
+    <mergeCell ref="O8:O17"/>
+    <mergeCell ref="G70:G74"/>
+    <mergeCell ref="P9:P17"/>
+    <mergeCell ref="R70:R84"/>
+    <mergeCell ref="S70:S78"/>
+    <mergeCell ref="AB71:AB75"/>
+    <mergeCell ref="I2:I14"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="AK15:AK18"/>
+    <mergeCell ref="AA61:AA63"/>
+    <mergeCell ref="S62:S64"/>
+    <mergeCell ref="AB62:AB63"/>
+    <mergeCell ref="O2:O7"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="AA64:AA67"/>
+    <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="R65:R69"/>
+    <mergeCell ref="S65:S67"/>
+    <mergeCell ref="AB65:AB67"/>
+    <mergeCell ref="AB53:AB56"/>
+    <mergeCell ref="R55:R58"/>
+    <mergeCell ref="S56:S58"/>
+    <mergeCell ref="AA57:AA60"/>
+    <mergeCell ref="S50:S54"/>
+    <mergeCell ref="AB50:AB51"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AK10:AK14"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="AA52:AA56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="AB58:AB60"/>
+    <mergeCell ref="R59:R64"/>
+    <mergeCell ref="S59:S61"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="AJ15:AJ23"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="R44:R54"/>
+    <mergeCell ref="S44:S49"/>
+    <mergeCell ref="AJ8:AJ14"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="AA47:AA51"/>
+    <mergeCell ref="AB47:AB49"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="AA40:AA46"/>
+    <mergeCell ref="AB40:AB45"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="AH38:AH40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="R39:R43"/>
+    <mergeCell ref="S40:S43"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="AA30:AA32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="R33:R38"/>
+    <mergeCell ref="S33:S36"/>
+    <mergeCell ref="AA33:AA39"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="R29:R32"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AG31:AG35"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="R13:R19"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="AG38:AG42"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="AB33:AB38"/>
+    <mergeCell ref="AH33:AH35"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AG24:AG30"/>
+    <mergeCell ref="AH24:AH26"/>
+    <mergeCell ref="AB14:AB17"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="AA26:AA29"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="AH27:AH30"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="AA18:AA20"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="AA21:AA25"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="AB9:AB12"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AG15:AG19"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="AK4:AK7"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="AH17:AH19"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AG20:AG23"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AH21:AH23"/>
+    <mergeCell ref="AB23:AB25"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AG9:AG14"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AH12:AH14"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AJ2:AJ7"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="C2:C9"/>
@@ -6088,183 +6578,6 @@
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="AB9:AB12"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AG15:AG19"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="AH17:AH19"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AG20:AG23"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AH21:AH23"/>
-    <mergeCell ref="AB23:AB25"/>
-    <mergeCell ref="S24:S27"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AG9:AG14"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AH12:AH14"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AJ2:AJ7"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="AB33:AB38"/>
-    <mergeCell ref="AH33:AH35"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AG24:AG30"/>
-    <mergeCell ref="AH24:AH26"/>
-    <mergeCell ref="AB14:AB17"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="AA26:AA29"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="AH27:AH30"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="AA18:AA20"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="AA21:AA25"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="R13:R19"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="AG38:AG42"/>
-    <mergeCell ref="AH38:AH40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="R39:R43"/>
-    <mergeCell ref="S40:S43"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="AA30:AA32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="R33:R38"/>
-    <mergeCell ref="S33:S36"/>
-    <mergeCell ref="AA33:AA39"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="R29:R32"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AG31:AG35"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="AA52:AA56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="AB58:AB60"/>
-    <mergeCell ref="R59:R64"/>
-    <mergeCell ref="S59:S61"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="AJ15:AJ23"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="R44:R54"/>
-    <mergeCell ref="S44:S49"/>
-    <mergeCell ref="AJ8:AJ14"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="AA47:AA51"/>
-    <mergeCell ref="AB47:AB49"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="AA40:AA46"/>
-    <mergeCell ref="AB40:AB45"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="AK15:AK18"/>
-    <mergeCell ref="AA61:AA63"/>
-    <mergeCell ref="S62:S64"/>
-    <mergeCell ref="AB62:AB63"/>
-    <mergeCell ref="O2:O7"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="AA64:AA67"/>
-    <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="R65:R69"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="AB65:AB67"/>
-    <mergeCell ref="AB53:AB56"/>
-    <mergeCell ref="R55:R58"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="AA57:AA60"/>
-    <mergeCell ref="S50:S54"/>
-    <mergeCell ref="AB50:AB51"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AK10:AK14"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AB77:AB80"/>
-    <mergeCell ref="S79:S84"/>
-    <mergeCell ref="G80:G86"/>
-    <mergeCell ref="U8:U12"/>
-    <mergeCell ref="AA81:AA83"/>
-    <mergeCell ref="V9:V12"/>
-    <mergeCell ref="AB82:AB83"/>
-    <mergeCell ref="AA84:AA86"/>
-    <mergeCell ref="R85:R89"/>
-    <mergeCell ref="S85:S88"/>
-    <mergeCell ref="AB85:AB86"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="S68:S69"/>
-    <mergeCell ref="AA68:AA75"/>
-    <mergeCell ref="AB68:AB70"/>
-    <mergeCell ref="O8:O17"/>
-    <mergeCell ref="G70:G74"/>
-    <mergeCell ref="P9:P17"/>
-    <mergeCell ref="R70:R84"/>
-    <mergeCell ref="S70:S78"/>
-    <mergeCell ref="AB71:AB75"/>
-    <mergeCell ref="I2:I14"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="AA76:AA80"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="L2:L14"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="R24:R28"/>
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="X12:X19"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Y14:Y19"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="S113:S117"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="R98:R102"/>
-    <mergeCell ref="S98:S100"/>
-    <mergeCell ref="S101:S102"/>
-    <mergeCell ref="R103:R117"/>
-    <mergeCell ref="S103:S112"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="R90:R97"/>
-    <mergeCell ref="S90:S93"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="S94:S97"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="G75:G79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7091,310 +7404,343 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CE93BD-90CB-4899-8529-B72F743680DF}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="25" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="39" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="35" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="35"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="35"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="35"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="35"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="35"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="25"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="C17" s="35"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="37" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="C20" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="37" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="36" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="36"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="36" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="25"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="C26" s="36"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="25"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="C27" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="37" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="36" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="36"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="36"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="36"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="25"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="C34" s="36"/>
+    </row>
+    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="25"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="C35" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="37" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="38" t="s">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C17"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C29:C34"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="A22:A24"/>
